--- a/devoir2_results.xlsx
+++ b/devoir2_results.xlsx
@@ -500,7 +500,7 @@
         <v>0.3682487299061701</v>
       </c>
       <c r="F2" t="n">
-        <v>4.680675833021208</v>
+        <v>4.680675833021207</v>
       </c>
       <c r="G2" t="n">
         <v>35.61873608701515</v>
@@ -553,7 +553,7 @@
         <v>4.702642173211798</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3516687104736786</v>
+        <v>0.3516687104736785</v>
       </c>
       <c r="F4" t="n">
         <v>4.706324657274862</v>
@@ -576,7 +576,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -615,6 +615,21 @@
           <t>i_over_n</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>D_ln_m</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>D_ln_ml</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>D_gumbel</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -624,7 +639,7 @@
         <v>0.008936958889347892</v>
       </c>
       <c r="C2" t="n">
-        <v>0.007487614647643662</v>
+        <v>0.007487614647643717</v>
       </c>
       <c r="D2" t="n">
         <v>0.0005950610170728506</v>
@@ -634,6 +649,15 @@
       </c>
       <c r="F2" t="n">
         <v>0.02380952380952381</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.01487256492017592</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.01632190916188009</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.02321446279245096</v>
       </c>
     </row>
     <row r="3">
@@ -644,7 +668,7 @@
         <v>0.06250023432670739</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05719022568203825</v>
+        <v>0.05719022568203853</v>
       </c>
       <c r="D3" t="n">
         <v>0.009066562770240941</v>
@@ -654,6 +678,15 @@
       </c>
       <c r="F3" t="n">
         <v>0.04761904761904762</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.01488118670765977</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.009571178062990911</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.03855248484880668</v>
       </c>
     </row>
     <row r="4">
@@ -664,7 +697,7 @@
         <v>0.1431643623253325</v>
       </c>
       <c r="C4" t="n">
-        <v>0.135744698891064</v>
+        <v>0.1357446988910646</v>
       </c>
       <c r="D4" t="n">
         <v>0.03362611369742202</v>
@@ -674,6 +707,15 @@
       </c>
       <c r="F4" t="n">
         <v>0.07142857142857142</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0717357908967611</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.06431612746249313</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0378024577311494</v>
       </c>
     </row>
     <row r="5">
@@ -684,7 +726,7 @@
         <v>0.1523767148425946</v>
       </c>
       <c r="C5" t="n">
-        <v>0.144854143183182</v>
+        <v>0.1448541431831825</v>
       </c>
       <c r="D5" t="n">
         <v>0.03724949282019956</v>
@@ -694,6 +736,15 @@
       </c>
       <c r="F5" t="n">
         <v>0.09523809523809523</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0571386196044994</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.04961604794508728</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.05798860241789567</v>
       </c>
     </row>
     <row r="6">
@@ -704,7 +755,7 @@
         <v>0.1623293156293571</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1547187596300518</v>
+        <v>0.1547187596300525</v>
       </c>
       <c r="D6" t="n">
         <v>0.04134654635219388</v>
@@ -714,6 +765,15 @@
       </c>
       <c r="F6" t="n">
         <v>0.119047619047619</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.04328169658173806</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.03567114058243345</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.07770107269542517</v>
       </c>
     </row>
     <row r="7">
@@ -724,7 +784,7 @@
         <v>0.1651047922720605</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1574737636531391</v>
+        <v>0.1574737636531398</v>
       </c>
       <c r="D7" t="n">
         <v>0.04252271984475932</v>
@@ -734,6 +794,15 @@
       </c>
       <c r="F7" t="n">
         <v>0.1428571428571428</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.02224764941491769</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0146166207959969</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.1003344230123835</v>
       </c>
     </row>
     <row r="8">
@@ -741,10 +810,10 @@
         <v>79.901</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2154550947662717</v>
+        <v>0.2154550947662716</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2077190396678332</v>
+        <v>0.2077190396678339</v>
       </c>
       <c r="D8" t="n">
         <v>0.06637430047709171</v>
@@ -754,6 +823,15 @@
       </c>
       <c r="F8" t="n">
         <v>0.1666666666666667</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.04878842809960496</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.04105237300116724</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.1002923661895749</v>
       </c>
     </row>
     <row r="9">
@@ -764,7 +842,7 @@
         <v>0.2204628077419719</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2127406016533084</v>
+        <v>0.2127406016533091</v>
       </c>
       <c r="D9" t="n">
         <v>0.06900445757919055</v>
@@ -774,6 +852,15 @@
       </c>
       <c r="F9" t="n">
         <v>0.1904761904761905</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.02998661726578139</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.02226441117711864</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.1214717328969999</v>
       </c>
     </row>
     <row r="10">
@@ -784,7 +871,7 @@
         <v>0.2240393025701286</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2163293575646528</v>
+        <v>0.2163293575646535</v>
       </c>
       <c r="D10" t="n">
         <v>0.07091121036863203</v>
@@ -794,6 +881,15 @@
       </c>
       <c r="F10" t="n">
         <v>0.2142857142857143</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.009753588284414333</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.002043643278939272</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.1433745039170822</v>
       </c>
     </row>
     <row r="11">
@@ -804,7 +900,7 @@
         <v>0.2273461350712963</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2196492423151344</v>
+        <v>0.2196492423151352</v>
       </c>
       <c r="D11" t="n">
         <v>0.0726951443102684</v>
@@ -814,6 +910,15 @@
       </c>
       <c r="F11" t="n">
         <v>0.2380952380952381</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.01074910302394178</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.01844599578010286</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.1654000937849697</v>
       </c>
     </row>
     <row r="12">
@@ -824,7 +929,7 @@
         <v>0.2366677541784064</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2290162461357502</v>
+        <v>0.2290162461357511</v>
       </c>
       <c r="D12" t="n">
         <v>0.07783196029649676</v>
@@ -834,6 +939,15 @@
       </c>
       <c r="F12" t="n">
         <v>0.2619047619047619</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.02523700772635551</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.03288851576901086</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.1840728016082652</v>
       </c>
     </row>
     <row r="13">
@@ -844,7 +958,7 @@
         <v>0.2382543055524297</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2306117501956809</v>
+        <v>0.2306117501956816</v>
       </c>
       <c r="D13" t="n">
         <v>0.07872211340494638</v>
@@ -854,6 +968,15 @@
       </c>
       <c r="F13" t="n">
         <v>0.2857142857142857</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.04745998016185599</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.05510253551860411</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.2069921723093393</v>
       </c>
     </row>
     <row r="14">
@@ -864,7 +987,7 @@
         <v>0.2474260685184582</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2398420010791213</v>
+        <v>0.2398420010791221</v>
       </c>
       <c r="D14" t="n">
         <v>0.08395822882500469</v>
@@ -874,6 +997,15 @@
       </c>
       <c r="F14" t="n">
         <v>0.3095238095238095</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.06209774100535131</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.06968180844468741</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.2255655806988048</v>
       </c>
     </row>
     <row r="15">
@@ -884,7 +1016,7 @@
         <v>0.2474865569492724</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2399029125565229</v>
+        <v>0.2399029125565237</v>
       </c>
       <c r="D15" t="n">
         <v>0.08399327111468681</v>
@@ -894,6 +1026,15 @@
       </c>
       <c r="F15" t="n">
         <v>0.3333333333333333</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.08584677638406091</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.09343042077680963</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.2493400622186465</v>
       </c>
     </row>
     <row r="16">
@@ -904,7 +1045,7 @@
         <v>0.2917017270447764</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2845456585030751</v>
+        <v>0.284545658503076</v>
       </c>
       <c r="D16" t="n">
         <v>0.1113835069161228</v>
@@ -914,6 +1055,15 @@
       </c>
       <c r="F16" t="n">
         <v>0.3571428571428572</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.06544113009808072</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.07259719863978115</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.2457593502267344</v>
       </c>
     </row>
     <row r="17">
@@ -924,7 +1074,7 @@
         <v>0.2947225247212408</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2876035609587578</v>
+        <v>0.2876035609587587</v>
       </c>
       <c r="D17" t="n">
         <v>0.1133835257558638</v>
@@ -934,6 +1084,15 @@
       </c>
       <c r="F17" t="n">
         <v>0.3809523809523809</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.0862298562311401</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.09334881999362221</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.2675688551965171</v>
       </c>
     </row>
     <row r="18">
@@ -941,10 +1100,10 @@
         <v>87.889</v>
       </c>
       <c r="B18" t="n">
-        <v>0.296338870368368</v>
+        <v>0.2963388703683681</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2892401380660732</v>
+        <v>0.289240138066074</v>
       </c>
       <c r="D18" t="n">
         <v>0.1144604052288724</v>
@@ -954,6 +1113,15 @@
       </c>
       <c r="F18" t="n">
         <v>0.4047619047619048</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.1084230343935367</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.1155217666958308</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.2903014995330324</v>
       </c>
     </row>
     <row r="19">
@@ -964,7 +1132,7 @@
         <v>0.358722276913348</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3525824291552067</v>
+        <v>0.3525824291552077</v>
       </c>
       <c r="D19" t="n">
         <v>0.1595804568207833</v>
@@ -974,6 +1142,15 @@
       </c>
       <c r="F19" t="n">
         <v>0.4285714285714285</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.06984915165808053</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.07598899941622089</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.2689909717506452</v>
       </c>
     </row>
     <row r="20">
@@ -984,7 +1161,7 @@
         <v>0.4189460720623802</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4139921948836405</v>
+        <v>0.4139921948836415</v>
       </c>
       <c r="D20" t="n">
         <v>0.2096390331449878</v>
@@ -994,6 +1171,15 @@
       </c>
       <c r="F20" t="n">
         <v>0.4523809523809524</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.03343488031857217</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.03838875749731091</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.2427419192359646</v>
       </c>
     </row>
     <row r="21">
@@ -1004,7 +1190,7 @@
         <v>0.4289134727232018</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4241743987264983</v>
+        <v>0.4241743987264993</v>
       </c>
       <c r="D21" t="n">
         <v>0.2185323097904424</v>
@@ -1014,6 +1200,15 @@
       </c>
       <c r="F21" t="n">
         <v>0.4761904761904762</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.04727700346727431</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.05201607746397685</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.2576581664000338</v>
       </c>
     </row>
     <row r="22">
@@ -1024,7 +1219,7 @@
         <v>0.4738477342539273</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4701257915513742</v>
+        <v>0.4701257915513752</v>
       </c>
       <c r="D22" t="n">
         <v>0.2607463726838885</v>
@@ -1034,6 +1229,15 @@
       </c>
       <c r="F22" t="n">
         <v>0.5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.02615226574607271</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.02987420844862476</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.2392536273161115</v>
       </c>
     </row>
     <row r="23">
@@ -1044,7 +1248,7 @@
         <v>0.5321357890372287</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5298154590707814</v>
+        <v>0.5298154590707826</v>
       </c>
       <c r="D23" t="n">
         <v>0.3206266148195194</v>
@@ -1054,6 +1258,15 @@
       </c>
       <c r="F23" t="n">
         <v>0.5238095238095238</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.008326265227704854</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.00600593526125881</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.2031829089900044</v>
       </c>
     </row>
     <row r="24">
@@ -1064,7 +1277,7 @@
         <v>0.5761424783854154</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5749070489036989</v>
+        <v>0.5749070489036998</v>
       </c>
       <c r="D24" t="n">
         <v>0.3696127641008278</v>
@@ -1074,6 +1287,15 @@
       </c>
       <c r="F24" t="n">
         <v>0.5476190476190477</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.02852343076636776</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.02728800128465214</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.1780062835182198</v>
       </c>
     </row>
     <row r="25">
@@ -1084,7 +1306,7 @@
         <v>0.5988018038945421</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5981239651740808</v>
+        <v>0.5981239651740817</v>
       </c>
       <c r="D25" t="n">
         <v>0.3960879015570422</v>
@@ -1094,6 +1316,15 @@
       </c>
       <c r="F25" t="n">
         <v>0.5714285714285714</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02737323246597068</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.02669539374551033</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.1753406698715292</v>
       </c>
     </row>
     <row r="26">
@@ -1101,10 +1332,10 @@
         <v>119.692</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6118046401611392</v>
+        <v>0.6118046401611391</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6114444222451164</v>
+        <v>0.6114444222451174</v>
       </c>
       <c r="D26" t="n">
         <v>0.4116615538701797</v>
@@ -1114,6 +1345,15 @@
       </c>
       <c r="F26" t="n">
         <v>0.5952380952380952</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.01656654492304388</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.01620632700702218</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.1835765413679155</v>
       </c>
     </row>
     <row r="27">
@@ -1124,7 +1364,7 @@
         <v>0.616345309525232</v>
       </c>
       <c r="C27" t="n">
-        <v>0.6160954206262312</v>
+        <v>0.6160954206262322</v>
       </c>
       <c r="D27" t="n">
         <v>0.4171651699873602</v>
@@ -1134,6 +1374,15 @@
       </c>
       <c r="F27" t="n">
         <v>0.6190476190476191</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.002702309522387036</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.002952198421386831</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.2018824490602589</v>
       </c>
     </row>
     <row r="28">
@@ -1144,7 +1393,7 @@
         <v>0.6205574342744622</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6204095732058181</v>
+        <v>0.6204095732058192</v>
       </c>
       <c r="D28" t="n">
         <v>0.4223006743546385</v>
@@ -1154,6 +1403,15 @@
       </c>
       <c r="F28" t="n">
         <v>0.6428571428571429</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.02229970858268071</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.02244756965132366</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.2205564685025044</v>
       </c>
     </row>
     <row r="29">
@@ -1161,10 +1419,10 @@
         <v>120.866</v>
       </c>
       <c r="B29" t="n">
-        <v>0.621684782699284</v>
+        <v>0.6216847826992838</v>
       </c>
       <c r="C29" t="n">
-        <v>0.621564173242112</v>
+        <v>0.6215641732421128</v>
       </c>
       <c r="D29" t="n">
         <v>0.4236800700694461</v>
@@ -1174,6 +1432,15 @@
       </c>
       <c r="F29" t="n">
         <v>0.6666666666666666</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.04498188396738279</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.04510249342455386</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.2429865965972205</v>
       </c>
     </row>
     <row r="30">
@@ -1184,7 +1451,7 @@
         <v>0.6331177416530361</v>
       </c>
       <c r="C30" t="n">
-        <v>0.6332720344205147</v>
+        <v>0.6332720344205158</v>
       </c>
       <c r="D30" t="n">
         <v>0.4377860971171033</v>
@@ -1194,6 +1461,15 @@
       </c>
       <c r="F30" t="n">
         <v>0.6904761904761905</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.05735844882315433</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.05720415605567464</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.2526900933590872</v>
       </c>
     </row>
     <row r="31">
@@ -1204,7 +1480,7 @@
         <v>0.6624454044936983</v>
       </c>
       <c r="C31" t="n">
-        <v>0.663289521042138</v>
+        <v>0.663289521042139</v>
       </c>
       <c r="D31" t="n">
         <v>0.4749398147344222</v>
@@ -1214,6 +1490,15 @@
       </c>
       <c r="F31" t="n">
         <v>0.7142857142857143</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.05184030979201604</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.05099619324357529</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.2393458995512921</v>
       </c>
     </row>
     <row r="32">
@@ -1224,7 +1509,7 @@
         <v>0.6785462256846684</v>
       </c>
       <c r="C32" t="n">
-        <v>0.6797569374910249</v>
+        <v>0.6797569374910258</v>
       </c>
       <c r="D32" t="n">
         <v>0.495926501942637</v>
@@ -1234,6 +1519,15 @@
       </c>
       <c r="F32" t="n">
         <v>0.7380952380952381</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.05954901241056976</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.0583383006042123</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.2421687361526011</v>
       </c>
     </row>
     <row r="33">
@@ -1244,7 +1538,7 @@
         <v>0.6888916987738397</v>
       </c>
       <c r="C33" t="n">
-        <v>0.690332368000132</v>
+        <v>0.6903323680001329</v>
       </c>
       <c r="D33" t="n">
         <v>0.5096304962457631</v>
@@ -1254,6 +1548,15 @@
       </c>
       <c r="F33" t="n">
         <v>0.7619047619047619</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.07301306313092215</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.07157239390462899</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.2522742656589988</v>
       </c>
     </row>
     <row r="34">
@@ -1264,7 +1567,7 @@
         <v>0.6988391408882454</v>
       </c>
       <c r="C34" t="n">
-        <v>0.7004962433245092</v>
+        <v>0.70049624332451</v>
       </c>
       <c r="D34" t="n">
         <v>0.5229682951123188</v>
@@ -1274,6 +1577,15 @@
       </c>
       <c r="F34" t="n">
         <v>0.7857142857142857</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.08687514482604031</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.08521804238977571</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.2627459906019669</v>
       </c>
     </row>
     <row r="35">
@@ -1284,7 +1596,7 @@
         <v>0.7067520182487361</v>
       </c>
       <c r="C35" t="n">
-        <v>0.70857769913901</v>
+        <v>0.708577699139011</v>
       </c>
       <c r="D35" t="n">
         <v>0.5336905080675181</v>
@@ -1294,6 +1606,15 @@
       </c>
       <c r="F35" t="n">
         <v>0.8095238095238095</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.1027717912750734</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.1009461103847985</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.2758333014562915</v>
       </c>
     </row>
     <row r="36">
@@ -1304,7 +1625,7 @@
         <v>0.7877546663520549</v>
       </c>
       <c r="C36" t="n">
-        <v>0.791057967149682</v>
+        <v>0.7910579671496827</v>
       </c>
       <c r="D36" t="n">
         <v>0.6491224510566556</v>
@@ -1314,6 +1635,15 @@
       </c>
       <c r="F36" t="n">
         <v>0.8333333333333334</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.04557866698127844</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.04227536618365069</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.1842108822766778</v>
       </c>
     </row>
     <row r="37">
@@ -1324,7 +1654,7 @@
         <v>0.8659708447322163</v>
       </c>
       <c r="C37" t="n">
-        <v>0.8700062222782756</v>
+        <v>0.8700062222782761</v>
       </c>
       <c r="D37" t="n">
         <v>0.770249849312685</v>
@@ -1334,6 +1664,15 @@
       </c>
       <c r="F37" t="n">
         <v>0.8571428571428571</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.00882798758935921</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.01286336513541897</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.08689300783017206</v>
       </c>
     </row>
     <row r="38">
@@ -1344,7 +1683,7 @@
         <v>0.8901830651801689</v>
       </c>
       <c r="C38" t="n">
-        <v>0.8942157470270045</v>
+        <v>0.8942157470270049</v>
       </c>
       <c r="D38" t="n">
         <v>0.8096576330506836</v>
@@ -1354,6 +1693,15 @@
       </c>
       <c r="F38" t="n">
         <v>0.8809523809523809</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.009230684227787944</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.01326336607462397</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.07129474790169732</v>
       </c>
     </row>
     <row r="39">
@@ -1364,7 +1712,7 @@
         <v>0.913458139722889</v>
       </c>
       <c r="C39" t="n">
-        <v>0.9173353034810195</v>
+        <v>0.9173353034810199</v>
       </c>
       <c r="D39" t="n">
         <v>0.8484021126087865</v>
@@ -1374,6 +1722,15 @@
       </c>
       <c r="F39" t="n">
         <v>0.9047619047619048</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.008696234960984262</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.01257339871911511</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.05635979215311826</v>
       </c>
     </row>
     <row r="40">
@@ -1384,7 +1741,7 @@
         <v>0.9247625945204265</v>
       </c>
       <c r="C40" t="n">
-        <v>0.9284958333822534</v>
+        <v>0.9284958333822537</v>
       </c>
       <c r="D40" t="n">
         <v>0.8675299391413916</v>
@@ -1394,6 +1751,15 @@
       </c>
       <c r="F40" t="n">
         <v>0.9285714285714286</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.003808834051002075</v>
+      </c>
+      <c r="H40" t="n">
+        <v>7.559518917488184e-05</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.06104148943003695</v>
       </c>
     </row>
     <row r="41">
@@ -1404,7 +1770,7 @@
         <v>0.9714602391574156</v>
       </c>
       <c r="C41" t="n">
-        <v>0.9738532505794388</v>
+        <v>0.9738532505794389</v>
       </c>
       <c r="D41" t="n">
         <v>0.9488088073313276</v>
@@ -1414,6 +1780,15 @@
       </c>
       <c r="F41" t="n">
         <v>0.9523809523809523</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.01907928677646331</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.02147229819848662</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.003572145049624775</v>
       </c>
     </row>
     <row r="42">
@@ -1424,7 +1799,7 @@
         <v>0.9805243881396879</v>
       </c>
       <c r="C42" t="n">
-        <v>0.9824242202613793</v>
+        <v>0.9824242202613794</v>
       </c>
       <c r="D42" t="n">
         <v>0.9650394847599911</v>
@@ -1434,6 +1809,15 @@
       </c>
       <c r="F42" t="n">
         <v>0.9761904761904762</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.004333911949211733</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.006233744070903269</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.01115099143048504</v>
       </c>
     </row>
     <row r="43">
@@ -1454,6 +1838,15 @@
       </c>
       <c r="F43" t="n">
         <v>1</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.0152537298048353</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.01363187239394892</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.02734746904062602</v>
       </c>
     </row>
   </sheetData>
@@ -1467,7 +1860,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1506,6 +1899,21 @@
           <t>i_over_n</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>D_ln_m</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>D_ln_ml</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>D_gumbel</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1526,6 +1934,15 @@
       <c r="F2" t="n">
         <v>0.02127659574468085</v>
       </c>
+      <c r="G2" t="n">
+        <v>0.005253897923273798</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.01262862244143387</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.01902596649327718</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1546,6 +1963,15 @@
       <c r="F3" t="n">
         <v>0.0425531914893617</v>
       </c>
+      <c r="G3" t="n">
+        <v>0.03816852415719558</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0162723639646575</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.02635137236083815</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1566,6 +1992,15 @@
       <c r="F4" t="n">
         <v>0.06382978723404255</v>
       </c>
+      <c r="G4" t="n">
+        <v>0.09895237602162936</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.07028405378985834</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.01952221095444269</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1586,6 +2021,15 @@
       <c r="F5" t="n">
         <v>0.0851063829787234</v>
       </c>
+      <c r="G5" t="n">
+        <v>0.08658532052568248</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.05762690920245157</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.037075714461287</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1606,6 +2050,15 @@
       <c r="F6" t="n">
         <v>0.1063829787234043</v>
       </c>
+      <c r="G6" t="n">
+        <v>0.07486345160390999</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.0456692699814739</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.05421416575475293</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1626,6 +2079,15 @@
       <c r="F7" t="n">
         <v>0.1276595744680851</v>
       </c>
+      <c r="G7" t="n">
+        <v>0.05623918820657001</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.02699277775799228</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.0743153399006147</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1646,6 +2108,15 @@
       <c r="F8" t="n">
         <v>0.148936170212766</v>
       </c>
+      <c r="G8" t="n">
+        <v>0.08231430162061881</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.05299534910947695</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.07265064806532966</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1666,6 +2137,15 @@
       <c r="F9" t="n">
         <v>0.1702127659574468</v>
       </c>
+      <c r="G9" t="n">
+        <v>0.06568037332339552</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.03643323545854607</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.09147786400032848</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1686,6 +2166,15 @@
       <c r="F10" t="n">
         <v>0.1914893617021277</v>
       </c>
+      <c r="G10" t="n">
+        <v>0.04771334042702252</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.01852514080295831</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.1109865054025368</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1706,6 +2195,15 @@
       <c r="F11" t="n">
         <v>0.2127659574468085</v>
       </c>
+      <c r="G11" t="n">
+        <v>0.02949231275634642</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.0003641376930550722</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.1306146360504424</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1726,6 +2224,15 @@
       <c r="F12" t="n">
         <v>0.2340425531914894</v>
       </c>
+      <c r="G12" t="n">
+        <v>0.01680700295562554</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.01212431072681813</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.1471728570680799</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1746,6 +2253,15 @@
       <c r="F13" t="n">
         <v>0.2553191489361702</v>
       </c>
+      <c r="G13" t="n">
+        <v>0.003010460151532945</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.03190431822815376</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.1676358515896829</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1766,13 +2282,22 @@
       <c r="F14" t="n">
         <v>0.2765957446808511</v>
       </c>
+      <c r="G14" t="n">
+        <v>0.01586868981950457</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.04452439326876961</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.1841489233561294</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>83.13500000000001</v>
       </c>
       <c r="B15" t="n">
-        <v>0.2607824823460792</v>
+        <v>0.2607824823460791</v>
       </c>
       <c r="C15" t="n">
         <v>0.232128469330987</v>
@@ -1785,6 +2310,15 @@
       </c>
       <c r="F15" t="n">
         <v>0.2978723404255319</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.03708985807945275</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.06574387109454488</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.2053937625572669</v>
       </c>
     </row>
     <row r="16">
@@ -1806,6 +2340,15 @@
       <c r="F16" t="n">
         <v>0.3191489361702128</v>
       </c>
+      <c r="G16" t="n">
+        <v>0.01812997306198927</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.04516889576327476</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.2022546494675858</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1826,6 +2369,15 @@
       <c r="F17" t="n">
         <v>0.3404255319148936</v>
       </c>
+      <c r="G17" t="n">
+        <v>0.03667538494822159</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.06357865375038102</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.2217748846108964</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1846,6 +2398,15 @@
       <c r="F18" t="n">
         <v>0.3617021276595745</v>
       </c>
+      <c r="G18" t="n">
+        <v>0.05649140543067932</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.0833208765840408</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.2421070264603841</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1855,7 +2416,7 @@
         <v>0.3478922977144504</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3235742483507529</v>
+        <v>0.3235742483507528</v>
       </c>
       <c r="D19" t="n">
         <v>0.1488002803577517</v>
@@ -1865,6 +2426,15 @@
       </c>
       <c r="F19" t="n">
         <v>0.3829787234042553</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.03508642568980491</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.05940447505350249</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.2341784430465036</v>
       </c>
     </row>
     <row r="20">
@@ -1886,6 +2456,15 @@
       <c r="F20" t="n">
         <v>0.4042553191489361</v>
       </c>
+      <c r="G20" t="n">
+        <v>0.04302273516890148</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.06642911673994634</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.2456857390064667</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1906,6 +2485,15 @@
       <c r="F21" t="n">
         <v>0.425531914893617</v>
       </c>
+      <c r="G21" t="n">
+        <v>0.01062644549011654</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.0298720892760635</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.2245324648121984</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1926,6 +2514,15 @@
       <c r="F22" t="n">
         <v>0.4468085106382979</v>
       </c>
+      <c r="G22" t="n">
+        <v>0.02409719766534457</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.04268173951953308</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.2392178508790648</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1946,6 +2543,15 @@
       <c r="F23" t="n">
         <v>0.4680851063829787</v>
       </c>
+      <c r="G23" t="n">
+        <v>0.04431413269058404</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.06280798477365124</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.2595913843019186</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1966,6 +2572,15 @@
       <c r="F24" t="n">
         <v>0.4893617021276596</v>
       </c>
+      <c r="G24" t="n">
+        <v>0.04731870749176348</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.06421567389259947</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.2649835203422433</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1986,6 +2601,15 @@
       <c r="F25" t="n">
         <v>0.5106382978723404</v>
       </c>
+      <c r="G25" t="n">
+        <v>0.0469052925468959</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.06183412495490198</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.2666333450816208</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2006,6 +2630,15 @@
       <c r="F26" t="n">
         <v>0.5319148936170213</v>
       </c>
+      <c r="G26" t="n">
+        <v>0.01622380043102967</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.02620143791677343</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.2374555829050773</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2026,6 +2659,15 @@
       <c r="F27" t="n">
         <v>0.5531914893617021</v>
       </c>
+      <c r="G27" t="n">
+        <v>0.001945808775285607</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.004145174652571804</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.2171478016458932</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2046,6 +2688,15 @@
       <c r="F28" t="n">
         <v>0.574468085106383</v>
       </c>
+      <c r="G28" t="n">
+        <v>0.00109226785825367</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.002975084076311307</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.2157693093134948</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2066,6 +2717,15 @@
       <c r="F29" t="n">
         <v>0.5957446808510638</v>
       </c>
+      <c r="G29" t="n">
+        <v>0.008422230096186256</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.01132709790531028</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.2236476198682278</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2086,6 +2746,15 @@
       <c r="F30" t="n">
         <v>0.6170212765957447</v>
       </c>
+      <c r="G30" t="n">
+        <v>0.02558337157915724</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.02808258980202261</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.2401755382341854</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2106,6 +2775,15 @@
       <c r="F31" t="n">
         <v>0.6382978723404256</v>
       </c>
+      <c r="G31" t="n">
+        <v>0.04303836517422743</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.0451615542056093</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.257014279740892</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2126,6 +2804,15 @@
       <c r="F32" t="n">
         <v>0.6595744680851063</v>
       </c>
+      <c r="G32" t="n">
+        <v>0.06329147758741627</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.06531407869498396</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.2770977296470396</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2146,6 +2833,15 @@
       <c r="F33" t="n">
         <v>0.6808510638297872</v>
       </c>
+      <c r="G33" t="n">
+        <v>0.07417219869390057</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.07517638710697017</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.2861443648978126</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2155,7 +2851,7 @@
         <v>0.633494986614397</v>
       </c>
       <c r="C34" t="n">
-        <v>0.6350802116839613</v>
+        <v>0.6350802116839612</v>
       </c>
       <c r="D34" t="n">
         <v>0.4271878229029907</v>
@@ -2165,6 +2861,15 @@
       </c>
       <c r="F34" t="n">
         <v>0.7021276595744681</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.06863267296007114</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.06704744789050687</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.2749398366714774</v>
       </c>
     </row>
     <row r="35">
@@ -2186,6 +2891,15 @@
       <c r="F35" t="n">
         <v>0.723404255319149</v>
       </c>
+      <c r="G35" t="n">
+        <v>0.07508432612613924</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.07209942770078193</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.277679543263449</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2195,7 +2909,7 @@
         <v>0.6578888628940529</v>
       </c>
       <c r="C36" t="n">
-        <v>0.6617618152027531</v>
+        <v>0.661761815202753</v>
       </c>
       <c r="D36" t="n">
         <v>0.457909723023923</v>
@@ -2205,6 +2919,15 @@
       </c>
       <c r="F36" t="n">
         <v>0.7446808510638298</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.08679198816977685</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.08291903586107674</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.2867711280399068</v>
       </c>
     </row>
     <row r="37">
@@ -2226,6 +2949,15 @@
       <c r="F37" t="n">
         <v>0.7659574468085106</v>
       </c>
+      <c r="G37" t="n">
+        <v>0.0988333776055299</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.09411649540856348</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.2961235315895446</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2235,7 +2967,7 @@
         <v>0.674444341941868</v>
       </c>
       <c r="C38" t="n">
-        <v>0.6798200263440445</v>
+        <v>0.6798200263440446</v>
       </c>
       <c r="D38" t="n">
         <v>0.4794003394046355</v>
@@ -2245,6 +2977,15 @@
       </c>
       <c r="F38" t="n">
         <v>0.7872340425531915</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.1127897006113235</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.1074140162091469</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.307833703148556</v>
       </c>
     </row>
     <row r="39">
@@ -2266,13 +3007,22 @@
       <c r="F39" t="n">
         <v>0.8085106382978723</v>
       </c>
+      <c r="G39" t="n">
+        <v>0.1340146996886756</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.128634405521142</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.3290425098860433</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>145.328</v>
       </c>
       <c r="B40" t="n">
-        <v>0.7515768552681845</v>
+        <v>0.7515768552681846</v>
       </c>
       <c r="C40" t="n">
         <v>0.7631433910939411</v>
@@ -2285,6 +3035,15 @@
       </c>
       <c r="F40" t="n">
         <v>0.8297872340425532</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.07821037877436854</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.06664384294861203</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.2433947299026309</v>
       </c>
     </row>
     <row r="41">
@@ -2306,6 +3065,15 @@
       <c r="F41" t="n">
         <v>0.851063829787234</v>
       </c>
+      <c r="G41" t="n">
+        <v>0.02089325160292066</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.00528245906757896</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.1440103655677394</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2326,6 +3094,15 @@
       <c r="F42" t="n">
         <v>0.8723404255319149</v>
       </c>
+      <c r="G42" t="n">
+        <v>0.01650760137574703</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.0003585446841516404</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.1233773541254568</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2346,6 +3123,15 @@
       <c r="F43" t="n">
         <v>0.8936170212765957</v>
       </c>
+      <c r="G43" t="n">
+        <v>0.01221758812430007</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.003927817003261058</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.1017093387940714</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2366,6 +3152,15 @@
       <c r="F44" t="n">
         <v>0.9148936170212766</v>
       </c>
+      <c r="G44" t="n">
+        <v>0.02066842459872686</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.00477114862572936</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.1010091412413048</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2386,6 +3181,15 @@
       <c r="F45" t="n">
         <v>0.9361702127659575</v>
       </c>
+      <c r="G45" t="n">
+        <v>0.01574661708262959</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.02758806984264628</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.02027366361524474</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2406,6 +3210,15 @@
       <c r="F46" t="n">
         <v>0.9574468085106383</v>
       </c>
+      <c r="G46" t="n">
+        <v>0.007262039586238056</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.01723129406793888</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.01842922036576145</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2426,6 +3239,15 @@
       <c r="F47" t="n">
         <v>0.9787234042553191</v>
       </c>
+      <c r="G47" t="n">
+        <v>0.007691496303486423</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.001144972820326107</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.02827040895237698</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2445,6 +3267,15 @@
       </c>
       <c r="F48" t="n">
         <v>1</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.004691716736686335</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.002396842458487591</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.006720468282694902</v>
       </c>
     </row>
   </sheetData>
@@ -2458,7 +3289,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2497,6 +3328,21 @@
           <t>i_over_n</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>D_ln_m</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>D_ln_ml</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>D_gumbel</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -2506,7 +3352,7 @@
         <v>0.04532667197068628</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0383640967958297</v>
+        <v>0.03836409679582967</v>
       </c>
       <c r="D2" t="n">
         <v>0.005149288448955172</v>
@@ -2516,6 +3362,15 @@
       </c>
       <c r="F2" t="n">
         <v>0.02380952380952381</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.02151714816116247</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.01455457298630586</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.01866023536056863</v>
       </c>
     </row>
     <row r="3">
@@ -2537,6 +3392,15 @@
       <c r="F3" t="n">
         <v>0.04761904761904762</v>
       </c>
+      <c r="G3" t="n">
+        <v>0.019132218764153</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.01049359373285415</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.03816871115674057</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -2546,7 +3410,7 @@
         <v>0.1170442383146548</v>
       </c>
       <c r="C4" t="n">
-        <v>0.106037975513171</v>
+        <v>0.1060379755131709</v>
       </c>
       <c r="D4" t="n">
         <v>0.02352257270241736</v>
@@ -2556,6 +3420,15 @@
       </c>
       <c r="F4" t="n">
         <v>0.07142857142857142</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0456156668860834</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.03460940408459948</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.04790599872615407</v>
       </c>
     </row>
     <row r="5">
@@ -2566,7 +3439,7 @@
         <v>0.1215376824557723</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1103972762585638</v>
+        <v>0.1103972762585637</v>
       </c>
       <c r="D5" t="n">
         <v>0.02503863733737148</v>
@@ -2576,6 +3449,15 @@
       </c>
       <c r="F5" t="n">
         <v>0.09523809523809523</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.02629958721767706</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.01515918102046843</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.07019945790072375</v>
       </c>
     </row>
     <row r="6">
@@ -2586,7 +3468,7 @@
         <v>0.1392886890801395</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1277152932898554</v>
+        <v>0.1277152932898553</v>
       </c>
       <c r="D6" t="n">
         <v>0.03142979156554484</v>
@@ -2596,6 +3478,15 @@
       </c>
       <c r="F6" t="n">
         <v>0.119047619047619</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.02024107003252043</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.008667674242236273</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.0876178274820742</v>
       </c>
     </row>
     <row r="7">
@@ -2617,6 +3508,15 @@
       <c r="F7" t="n">
         <v>0.1428571428571428</v>
       </c>
+      <c r="G7" t="n">
+        <v>0.0009819862210175279</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.01260644839204506</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.1104430097632905</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -2637,13 +3537,22 @@
       <c r="F8" t="n">
         <v>0.1666666666666667</v>
       </c>
+      <c r="G8" t="n">
+        <v>0.01068927353789914</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.00136892900267091</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.1194091740412051</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>79.901</v>
       </c>
       <c r="B9" t="n">
-        <v>0.189408838292707</v>
+        <v>0.1894088382927069</v>
       </c>
       <c r="C9" t="n">
         <v>0.1773034937306383</v>
@@ -2656,6 +3565,15 @@
       </c>
       <c r="F9" t="n">
         <v>0.1904761904761905</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.001067352183483528</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.01317269674555221</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.1376154449888033</v>
       </c>
     </row>
     <row r="10">
@@ -2666,7 +3584,7 @@
         <v>0.1976181584774409</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1855062400867627</v>
+        <v>0.1855062400867626</v>
       </c>
       <c r="D10" t="n">
         <v>0.05683782106451212</v>
@@ -2676,6 +3594,15 @@
       </c>
       <c r="F10" t="n">
         <v>0.2142857142857143</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.01666755580827337</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.02877947419895169</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.1574478932212021</v>
       </c>
     </row>
     <row r="11">
@@ -2697,16 +3624,25 @@
       <c r="F11" t="n">
         <v>0.2380952380952381</v>
       </c>
+      <c r="G11" t="n">
+        <v>0.02834976465640349</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.04043610376781509</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.1751457272139101</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>83.129</v>
       </c>
       <c r="B12" t="n">
-        <v>0.2201222857493692</v>
+        <v>0.2201222857493693</v>
       </c>
       <c r="C12" t="n">
-        <v>0.208089157777865</v>
+        <v>0.2080891577778649</v>
       </c>
       <c r="D12" t="n">
         <v>0.06840151846568185</v>
@@ -2716,6 +3652,15 @@
       </c>
       <c r="F12" t="n">
         <v>0.2619047619047619</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.04178247615539266</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.05381560412689701</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.1935032434390801</v>
       </c>
     </row>
     <row r="13">
@@ -2737,6 +3682,15 @@
       <c r="F13" t="n">
         <v>0.2857142857142857</v>
       </c>
+      <c r="G13" t="n">
+        <v>0.06553354175863346</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.07756629188484343</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.2172814745426736</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2757,6 +3711,15 @@
       <c r="F14" t="n">
         <v>0.3095238095238095</v>
       </c>
+      <c r="G14" t="n">
+        <v>0.04332581933786928</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.05481823822593118</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.21446830412893</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2777,6 +3740,15 @@
       <c r="F15" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="G15" t="n">
+        <v>0.06554841321572719</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.0770143134722267</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.237289448172599</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2797,6 +3769,15 @@
       <c r="F16" t="n">
         <v>0.3571428571428572</v>
       </c>
+      <c r="G16" t="n">
+        <v>0.07368832726996705</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.08486743410851311</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.2510907237569697</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2817,6 +3798,15 @@
       <c r="F17" t="n">
         <v>0.3809523809523809</v>
       </c>
+      <c r="G17" t="n">
+        <v>0.05136323994716724</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.06146426536635791</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.2428370620926489</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2837,6 +3827,15 @@
       <c r="F18" t="n">
         <v>0.4047619047619048</v>
       </c>
+      <c r="G18" t="n">
+        <v>0.06273132936358339</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.07248983288721922</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.2573439264134555</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2846,7 +3845,7 @@
         <v>0.3901761674654039</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3819107160416728</v>
+        <v>0.3819107160416727</v>
       </c>
       <c r="D19" t="n">
         <v>0.1860002321232449</v>
@@ -2856,6 +3855,15 @@
       </c>
       <c r="F19" t="n">
         <v>0.4285714285714285</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.03839526110602465</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.04666071252975584</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.2425711964481836</v>
       </c>
     </row>
     <row r="20">
@@ -2877,6 +3885,15 @@
       <c r="F20" t="n">
         <v>0.4523809523809524</v>
       </c>
+      <c r="G20" t="n">
+        <v>0.05209899087866443</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.06002196725993553</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.2577665011170691</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2897,6 +3914,15 @@
       <c r="F21" t="n">
         <v>0.4761904761904762</v>
       </c>
+      <c r="G21" t="n">
+        <v>0.06969104440798146</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.07739900214480039</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.2761881584603852</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2917,6 +3943,15 @@
       <c r="F22" t="n">
         <v>0.5</v>
       </c>
+      <c r="G22" t="n">
+        <v>0.006087751261954377</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.002153566266200002</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.2047094000340758</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2937,6 +3972,15 @@
       <c r="F23" t="n">
         <v>0.5238095238095238</v>
       </c>
+      <c r="G23" t="n">
+        <v>0.01384248843835323</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.01762117658748052</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.2244703204723143</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2946,7 +3990,7 @@
         <v>0.5517670863942875</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5496795370978784</v>
+        <v>0.5496795370978785</v>
       </c>
       <c r="D24" t="n">
         <v>0.3445311813821007</v>
@@ -2956,6 +4000,15 @@
       </c>
       <c r="F24" t="n">
         <v>0.5476190476190477</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.004148038775239837</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.002060489478830863</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.203087866236947</v>
       </c>
     </row>
     <row r="25">
@@ -2977,6 +4030,15 @@
       <c r="F25" t="n">
         <v>0.5714285714285714</v>
       </c>
+      <c r="G25" t="n">
+        <v>0.003977108347783975</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.00284901229045198</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.2000841183034908</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2986,7 +4048,7 @@
         <v>0.5937591835832153</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5933716865863163</v>
+        <v>0.5933716865863164</v>
       </c>
       <c r="D26" t="n">
         <v>0.3927808303108698</v>
@@ -2996,6 +4058,15 @@
       </c>
       <c r="F26" t="n">
         <v>0.5952380952380952</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.0014789116548799</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.001866408651778784</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.2024572649272254</v>
       </c>
     </row>
     <row r="27">
@@ -3006,7 +4077,7 @@
         <v>0.5981722965883877</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5979618742790412</v>
+        <v>0.5979618742790413</v>
       </c>
       <c r="D27" t="n">
         <v>0.3980152078384691</v>
@@ -3016,6 +4087,15 @@
       </c>
       <c r="F27" t="n">
         <v>0.6190476190476191</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.0208753224592314</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.02108574476857772</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.22103241120915</v>
       </c>
     </row>
     <row r="28">
@@ -3037,6 +4117,15 @@
       <c r="F28" t="n">
         <v>0.6428571428571429</v>
       </c>
+      <c r="G28" t="n">
+        <v>0.04350328442779872</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.04366637809849983</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.2434352457151683</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3057,6 +4146,15 @@
       <c r="F29" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="G29" t="n">
+        <v>0.02447716899164021</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.02295665332803731</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.2147632111875914</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3077,6 +4175,15 @@
       <c r="F30" t="n">
         <v>0.6904761904761905</v>
       </c>
+      <c r="G30" t="n">
+        <v>0.04684602879950861</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.04527027672408723</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.2367577950734593</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3097,6 +4204,15 @@
       <c r="F31" t="n">
         <v>0.7142857142857143</v>
       </c>
+      <c r="G31" t="n">
+        <v>0.05511710498234568</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.05295302546837555</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.2407877468366905</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3117,6 +4233,15 @@
       <c r="F32" t="n">
         <v>0.7380952380952381</v>
       </c>
+      <c r="G32" t="n">
+        <v>0.06800033998334298</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.06543162410860737</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.2504657257124017</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3137,6 +4262,15 @@
       <c r="F33" t="n">
         <v>0.7619047619047619</v>
       </c>
+      <c r="G33" t="n">
+        <v>0.08129223107989414</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.0783420645477747</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.2604992875061168</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3157,6 +4291,15 @@
       <c r="F34" t="n">
         <v>0.7857142857142857</v>
       </c>
+      <c r="G34" t="n">
+        <v>0.09672734580030384</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.09347968874245371</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.2732192568732106</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3177,6 +4320,15 @@
       <c r="F35" t="n">
         <v>0.8095238095238095</v>
       </c>
+      <c r="G35" t="n">
+        <v>0.03445207274119877</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.0285883431171764</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.1769170645785199</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3197,13 +4349,22 @@
       <c r="F36" t="n">
         <v>0.8333333333333334</v>
       </c>
+      <c r="G36" t="n">
+        <v>0.01420224719700458</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.02127735105017459</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.09113455295230533</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>163.282</v>
       </c>
       <c r="B37" t="n">
-        <v>0.8586272343777036</v>
+        <v>0.8586272343777037</v>
       </c>
       <c r="C37" t="n">
         <v>0.8657650181216239</v>
@@ -3216,6 +4377,15 @@
       </c>
       <c r="F37" t="n">
         <v>0.8571428571428571</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.001484377234846623</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.00862216097876678</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.09749015782123915</v>
       </c>
     </row>
     <row r="38">
@@ -3237,6 +4407,15 @@
       <c r="F38" t="n">
         <v>0.8809523809523809</v>
       </c>
+      <c r="G38" t="n">
+        <v>0.00356343404622117</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.01067481162033612</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.07985132183509636</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3246,7 +4425,7 @@
         <v>0.9093774133891683</v>
       </c>
       <c r="C39" t="n">
-        <v>0.9161826338719199</v>
+        <v>0.9161826338719198</v>
       </c>
       <c r="D39" t="n">
         <v>0.8418607534665039</v>
@@ -3256,6 +4435,15 @@
       </c>
       <c r="F39" t="n">
         <v>0.9047619047619048</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.004615508627263565</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.01142072911001502</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.06290115129540086</v>
       </c>
     </row>
     <row r="40">
@@ -3266,7 +4454,7 @@
         <v>0.92143327505439</v>
       </c>
       <c r="C40" t="n">
-        <v>0.9279648136846881</v>
+        <v>0.9279648136846882</v>
       </c>
       <c r="D40" t="n">
         <v>0.8619755524133155</v>
@@ -3276,6 +4464,15 @@
       </c>
       <c r="F40" t="n">
         <v>0.9285714285714286</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.007138153517038615</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.0006066148867404086</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.06659587615811313</v>
       </c>
     </row>
     <row r="41">
@@ -3286,7 +4483,7 @@
         <v>0.970894911046088</v>
       </c>
       <c r="C41" t="n">
-        <v>0.9749595962366499</v>
+        <v>0.97495959623665</v>
       </c>
       <c r="D41" t="n">
         <v>0.9471923098832309</v>
@@ -3296,6 +4493,15 @@
       </c>
       <c r="F41" t="n">
         <v>0.9523809523809523</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.01851395866513572</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.02257864385569763</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.005188642497721441</v>
       </c>
     </row>
     <row r="42">
@@ -3317,6 +4523,15 @@
       <c r="F42" t="n">
         <v>0.9761904761904762</v>
       </c>
+      <c r="G42" t="n">
+        <v>0.004165701061616067</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.007346879961596553</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.0120948324896144</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3326,7 +4541,7 @@
         <v>0.9847284729833029</v>
       </c>
       <c r="C43" t="n">
-        <v>0.9874179059924981</v>
+        <v>0.9874179059924982</v>
       </c>
       <c r="D43" t="n">
         <v>0.9719963295893325</v>
@@ -3336,6 +4551,15 @@
       </c>
       <c r="F43" t="n">
         <v>1</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.0152715270166971</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.01258209400750177</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.02800367041066754</v>
       </c>
     </row>
   </sheetData>
@@ -3387,7 +4611,7 @@
         <v>174.3558351446289</v>
       </c>
       <c r="C2" t="n">
-        <v>172.881358348329</v>
+        <v>172.8813583483289</v>
       </c>
       <c r="D2" t="n">
         <v>195.5984159281983</v>
@@ -3401,7 +4625,7 @@
         <v>258.5530303380551</v>
       </c>
       <c r="C3" t="n">
-        <v>254.0041188816808</v>
+        <v>254.0041188816806</v>
       </c>
       <c r="D3" t="n">
         <v>279.2946772672564</v>
@@ -3415,7 +4639,7 @@
         <v>344.8704606412949</v>
       </c>
       <c r="C4" t="n">
-        <v>336.5174331025028</v>
+        <v>336.5174331025025</v>
       </c>
       <c r="D4" t="n">
         <v>361.4708714404961</v>
@@ -3429,7 +4653,7 @@
         <v>437.1556615783541</v>
       </c>
       <c r="C5" t="n">
-        <v>424.19740736531</v>
+        <v>424.1974073653096</v>
       </c>
       <c r="D5" t="n">
         <v>443.5020779678047</v>
@@ -3613,7 +4837,7 @@
         <v>176.147146317481</v>
       </c>
       <c r="C2" t="n">
-        <v>173.6438293779425</v>
+        <v>173.6438293779424</v>
       </c>
       <c r="D2" t="n">
         <v>197.0239888247402</v>
@@ -3627,7 +4851,7 @@
         <v>258.1170666685379</v>
       </c>
       <c r="C3" t="n">
-        <v>250.7429759414247</v>
+        <v>250.7429759414246</v>
       </c>
       <c r="D3" t="n">
         <v>279.7002497609799</v>
@@ -3655,7 +4879,7 @@
         <v>429.5454206408473</v>
       </c>
       <c r="C5" t="n">
-        <v>409.1927796756678</v>
+        <v>409.1927796756677</v>
       </c>
       <c r="D5" t="n">
         <v>441.9064665116047</v>

--- a/devoir2_results.xlsx
+++ b/devoir2_results.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Parameters" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Calendar 2020" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Calendar 2025" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Hydro 2020" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Hydrological 2020" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Return periods Calen 20" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="Return periods Calen 25" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="Return periods Hydro 20" sheetId="7" state="visible" r:id="rId7"/>
@@ -540,7 +540,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Hydro 2020</t>
+          <t>Hydrological 2020</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1860,7 +1860,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1899,21 +1899,6 @@
           <t>i_over_n</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>D_ln_m</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>D_ln_ml</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>D_gumbel</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1934,15 +1919,6 @@
       <c r="F2" t="n">
         <v>0.02127659574468085</v>
       </c>
-      <c r="G2" t="n">
-        <v>0.005253897923273798</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.01262862244143387</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.01902596649327718</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1963,15 +1939,6 @@
       <c r="F3" t="n">
         <v>0.0425531914893617</v>
       </c>
-      <c r="G3" t="n">
-        <v>0.03816852415719558</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.0162723639646575</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.02635137236083815</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1992,15 +1959,6 @@
       <c r="F4" t="n">
         <v>0.06382978723404255</v>
       </c>
-      <c r="G4" t="n">
-        <v>0.09895237602162936</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.07028405378985834</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.01952221095444269</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -2021,15 +1979,6 @@
       <c r="F5" t="n">
         <v>0.0851063829787234</v>
       </c>
-      <c r="G5" t="n">
-        <v>0.08658532052568248</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.05762690920245157</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.037075714461287</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -2050,15 +1999,6 @@
       <c r="F6" t="n">
         <v>0.1063829787234043</v>
       </c>
-      <c r="G6" t="n">
-        <v>0.07486345160390999</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.0456692699814739</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.05421416575475293</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -2079,15 +2019,6 @@
       <c r="F7" t="n">
         <v>0.1276595744680851</v>
       </c>
-      <c r="G7" t="n">
-        <v>0.05623918820657001</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.02699277775799228</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.0743153399006147</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -2108,15 +2039,6 @@
       <c r="F8" t="n">
         <v>0.148936170212766</v>
       </c>
-      <c r="G8" t="n">
-        <v>0.08231430162061881</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.05299534910947695</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.07265064806532966</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -2137,15 +2059,6 @@
       <c r="F9" t="n">
         <v>0.1702127659574468</v>
       </c>
-      <c r="G9" t="n">
-        <v>0.06568037332339552</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.03643323545854607</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.09147786400032848</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -2166,15 +2079,6 @@
       <c r="F10" t="n">
         <v>0.1914893617021277</v>
       </c>
-      <c r="G10" t="n">
-        <v>0.04771334042702252</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.01852514080295831</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.1109865054025368</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2195,15 +2099,6 @@
       <c r="F11" t="n">
         <v>0.2127659574468085</v>
       </c>
-      <c r="G11" t="n">
-        <v>0.02949231275634642</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.0003641376930550722</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.1306146360504424</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2224,15 +2119,6 @@
       <c r="F12" t="n">
         <v>0.2340425531914894</v>
       </c>
-      <c r="G12" t="n">
-        <v>0.01680700295562554</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.01212431072681813</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.1471728570680799</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2253,15 +2139,6 @@
       <c r="F13" t="n">
         <v>0.2553191489361702</v>
       </c>
-      <c r="G13" t="n">
-        <v>0.003010460151532945</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.03190431822815376</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.1676358515896829</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2282,15 +2159,6 @@
       <c r="F14" t="n">
         <v>0.2765957446808511</v>
       </c>
-      <c r="G14" t="n">
-        <v>0.01586868981950457</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.04452439326876961</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.1841489233561294</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2311,15 +2179,6 @@
       <c r="F15" t="n">
         <v>0.2978723404255319</v>
       </c>
-      <c r="G15" t="n">
-        <v>0.03708985807945275</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.06574387109454488</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.2053937625572669</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2340,15 +2199,6 @@
       <c r="F16" t="n">
         <v>0.3191489361702128</v>
       </c>
-      <c r="G16" t="n">
-        <v>0.01812997306198927</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.04516889576327476</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.2022546494675858</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2369,15 +2219,6 @@
       <c r="F17" t="n">
         <v>0.3404255319148936</v>
       </c>
-      <c r="G17" t="n">
-        <v>0.03667538494822159</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.06357865375038102</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.2217748846108964</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2398,15 +2239,6 @@
       <c r="F18" t="n">
         <v>0.3617021276595745</v>
       </c>
-      <c r="G18" t="n">
-        <v>0.05649140543067932</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.0833208765840408</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0.2421070264603841</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2427,15 +2259,6 @@
       <c r="F19" t="n">
         <v>0.3829787234042553</v>
       </c>
-      <c r="G19" t="n">
-        <v>0.03508642568980491</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.05940447505350249</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.2341784430465036</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2456,15 +2279,6 @@
       <c r="F20" t="n">
         <v>0.4042553191489361</v>
       </c>
-      <c r="G20" t="n">
-        <v>0.04302273516890148</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.06642911673994634</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.2456857390064667</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2485,15 +2299,6 @@
       <c r="F21" t="n">
         <v>0.425531914893617</v>
       </c>
-      <c r="G21" t="n">
-        <v>0.01062644549011654</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.0298720892760635</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.2245324648121984</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2514,15 +2319,6 @@
       <c r="F22" t="n">
         <v>0.4468085106382979</v>
       </c>
-      <c r="G22" t="n">
-        <v>0.02409719766534457</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.04268173951953308</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.2392178508790648</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2543,15 +2339,6 @@
       <c r="F23" t="n">
         <v>0.4680851063829787</v>
       </c>
-      <c r="G23" t="n">
-        <v>0.04431413269058404</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0.06280798477365124</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.2595913843019186</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2572,15 +2359,6 @@
       <c r="F24" t="n">
         <v>0.4893617021276596</v>
       </c>
-      <c r="G24" t="n">
-        <v>0.04731870749176348</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0.06421567389259947</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.2649835203422433</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2601,15 +2379,6 @@
       <c r="F25" t="n">
         <v>0.5106382978723404</v>
       </c>
-      <c r="G25" t="n">
-        <v>0.0469052925468959</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0.06183412495490198</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.2666333450816208</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2630,15 +2399,6 @@
       <c r="F26" t="n">
         <v>0.5319148936170213</v>
       </c>
-      <c r="G26" t="n">
-        <v>0.01622380043102967</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.02620143791677343</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.2374555829050773</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2659,15 +2419,6 @@
       <c r="F27" t="n">
         <v>0.5531914893617021</v>
       </c>
-      <c r="G27" t="n">
-        <v>0.001945808775285607</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0.004145174652571804</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0.2171478016458932</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2688,15 +2439,6 @@
       <c r="F28" t="n">
         <v>0.574468085106383</v>
       </c>
-      <c r="G28" t="n">
-        <v>0.00109226785825367</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.002975084076311307</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0.2157693093134948</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2717,15 +2459,6 @@
       <c r="F29" t="n">
         <v>0.5957446808510638</v>
       </c>
-      <c r="G29" t="n">
-        <v>0.008422230096186256</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.01132709790531028</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0.2236476198682278</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2746,15 +2479,6 @@
       <c r="F30" t="n">
         <v>0.6170212765957447</v>
       </c>
-      <c r="G30" t="n">
-        <v>0.02558337157915724</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0.02808258980202261</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0.2401755382341854</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2775,15 +2499,6 @@
       <c r="F31" t="n">
         <v>0.6382978723404256</v>
       </c>
-      <c r="G31" t="n">
-        <v>0.04303836517422743</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.0451615542056093</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0.257014279740892</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2804,15 +2519,6 @@
       <c r="F32" t="n">
         <v>0.6595744680851063</v>
       </c>
-      <c r="G32" t="n">
-        <v>0.06329147758741627</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0.06531407869498396</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0.2770977296470396</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2833,15 +2539,6 @@
       <c r="F33" t="n">
         <v>0.6808510638297872</v>
       </c>
-      <c r="G33" t="n">
-        <v>0.07417219869390057</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0.07517638710697017</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0.2861443648978126</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2862,15 +2559,6 @@
       <c r="F34" t="n">
         <v>0.7021276595744681</v>
       </c>
-      <c r="G34" t="n">
-        <v>0.06863267296007114</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0.06704744789050687</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0.2749398366714774</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2891,15 +2579,6 @@
       <c r="F35" t="n">
         <v>0.723404255319149</v>
       </c>
-      <c r="G35" t="n">
-        <v>0.07508432612613924</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0.07209942770078193</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0.277679543263449</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2920,15 +2599,6 @@
       <c r="F36" t="n">
         <v>0.7446808510638298</v>
       </c>
-      <c r="G36" t="n">
-        <v>0.08679198816977685</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0.08291903586107674</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0.2867711280399068</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2949,15 +2619,6 @@
       <c r="F37" t="n">
         <v>0.7659574468085106</v>
       </c>
-      <c r="G37" t="n">
-        <v>0.0988333776055299</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0.09411649540856348</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0.2961235315895446</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2978,15 +2639,6 @@
       <c r="F38" t="n">
         <v>0.7872340425531915</v>
       </c>
-      <c r="G38" t="n">
-        <v>0.1127897006113235</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.1074140162091469</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0.307833703148556</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3007,15 +2659,6 @@
       <c r="F39" t="n">
         <v>0.8085106382978723</v>
       </c>
-      <c r="G39" t="n">
-        <v>0.1340146996886756</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.128634405521142</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0.3290425098860433</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3036,15 +2679,6 @@
       <c r="F40" t="n">
         <v>0.8297872340425532</v>
       </c>
-      <c r="G40" t="n">
-        <v>0.07821037877436854</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0.06664384294861203</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0.2433947299026309</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3065,15 +2699,6 @@
       <c r="F41" t="n">
         <v>0.851063829787234</v>
       </c>
-      <c r="G41" t="n">
-        <v>0.02089325160292066</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0.00528245906757896</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0.1440103655677394</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3094,15 +2719,6 @@
       <c r="F42" t="n">
         <v>0.8723404255319149</v>
       </c>
-      <c r="G42" t="n">
-        <v>0.01650760137574703</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0.0003585446841516404</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0.1233773541254568</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3123,15 +2739,6 @@
       <c r="F43" t="n">
         <v>0.8936170212765957</v>
       </c>
-      <c r="G43" t="n">
-        <v>0.01221758812430007</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0.003927817003261058</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0.1017093387940714</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3152,15 +2759,6 @@
       <c r="F44" t="n">
         <v>0.9148936170212766</v>
       </c>
-      <c r="G44" t="n">
-        <v>0.02066842459872686</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0.00477114862572936</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0.1010091412413048</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3181,15 +2779,6 @@
       <c r="F45" t="n">
         <v>0.9361702127659575</v>
       </c>
-      <c r="G45" t="n">
-        <v>0.01574661708262959</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0.02758806984264628</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0.02027366361524474</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3210,15 +2799,6 @@
       <c r="F46" t="n">
         <v>0.9574468085106383</v>
       </c>
-      <c r="G46" t="n">
-        <v>0.007262039586238056</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0.01723129406793888</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0.01842922036576145</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3239,15 +2819,6 @@
       <c r="F47" t="n">
         <v>0.9787234042553191</v>
       </c>
-      <c r="G47" t="n">
-        <v>0.007691496303486423</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0.001144972820326107</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0.02827040895237698</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3267,15 +2838,6 @@
       </c>
       <c r="F48" t="n">
         <v>1</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0.004691716736686335</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0.002396842458487591</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0.006720468282694902</v>
       </c>
     </row>
   </sheetData>

--- a/devoir2_results.xlsx
+++ b/devoir2_results.xlsx
@@ -500,13 +500,13 @@
         <v>0.3682487299061701</v>
       </c>
       <c r="F2" t="n">
-        <v>4.680675833021207</v>
+        <v>4.680675833021208</v>
       </c>
       <c r="G2" t="n">
         <v>35.61873608701515</v>
       </c>
       <c r="H2" t="n">
-        <v>115.4431759978146</v>
+        <v>115.443181612837</v>
       </c>
     </row>
     <row r="3">
@@ -534,7 +534,7 @@
         <v>41.59439954231561</v>
       </c>
       <c r="H3" t="n">
-        <v>119.2151231318074</v>
+        <v>119.215127940147</v>
       </c>
     </row>
     <row r="4">
@@ -553,7 +553,7 @@
         <v>4.702642173211798</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3516687104736785</v>
+        <v>0.3516687104736786</v>
       </c>
       <c r="F4" t="n">
         <v>4.706324657274862</v>
@@ -562,7 +562,7 @@
         <v>35.18465307571481</v>
       </c>
       <c r="H4" t="n">
-        <v>117.8455951203282</v>
+        <v>117.8456008046247</v>
       </c>
     </row>
   </sheetData>
@@ -639,10 +639,10 @@
         <v>0.008936958889347892</v>
       </c>
       <c r="C2" t="n">
-        <v>0.007487614647643717</v>
+        <v>0.007487614647643662</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0005950610170728506</v>
+        <v>0.0005950603203842252</v>
       </c>
       <c r="E2" t="n">
         <v>0.0119047619047619</v>
@@ -654,10 +654,10 @@
         <v>0.01487256492017592</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01632190916188009</v>
+        <v>0.01632190916188015</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02321446279245096</v>
+        <v>0.02321446348913958</v>
       </c>
     </row>
     <row r="3">
@@ -668,10 +668,10 @@
         <v>0.06250023432670739</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05719022568203853</v>
+        <v>0.05719022568203825</v>
       </c>
       <c r="D3" t="n">
-        <v>0.009066562770240941</v>
+        <v>0.009066556048133119</v>
       </c>
       <c r="E3" t="n">
         <v>0.03571428571428571</v>
@@ -683,10 +683,10 @@
         <v>0.01488118670765977</v>
       </c>
       <c r="H3" t="n">
-        <v>0.009571178062990911</v>
+        <v>0.009571178062990633</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03855248484880668</v>
+        <v>0.0385524915709145</v>
       </c>
     </row>
     <row r="4">
@@ -697,10 +697,10 @@
         <v>0.1431643623253325</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1357446988910646</v>
+        <v>0.135744698891064</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03362611369742202</v>
+        <v>0.03362609571437278</v>
       </c>
       <c r="E4" t="n">
         <v>0.05952380952380952</v>
@@ -712,10 +712,10 @@
         <v>0.0717357908967611</v>
       </c>
       <c r="H4" t="n">
-        <v>0.06431612746249313</v>
+        <v>0.06431612746249257</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0378024577311494</v>
+        <v>0.03780247571419864</v>
       </c>
     </row>
     <row r="5">
@@ -726,10 +726,10 @@
         <v>0.1523767148425946</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1448541431831825</v>
+        <v>0.144854143183182</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03724949282019956</v>
+        <v>0.03724947350031146</v>
       </c>
       <c r="E5" t="n">
         <v>0.08333333333333333</v>
@@ -741,10 +741,10 @@
         <v>0.0571386196044994</v>
       </c>
       <c r="H5" t="n">
-        <v>0.04961604794508728</v>
+        <v>0.04961604794508673</v>
       </c>
       <c r="I5" t="n">
-        <v>0.05798860241789567</v>
+        <v>0.05798862173778377</v>
       </c>
     </row>
     <row r="6">
@@ -755,10 +755,10 @@
         <v>0.1623293156293571</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1547187596300525</v>
+        <v>0.1547187596300518</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04134654635219388</v>
+        <v>0.04134652558747407</v>
       </c>
       <c r="E6" t="n">
         <v>0.1071428571428571</v>
@@ -770,10 +770,10 @@
         <v>0.04328169658173806</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03567114058243345</v>
+        <v>0.03567114058243279</v>
       </c>
       <c r="I6" t="n">
-        <v>0.07770107269542517</v>
+        <v>0.07770109346014498</v>
       </c>
     </row>
     <row r="7">
@@ -784,10 +784,10 @@
         <v>0.1651047922720605</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1574737636531398</v>
+        <v>0.1574737636531391</v>
       </c>
       <c r="D7" t="n">
-        <v>0.04252271984475932</v>
+        <v>0.04252269867737873</v>
       </c>
       <c r="E7" t="n">
         <v>0.130952380952381</v>
@@ -799,10 +799,10 @@
         <v>0.02224764941491769</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0146166207959969</v>
+        <v>0.01461662079599629</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1003344230123835</v>
+        <v>0.1003344441797641</v>
       </c>
     </row>
     <row r="8">
@@ -810,13 +810,13 @@
         <v>79.901</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2154550947662716</v>
+        <v>0.2154550947662717</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2077190396678339</v>
+        <v>0.2077190396678332</v>
       </c>
       <c r="D8" t="n">
-        <v>0.06637430047709171</v>
+        <v>0.06637427209568753</v>
       </c>
       <c r="E8" t="n">
         <v>0.1547619047619048</v>
@@ -825,13 +825,13 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04878842809960496</v>
+        <v>0.04878842809960501</v>
       </c>
       <c r="H8" t="n">
-        <v>0.04105237300116724</v>
+        <v>0.04105237300116657</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1002923661895749</v>
+        <v>0.1002923945709791</v>
       </c>
     </row>
     <row r="9">
@@ -842,10 +842,10 @@
         <v>0.2204628077419719</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2127406016533091</v>
+        <v>0.2127406016533084</v>
       </c>
       <c r="D9" t="n">
-        <v>0.06900445757919055</v>
+        <v>0.06900442849587358</v>
       </c>
       <c r="E9" t="n">
         <v>0.1785714285714286</v>
@@ -857,10 +857,10 @@
         <v>0.02998661726578139</v>
       </c>
       <c r="H9" t="n">
-        <v>0.02226441117711864</v>
+        <v>0.02226441117711797</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1214717328969999</v>
+        <v>0.1214717619803169</v>
       </c>
     </row>
     <row r="10">
@@ -871,10 +871,10 @@
         <v>0.2240393025701286</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2163293575646535</v>
+        <v>0.2163293575646528</v>
       </c>
       <c r="D10" t="n">
-        <v>0.07091121036863203</v>
+        <v>0.0709111807863759</v>
       </c>
       <c r="E10" t="n">
         <v>0.2023809523809524</v>
@@ -886,10 +886,10 @@
         <v>0.009753588284414333</v>
       </c>
       <c r="H10" t="n">
-        <v>0.002043643278939272</v>
+        <v>0.002043643278938551</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1433745039170822</v>
+        <v>0.1433745334993384</v>
       </c>
     </row>
     <row r="11">
@@ -900,10 +900,10 @@
         <v>0.2273461350712963</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2196492423151352</v>
+        <v>0.2196492423151344</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0726951443102684</v>
+        <v>0.07269511426853444</v>
       </c>
       <c r="E11" t="n">
         <v>0.2261904761904762</v>
@@ -912,13 +912,13 @@
         <v>0.2380952380952381</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01074910302394178</v>
+        <v>0.01074910302394183</v>
       </c>
       <c r="H11" t="n">
-        <v>0.01844599578010286</v>
+        <v>0.01844599578010364</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1654000937849697</v>
+        <v>0.1654001238267037</v>
       </c>
     </row>
     <row r="12">
@@ -929,10 +929,10 @@
         <v>0.2366677541784064</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2290162461357511</v>
+        <v>0.2290162461357502</v>
       </c>
       <c r="D12" t="n">
-        <v>0.07783196029649676</v>
+        <v>0.0778319289696798</v>
       </c>
       <c r="E12" t="n">
         <v>0.25</v>
@@ -944,10 +944,10 @@
         <v>0.02523700772635551</v>
       </c>
       <c r="H12" t="n">
-        <v>0.03288851576901086</v>
+        <v>0.03288851576901169</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1840728016082652</v>
+        <v>0.1840728329350821</v>
       </c>
     </row>
     <row r="13">
@@ -958,10 +958,10 @@
         <v>0.2382543055524297</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2306117501956816</v>
+        <v>0.2306117501956809</v>
       </c>
       <c r="D13" t="n">
-        <v>0.07872211340494638</v>
+        <v>0.07872208186097428</v>
       </c>
       <c r="E13" t="n">
         <v>0.2738095238095238</v>
@@ -973,10 +973,10 @@
         <v>0.04745998016185599</v>
       </c>
       <c r="H13" t="n">
-        <v>0.05510253551860411</v>
+        <v>0.05510253551860483</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2069921723093393</v>
+        <v>0.2069922038533114</v>
       </c>
     </row>
     <row r="14">
@@ -987,10 +987,10 @@
         <v>0.2474260685184582</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2398420010791221</v>
+        <v>0.2398420010791213</v>
       </c>
       <c r="D14" t="n">
-        <v>0.08395822882500469</v>
+        <v>0.08395819603521537</v>
       </c>
       <c r="E14" t="n">
         <v>0.2976190476190476</v>
@@ -1002,10 +1002,10 @@
         <v>0.06209774100535131</v>
       </c>
       <c r="H14" t="n">
-        <v>0.06968180844468741</v>
+        <v>0.06968180844468819</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2255655806988048</v>
+        <v>0.2255656134885942</v>
       </c>
     </row>
     <row r="15">
@@ -1016,10 +1016,10 @@
         <v>0.2474865569492724</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2399029125565237</v>
+        <v>0.2399029125565229</v>
       </c>
       <c r="D15" t="n">
-        <v>0.08399327111468681</v>
+        <v>0.08399323831673712</v>
       </c>
       <c r="E15" t="n">
         <v>0.3214285714285715</v>
@@ -1031,10 +1031,10 @@
         <v>0.08584677638406091</v>
       </c>
       <c r="H15" t="n">
-        <v>0.09343042077680963</v>
+        <v>0.09343042077681046</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2493400622186465</v>
+        <v>0.2493400950165962</v>
       </c>
     </row>
     <row r="16">
@@ -1045,10 +1045,10 @@
         <v>0.2917017270447764</v>
       </c>
       <c r="C16" t="n">
-        <v>0.284545658503076</v>
+        <v>0.2845456585030751</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1113835069161228</v>
+        <v>0.1113834683785784</v>
       </c>
       <c r="E16" t="n">
         <v>0.3452380952380952</v>
@@ -1057,13 +1057,13 @@
         <v>0.3571428571428572</v>
       </c>
       <c r="G16" t="n">
-        <v>0.06544113009808072</v>
+        <v>0.06544113009808078</v>
       </c>
       <c r="H16" t="n">
-        <v>0.07259719863978115</v>
+        <v>0.07259719863978203</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2457593502267344</v>
+        <v>0.2457593887642787</v>
       </c>
     </row>
     <row r="17">
@@ -1074,10 +1074,10 @@
         <v>0.2947225247212408</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2876035609587587</v>
+        <v>0.2876035609587578</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1133835257558638</v>
+        <v>0.1133834868444351</v>
       </c>
       <c r="E17" t="n">
         <v>0.3690476190476191</v>
@@ -1089,10 +1089,10 @@
         <v>0.0862298562311401</v>
       </c>
       <c r="H17" t="n">
-        <v>0.09334881999362221</v>
+        <v>0.0933488199936231</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2675688551965171</v>
+        <v>0.2675688941079458</v>
       </c>
     </row>
     <row r="18">
@@ -1100,13 +1100,13 @@
         <v>87.889</v>
       </c>
       <c r="B18" t="n">
-        <v>0.2963388703683681</v>
+        <v>0.296338870368368</v>
       </c>
       <c r="C18" t="n">
-        <v>0.289240138066074</v>
+        <v>0.2892401380660732</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1144604052288724</v>
+        <v>0.1144603661184411</v>
       </c>
       <c r="E18" t="n">
         <v>0.3928571428571428</v>
@@ -1118,10 +1118,10 @@
         <v>0.1084230343935367</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1155217666958308</v>
+        <v>0.1155217666958316</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2903014995330324</v>
+        <v>0.2903015386434636</v>
       </c>
     </row>
     <row r="19">
@@ -1132,10 +1132,10 @@
         <v>0.358722276913348</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3525824291552077</v>
+        <v>0.3525824291552067</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1595804568207833</v>
+        <v>0.1595804106531374</v>
       </c>
       <c r="E19" t="n">
         <v>0.4166666666666667</v>
@@ -1147,10 +1147,10 @@
         <v>0.06984915165808053</v>
       </c>
       <c r="H19" t="n">
-        <v>0.07598899941622089</v>
+        <v>0.07598899941622189</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2689909717506452</v>
+        <v>0.2689910179182911</v>
       </c>
     </row>
     <row r="20">
@@ -1161,10 +1161,10 @@
         <v>0.4189460720623802</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4139921948836415</v>
+        <v>0.4139921948836405</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2096390331449878</v>
+        <v>0.2096389815118543</v>
       </c>
       <c r="E20" t="n">
         <v>0.4404761904761905</v>
@@ -1176,10 +1176,10 @@
         <v>0.03343488031857217</v>
       </c>
       <c r="H20" t="n">
-        <v>0.03838875749731091</v>
+        <v>0.03838875749731191</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2427419192359646</v>
+        <v>0.2427419708690981</v>
       </c>
     </row>
     <row r="21">
@@ -1190,10 +1190,10 @@
         <v>0.4289134727232018</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4241743987264993</v>
+        <v>0.4241743987264983</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2185323097904424</v>
+        <v>0.2185322573982177</v>
       </c>
       <c r="E21" t="n">
         <v>0.4642857142857143</v>
@@ -1205,10 +1205,10 @@
         <v>0.04727700346727431</v>
       </c>
       <c r="H21" t="n">
-        <v>0.05201607746397685</v>
+        <v>0.05201607746397785</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2576581664000338</v>
+        <v>0.2576582187922585</v>
       </c>
     </row>
     <row r="22">
@@ -1219,10 +1219,10 @@
         <v>0.4738477342539273</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4701257915513752</v>
+        <v>0.4701257915513742</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2607463726838885</v>
+        <v>0.2607463174306888</v>
       </c>
       <c r="E22" t="n">
         <v>0.4880952380952381</v>
@@ -1234,10 +1234,10 @@
         <v>0.02615226574607271</v>
       </c>
       <c r="H22" t="n">
-        <v>0.02987420844862476</v>
+        <v>0.02987420844862576</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2392536273161115</v>
+        <v>0.2392536825693112</v>
       </c>
     </row>
     <row r="23">
@@ -1248,10 +1248,10 @@
         <v>0.5321357890372287</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5298154590707826</v>
+        <v>0.5298154590707814</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3206266148195194</v>
+        <v>0.3206265573264406</v>
       </c>
       <c r="E23" t="n">
         <v>0.5119047619047619</v>
@@ -1263,10 +1263,10 @@
         <v>0.008326265227704854</v>
       </c>
       <c r="H23" t="n">
-        <v>0.00600593526125881</v>
+        <v>0.006005935261257589</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2031829089900044</v>
+        <v>0.2031829664830833</v>
       </c>
     </row>
     <row r="24">
@@ -1277,10 +1277,10 @@
         <v>0.5761424783854154</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5749070489036998</v>
+        <v>0.5749070489036989</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3696127641008278</v>
+        <v>0.3696127061080796</v>
       </c>
       <c r="E24" t="n">
         <v>0.5357142857142857</v>
@@ -1292,10 +1292,10 @@
         <v>0.02852343076636776</v>
       </c>
       <c r="H24" t="n">
-        <v>0.02728800128465214</v>
+        <v>0.02728800128465125</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1780062835182198</v>
+        <v>0.1780063415109681</v>
       </c>
     </row>
     <row r="25">
@@ -1306,10 +1306,10 @@
         <v>0.5988018038945421</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5981239651740817</v>
+        <v>0.5981239651740808</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3960879015570422</v>
+        <v>0.3960878437299419</v>
       </c>
       <c r="E25" t="n">
         <v>0.5595238095238095</v>
@@ -1321,10 +1321,10 @@
         <v>0.02737323246597068</v>
       </c>
       <c r="H25" t="n">
-        <v>0.02669539374551033</v>
+        <v>0.02669539374550944</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1753406698715292</v>
+        <v>0.1753407276986295</v>
       </c>
     </row>
     <row r="26">
@@ -1332,13 +1332,13 @@
         <v>119.692</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6118046401611391</v>
+        <v>0.6118046401611392</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6114444222451174</v>
+        <v>0.6114444222451164</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4116615538701797</v>
+        <v>0.4116614962721065</v>
       </c>
       <c r="E26" t="n">
         <v>0.5833333333333334</v>
@@ -1347,13 +1347,13 @@
         <v>0.5952380952380952</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01656654492304388</v>
+        <v>0.01656654492304399</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01620632700702218</v>
+        <v>0.01620632700702118</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1835765413679155</v>
+        <v>0.1835765989659888</v>
       </c>
     </row>
     <row r="27">
@@ -1364,10 +1364,10 @@
         <v>0.616345309525232</v>
       </c>
       <c r="C27" t="n">
-        <v>0.6160954206262322</v>
+        <v>0.6160954206262312</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4171651699873602</v>
+        <v>0.4171651124926196</v>
       </c>
       <c r="E27" t="n">
         <v>0.6071428571428571</v>
@@ -1379,10 +1379,10 @@
         <v>0.002702309522387036</v>
       </c>
       <c r="H27" t="n">
-        <v>0.002952198421386831</v>
+        <v>0.002952198421387831</v>
       </c>
       <c r="I27" t="n">
-        <v>0.2018824490602589</v>
+        <v>0.2018825065549995</v>
       </c>
     </row>
     <row r="28">
@@ -1393,10 +1393,10 @@
         <v>0.6205574342744622</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6204095732058192</v>
+        <v>0.6204095732058181</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4223006743546385</v>
+        <v>0.4223006169666457</v>
       </c>
       <c r="E28" t="n">
         <v>0.6309523809523809</v>
@@ -1408,10 +1408,10 @@
         <v>0.02229970858268071</v>
       </c>
       <c r="H28" t="n">
-        <v>0.02244756965132366</v>
+        <v>0.02244756965132477</v>
       </c>
       <c r="I28" t="n">
-        <v>0.2205564685025044</v>
+        <v>0.2205565258904972</v>
       </c>
     </row>
     <row r="29">
@@ -1419,13 +1419,13 @@
         <v>120.866</v>
       </c>
       <c r="B29" t="n">
-        <v>0.6216847826992838</v>
+        <v>0.621684782699284</v>
       </c>
       <c r="C29" t="n">
-        <v>0.6215641732421128</v>
+        <v>0.621564173242112</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4236800700694461</v>
+        <v>0.4236800127118082</v>
       </c>
       <c r="E29" t="n">
         <v>0.6547619047619048</v>
@@ -1434,13 +1434,13 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04498188396738279</v>
+        <v>0.04498188396738267</v>
       </c>
       <c r="H29" t="n">
-        <v>0.04510249342455386</v>
+        <v>0.04510249342455463</v>
       </c>
       <c r="I29" t="n">
-        <v>0.2429865965972205</v>
+        <v>0.2429866539548585</v>
       </c>
     </row>
     <row r="30">
@@ -1451,10 +1451,10 @@
         <v>0.6331177416530361</v>
       </c>
       <c r="C30" t="n">
-        <v>0.6332720344205158</v>
+        <v>0.6332720344205147</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4377860971171033</v>
+        <v>0.4377860401101186</v>
       </c>
       <c r="E30" t="n">
         <v>0.6785714285714286</v>
@@ -1466,10 +1466,10 @@
         <v>0.05735844882315433</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05720415605567464</v>
+        <v>0.05720415605567575</v>
       </c>
       <c r="I30" t="n">
-        <v>0.2526900933590872</v>
+        <v>0.2526901503660718</v>
       </c>
     </row>
     <row r="31">
@@ -1480,10 +1480,10 @@
         <v>0.6624454044936983</v>
       </c>
       <c r="C31" t="n">
-        <v>0.663289521042139</v>
+        <v>0.663289521042138</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4749398147344222</v>
+        <v>0.4749397589881968</v>
       </c>
       <c r="E31" t="n">
         <v>0.7023809523809523</v>
@@ -1495,10 +1495,10 @@
         <v>0.05184030979201604</v>
       </c>
       <c r="H31" t="n">
-        <v>0.05099619324357529</v>
+        <v>0.05099619324357629</v>
       </c>
       <c r="I31" t="n">
-        <v>0.2393458995512921</v>
+        <v>0.2393459552975175</v>
       </c>
     </row>
     <row r="32">
@@ -1509,10 +1509,10 @@
         <v>0.6785462256846684</v>
       </c>
       <c r="C32" t="n">
-        <v>0.6797569374910258</v>
+        <v>0.6797569374910249</v>
       </c>
       <c r="D32" t="n">
-        <v>0.495926501942637</v>
+        <v>0.4959264471135255</v>
       </c>
       <c r="E32" t="n">
         <v>0.7261904761904762</v>
@@ -1524,10 +1524,10 @@
         <v>0.05954901241056976</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0583383006042123</v>
+        <v>0.05833830060421319</v>
       </c>
       <c r="I32" t="n">
-        <v>0.2421687361526011</v>
+        <v>0.2421687909817127</v>
       </c>
     </row>
     <row r="33">
@@ -1538,10 +1538,10 @@
         <v>0.6888916987738397</v>
       </c>
       <c r="C33" t="n">
-        <v>0.6903323680001329</v>
+        <v>0.690332368000132</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5096304962457631</v>
+        <v>0.5096304420914597</v>
       </c>
       <c r="E33" t="n">
         <v>0.75</v>
@@ -1553,10 +1553,10 @@
         <v>0.07301306313092215</v>
       </c>
       <c r="H33" t="n">
-        <v>0.07157239390462899</v>
+        <v>0.07157239390462988</v>
       </c>
       <c r="I33" t="n">
-        <v>0.2522742656589988</v>
+        <v>0.2522743198133022</v>
       </c>
     </row>
     <row r="34">
@@ -1567,10 +1567,10 @@
         <v>0.6988391408882454</v>
       </c>
       <c r="C34" t="n">
-        <v>0.70049624332451</v>
+        <v>0.7004962433245092</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5229682951123188</v>
+        <v>0.5229682416705951</v>
       </c>
       <c r="E34" t="n">
         <v>0.7738095238095238</v>
@@ -1582,10 +1582,10 @@
         <v>0.08687514482604031</v>
       </c>
       <c r="H34" t="n">
-        <v>0.08521804238977571</v>
+        <v>0.08521804238977648</v>
       </c>
       <c r="I34" t="n">
-        <v>0.2627459906019669</v>
+        <v>0.2627460440436906</v>
       </c>
     </row>
     <row r="35">
@@ -1596,10 +1596,10 @@
         <v>0.7067520182487361</v>
       </c>
       <c r="C35" t="n">
-        <v>0.708577699139011</v>
+        <v>0.70857769913901</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5336905080675181</v>
+        <v>0.5336904552375852</v>
       </c>
       <c r="E35" t="n">
         <v>0.7976190476190477</v>
@@ -1611,10 +1611,10 @@
         <v>0.1027717912750734</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1009461103847985</v>
+        <v>0.1009461103847995</v>
       </c>
       <c r="I35" t="n">
-        <v>0.2758333014562915</v>
+        <v>0.2758333542862244</v>
       </c>
     </row>
     <row r="36">
@@ -1625,10 +1625,10 @@
         <v>0.7877546663520549</v>
       </c>
       <c r="C36" t="n">
-        <v>0.7910579671496827</v>
+        <v>0.791057967149682</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6491224510566556</v>
+        <v>0.6491224068367332</v>
       </c>
       <c r="E36" t="n">
         <v>0.8214285714285714</v>
@@ -1640,10 +1640,10 @@
         <v>0.04557866698127844</v>
       </c>
       <c r="H36" t="n">
-        <v>0.04227536618365069</v>
+        <v>0.04227536618365135</v>
       </c>
       <c r="I36" t="n">
-        <v>0.1842108822766778</v>
+        <v>0.1842109264966002</v>
       </c>
     </row>
     <row r="37">
@@ -1654,10 +1654,10 @@
         <v>0.8659708447322163</v>
       </c>
       <c r="C37" t="n">
-        <v>0.8700062222782761</v>
+        <v>0.8700062222782756</v>
       </c>
       <c r="D37" t="n">
-        <v>0.770249849312685</v>
+        <v>0.7702498176161161</v>
       </c>
       <c r="E37" t="n">
         <v>0.8452380952380952</v>
@@ -1669,10 +1669,10 @@
         <v>0.00882798758935921</v>
       </c>
       <c r="H37" t="n">
-        <v>0.01286336513541897</v>
+        <v>0.01286336513541853</v>
       </c>
       <c r="I37" t="n">
-        <v>0.08689300783017206</v>
+        <v>0.08689303952674099</v>
       </c>
     </row>
     <row r="38">
@@ -1683,10 +1683,10 @@
         <v>0.8901830651801689</v>
       </c>
       <c r="C38" t="n">
-        <v>0.8942157470270049</v>
+        <v>0.8942157470270045</v>
       </c>
       <c r="D38" t="n">
-        <v>0.8096576330506836</v>
+        <v>0.8096576061010571</v>
       </c>
       <c r="E38" t="n">
         <v>0.8690476190476191</v>
@@ -1698,10 +1698,10 @@
         <v>0.009230684227787944</v>
       </c>
       <c r="H38" t="n">
-        <v>0.01326336607462397</v>
+        <v>0.01326336607462353</v>
       </c>
       <c r="I38" t="n">
-        <v>0.07129474790169732</v>
+        <v>0.07129477485132385</v>
       </c>
     </row>
     <row r="39">
@@ -1712,10 +1712,10 @@
         <v>0.913458139722889</v>
       </c>
       <c r="C39" t="n">
-        <v>0.9173353034810199</v>
+        <v>0.9173353034810195</v>
       </c>
       <c r="D39" t="n">
-        <v>0.8484021126087865</v>
+        <v>0.8484020906211744</v>
       </c>
       <c r="E39" t="n">
         <v>0.8928571428571429</v>
@@ -1727,10 +1727,10 @@
         <v>0.008696234960984262</v>
       </c>
       <c r="H39" t="n">
-        <v>0.01257339871911511</v>
+        <v>0.01257339871911478</v>
       </c>
       <c r="I39" t="n">
-        <v>0.05635979215311826</v>
+        <v>0.05635981414073032</v>
       </c>
     </row>
     <row r="40">
@@ -1741,10 +1741,10 @@
         <v>0.9247625945204265</v>
       </c>
       <c r="C40" t="n">
-        <v>0.9284958333822537</v>
+        <v>0.9284958333822534</v>
       </c>
       <c r="D40" t="n">
-        <v>0.8675299391413916</v>
+        <v>0.8675299197071487</v>
       </c>
       <c r="E40" t="n">
         <v>0.9166666666666666</v>
@@ -1756,10 +1756,10 @@
         <v>0.003808834051002075</v>
       </c>
       <c r="H40" t="n">
-        <v>7.559518917488184e-05</v>
+        <v>7.559518917521491e-05</v>
       </c>
       <c r="I40" t="n">
-        <v>0.06104148943003695</v>
+        <v>0.06104150886427995</v>
       </c>
     </row>
     <row r="41">
@@ -1770,10 +1770,10 @@
         <v>0.9714602391574156</v>
       </c>
       <c r="C41" t="n">
-        <v>0.9738532505794389</v>
+        <v>0.9738532505794388</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9488088073313276</v>
+        <v>0.9488087994715971</v>
       </c>
       <c r="E41" t="n">
         <v>0.9404761904761905</v>
@@ -1785,10 +1785,10 @@
         <v>0.01907928677646331</v>
       </c>
       <c r="H41" t="n">
-        <v>0.02147229819848662</v>
+        <v>0.02147229819848651</v>
       </c>
       <c r="I41" t="n">
-        <v>0.003572145049624775</v>
+        <v>0.003572152909355197</v>
       </c>
     </row>
     <row r="42">
@@ -1799,10 +1799,10 @@
         <v>0.9805243881396879</v>
       </c>
       <c r="C42" t="n">
-        <v>0.9824242202613794</v>
+        <v>0.9824242202613793</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9650394847599911</v>
+        <v>0.9650394793462128</v>
       </c>
       <c r="E42" t="n">
         <v>0.9642857142857143</v>
@@ -1814,10 +1814,10 @@
         <v>0.004333911949211733</v>
       </c>
       <c r="H42" t="n">
-        <v>0.006233744070903269</v>
+        <v>0.006233744070903158</v>
       </c>
       <c r="I42" t="n">
-        <v>0.01115099143048504</v>
+        <v>0.01115099684426335</v>
       </c>
     </row>
     <row r="43">
@@ -1831,7 +1831,7 @@
         <v>0.9863681276060511</v>
       </c>
       <c r="D43" t="n">
-        <v>0.972652530959374</v>
+        <v>0.9726525267077475</v>
       </c>
       <c r="E43" t="n">
         <v>0.9880952380952381</v>
@@ -1846,7 +1846,7 @@
         <v>0.01363187239394892</v>
       </c>
       <c r="I43" t="n">
-        <v>0.02734746904062602</v>
+        <v>0.02734747329225251</v>
       </c>
     </row>
   </sheetData>
@@ -1911,7 +1911,7 @@
         <v>0.008647973303246981</v>
       </c>
       <c r="D2" t="n">
-        <v>0.002250629251403668</v>
+        <v>0.002250627665240272</v>
       </c>
       <c r="E2" t="n">
         <v>0.01063829787234043</v>
@@ -1931,7 +1931,7 @@
         <v>0.05882555545401921</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01620181912852355</v>
+        <v>0.01620181140707962</v>
       </c>
       <c r="E3" t="n">
         <v>0.03191489361702127</v>
@@ -1951,7 +1951,7 @@
         <v>0.1341138410239009</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04430757627959986</v>
+        <v>0.04430756031642659</v>
       </c>
       <c r="E4" t="n">
         <v>0.05319148936170213</v>
@@ -1971,7 +1971,7 @@
         <v>0.142733292181175</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0480306685174364</v>
+        <v>0.0480306516608922</v>
       </c>
       <c r="E5" t="n">
         <v>0.07446808510638298</v>
@@ -1991,7 +1991,7 @@
         <v>0.1520522487048782</v>
       </c>
       <c r="D6" t="n">
-        <v>0.05216881296865133</v>
+        <v>0.05216879515822161</v>
       </c>
       <c r="E6" t="n">
         <v>0.09574468085106383</v>
@@ -2011,7 +2011,7 @@
         <v>0.1546523522260774</v>
       </c>
       <c r="D7" t="n">
-        <v>0.05334423456747039</v>
+        <v>0.05334421649315065</v>
       </c>
       <c r="E7" t="n">
         <v>0.1170212765957447</v>
@@ -2031,7 +2031,7 @@
         <v>0.2019315193222429</v>
       </c>
       <c r="D8" t="n">
-        <v>0.07628552214743629</v>
+        <v>0.07628549945463689</v>
       </c>
       <c r="E8" t="n">
         <v>0.1382978723404255</v>
@@ -2051,7 +2051,7 @@
         <v>0.2066460014159929</v>
       </c>
       <c r="D9" t="n">
-        <v>0.07873490195711833</v>
+        <v>0.07873487882334494</v>
       </c>
       <c r="E9" t="n">
         <v>0.1595744680851064</v>
@@ -2071,7 +2071,7 @@
         <v>0.210014502505086</v>
       </c>
       <c r="D10" t="n">
-        <v>0.08050285629959085</v>
+        <v>0.08050283285301391</v>
       </c>
       <c r="E10" t="n">
         <v>0.1808510638297872</v>
@@ -2091,7 +2091,7 @@
         <v>0.2131300951398636</v>
       </c>
       <c r="D11" t="n">
-        <v>0.08215132139636608</v>
+        <v>0.08215129766217272</v>
       </c>
       <c r="E11" t="n">
         <v>0.2021276595744681</v>
@@ -2111,7 +2111,7 @@
         <v>0.2219182424646712</v>
       </c>
       <c r="D12" t="n">
-        <v>0.08686969612340947</v>
+        <v>0.08686967158685824</v>
       </c>
       <c r="E12" t="n">
         <v>0.2234042553191489</v>
@@ -2131,7 +2131,7 @@
         <v>0.2234148307080164</v>
       </c>
       <c r="D13" t="n">
-        <v>0.08768329734648726</v>
+        <v>0.08768327267462431</v>
       </c>
       <c r="E13" t="n">
         <v>0.2446808510638298</v>
@@ -2151,7 +2151,7 @@
         <v>0.2320713514120815</v>
       </c>
       <c r="D14" t="n">
-        <v>0.09244682132472171</v>
+        <v>0.09244679587788401</v>
       </c>
       <c r="E14" t="n">
         <v>0.2659574468085106</v>
@@ -2165,13 +2165,13 @@
         <v>83.13500000000001</v>
       </c>
       <c r="B15" t="n">
-        <v>0.2607824823460791</v>
+        <v>0.2607824823460792</v>
       </c>
       <c r="C15" t="n">
         <v>0.232128469330987</v>
       </c>
       <c r="D15" t="n">
-        <v>0.09247857786826504</v>
+        <v>0.09247855241635777</v>
       </c>
       <c r="E15" t="n">
         <v>0.2872340425531915</v>
@@ -2191,7 +2191,7 @@
         <v>0.273980040406938</v>
       </c>
       <c r="D16" t="n">
-        <v>0.116894286702627</v>
+        <v>0.116894257697054</v>
       </c>
       <c r="E16" t="n">
         <v>0.3085106382978723</v>
@@ -2211,7 +2211,7 @@
         <v>0.2768468781645126</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1186506473039972</v>
+        <v>0.1186506180671637</v>
       </c>
       <c r="E17" t="n">
         <v>0.3297872340425532</v>
@@ -2231,7 +2231,7 @@
         <v>0.2783812510755337</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1195951011991904</v>
+        <v>0.1195950718392458</v>
       </c>
       <c r="E18" t="n">
         <v>0.351063829787234</v>
@@ -2248,10 +2248,10 @@
         <v>0.3478922977144504</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3235742483507528</v>
+        <v>0.3235742483507529</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1488002803577517</v>
+        <v>0.148800247586484</v>
       </c>
       <c r="E19" t="n">
         <v>0.3723404255319149</v>
@@ -2271,7 +2271,7 @@
         <v>0.3378262024089898</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1585695801424694</v>
+        <v>0.1585695463852686</v>
       </c>
       <c r="E20" t="n">
         <v>0.3936170212765958</v>
@@ -2291,7 +2291,7 @@
         <v>0.3956598256175535</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2009994500814186</v>
+        <v>0.2009994128008815</v>
       </c>
       <c r="E21" t="n">
         <v>0.4148936170212766</v>
@@ -2311,7 +2311,7 @@
         <v>0.4041267711187648</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2075906597592331</v>
+        <v>0.2075906220304927</v>
       </c>
       <c r="E22" t="n">
         <v>0.4361702127659575</v>
@@ -2331,7 +2331,7 @@
         <v>0.4052771216093275</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2084937220810601</v>
+        <v>0.2084936842928131</v>
       </c>
       <c r="E23" t="n">
         <v>0.4574468085106383</v>
@@ -2351,7 +2351,7 @@
         <v>0.4251460282350601</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2243781817854163</v>
+        <v>0.2243781430226966</v>
       </c>
       <c r="E24" t="n">
         <v>0.4787234042553192</v>
@@ -2371,7 +2371,7 @@
         <v>0.4488041729174384</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2440049527907195</v>
+        <v>0.2440049130026789</v>
       </c>
       <c r="E25" t="n">
         <v>0.5</v>
@@ -2391,7 +2391,7 @@
         <v>0.5057134557002478</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2944593107119439</v>
+        <v>0.2944592690945303</v>
       </c>
       <c r="E26" t="n">
         <v>0.5212765957446809</v>
@@ -2411,7 +2411,7 @@
         <v>0.5490463147091303</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3360436877158089</v>
+        <v>0.3360436453527507</v>
       </c>
       <c r="E27" t="n">
         <v>0.5425531914893617</v>
@@ -2431,7 +2431,7 @@
         <v>0.5714930010300717</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3586987757928882</v>
+        <v>0.3586987332791397</v>
       </c>
       <c r="E28" t="n">
         <v>0.5638297872340425</v>
@@ -2451,7 +2451,7 @@
         <v>0.5844175829457535</v>
       </c>
       <c r="D29" t="n">
-        <v>0.372097060982836</v>
+        <v>0.3720970184585175</v>
       </c>
       <c r="E29" t="n">
         <v>0.5851063829787234</v>
@@ -2471,7 +2471,7 @@
         <v>0.5889386867937221</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3768457383615593</v>
+        <v>0.3768456958469866</v>
       </c>
       <c r="E30" t="n">
         <v>0.6063829787234043</v>
@@ -2491,7 +2491,7 @@
         <v>0.5931363181348163</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3812835925995336</v>
+        <v>0.3812835501003237</v>
       </c>
       <c r="E31" t="n">
         <v>0.6276595744680851</v>
@@ -2511,7 +2511,7 @@
         <v>0.5942603893901224</v>
       </c>
       <c r="D32" t="n">
-        <v>0.3824767384380667</v>
+        <v>0.3824766959440085</v>
       </c>
       <c r="E32" t="n">
         <v>0.648936170212766</v>
@@ -2531,7 +2531,7 @@
         <v>0.6056746767228171</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3947066989319746</v>
+        <v>0.3947066565152969</v>
       </c>
       <c r="E33" t="n">
         <v>0.6702127659574468</v>
@@ -2548,10 +2548,10 @@
         <v>0.633494986614397</v>
       </c>
       <c r="C34" t="n">
-        <v>0.6350802116839612</v>
+        <v>0.6350802116839613</v>
       </c>
       <c r="D34" t="n">
-        <v>0.4271878229029907</v>
+        <v>0.4271877809010318</v>
       </c>
       <c r="E34" t="n">
         <v>0.6914893617021277</v>
@@ -2571,7 +2571,7 @@
         <v>0.6513048276183671</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4457247120557</v>
+        <v>0.4457246704198679</v>
       </c>
       <c r="E35" t="n">
         <v>0.7127659574468085</v>
@@ -2588,10 +2588,10 @@
         <v>0.6578888628940529</v>
       </c>
       <c r="C36" t="n">
-        <v>0.661761815202753</v>
+        <v>0.6617618152027531</v>
       </c>
       <c r="D36" t="n">
-        <v>0.457909723023923</v>
+        <v>0.457909681677546</v>
       </c>
       <c r="E36" t="n">
         <v>0.7340425531914894</v>
@@ -2611,7 +2611,7 @@
         <v>0.6718409513999472</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4698339152189661</v>
+        <v>0.4698338741921476</v>
       </c>
       <c r="E37" t="n">
         <v>0.7553191489361702</v>
@@ -2628,10 +2628,10 @@
         <v>0.674444341941868</v>
       </c>
       <c r="C38" t="n">
-        <v>0.6798200263440446</v>
+        <v>0.6798200263440445</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4794003394046355</v>
+        <v>0.4794002986595259</v>
       </c>
       <c r="E38" t="n">
         <v>0.776595744680851</v>
@@ -2651,7 +2651,7 @@
         <v>0.6798762327767303</v>
       </c>
       <c r="D39" t="n">
-        <v>0.479468128411829</v>
+        <v>0.4794680876687949</v>
       </c>
       <c r="E39" t="n">
         <v>0.7978723404255319</v>
@@ -2665,13 +2665,13 @@
         <v>145.328</v>
       </c>
       <c r="B40" t="n">
-        <v>0.7515768552681846</v>
+        <v>0.7515768552681845</v>
       </c>
       <c r="C40" t="n">
         <v>0.7631433910939411</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5863925041399223</v>
+        <v>0.586392467957342</v>
       </c>
       <c r="E40" t="n">
         <v>0.8191489361702128</v>
@@ -2691,7 +2691,7 @@
         <v>0.8457813707196551</v>
       </c>
       <c r="D41" t="n">
-        <v>0.7070534642194947</v>
+        <v>0.7070534358858468</v>
       </c>
       <c r="E41" t="n">
         <v>0.8404255319148937</v>
@@ -2711,7 +2711,7 @@
         <v>0.8719818808477633</v>
       </c>
       <c r="D42" t="n">
-        <v>0.7489630714064581</v>
+        <v>0.7489630463789788</v>
       </c>
       <c r="E42" t="n">
         <v>0.8617021276595744</v>
@@ -2731,7 +2731,7 @@
         <v>0.8975448382798568</v>
       </c>
       <c r="D43" t="n">
-        <v>0.7919076824825243</v>
+        <v>0.7919076611241076</v>
       </c>
       <c r="E43" t="n">
         <v>0.8829787234042553</v>
@@ -2751,7 +2751,7 @@
         <v>0.9101224683955472</v>
       </c>
       <c r="D44" t="n">
-        <v>0.8138844757799718</v>
+        <v>0.8138844564042845</v>
       </c>
       <c r="E44" t="n">
         <v>0.9042553191489362</v>
@@ -2771,7 +2771,7 @@
         <v>0.9637582826086037</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9158965491507127</v>
+        <v>0.9158965398491125</v>
       </c>
       <c r="E45" t="n">
         <v>0.925531914893617</v>
@@ -2791,7 +2791,7 @@
         <v>0.9746781025785772</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9390175881448769</v>
+        <v>0.9390175813147288</v>
       </c>
       <c r="E46" t="n">
         <v>0.9468085106382979</v>
@@ -2811,7 +2811,7 @@
         <v>0.9798683770756452</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9504529953029421</v>
+        <v>0.9504529897195735</v>
       </c>
       <c r="E47" t="n">
         <v>0.9680851063829787</v>
@@ -2831,7 +2831,7 @@
         <v>0.9976031575415124</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9932795317173051</v>
+        <v>0.993279530943031</v>
       </c>
       <c r="E48" t="n">
         <v>0.9893617021276596</v>
@@ -2914,10 +2914,10 @@
         <v>0.04532667197068628</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03836409679582967</v>
+        <v>0.0383640967958297</v>
       </c>
       <c r="D2" t="n">
-        <v>0.005149288448955172</v>
+        <v>0.005149284065766067</v>
       </c>
       <c r="E2" t="n">
         <v>0.0119047619047619</v>
@@ -2929,10 +2929,10 @@
         <v>0.02151714816116247</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01455457298630586</v>
+        <v>0.01455457298630589</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01866023536056863</v>
+        <v>0.01866023974375774</v>
       </c>
     </row>
     <row r="3">
@@ -2946,7 +2946,7 @@
         <v>0.05811264135190177</v>
       </c>
       <c r="D3" t="n">
-        <v>0.009450336462307042</v>
+        <v>0.009450329345005384</v>
       </c>
       <c r="E3" t="n">
         <v>0.03571428571428571</v>
@@ -2961,7 +2961,7 @@
         <v>0.01049359373285415</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03816871115674057</v>
+        <v>0.03816871827404223</v>
       </c>
     </row>
     <row r="4">
@@ -2972,10 +2972,10 @@
         <v>0.1170442383146548</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1060379755131709</v>
+        <v>0.106037975513171</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02352257270241736</v>
+        <v>0.02352255845239084</v>
       </c>
       <c r="E4" t="n">
         <v>0.05952380952380952</v>
@@ -2987,10 +2987,10 @@
         <v>0.0456156668860834</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03460940408459948</v>
+        <v>0.03460940408459953</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04790599872615407</v>
+        <v>0.04790601297618059</v>
       </c>
     </row>
     <row r="5">
@@ -3001,10 +3001,10 @@
         <v>0.1215376824557723</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1103972762585637</v>
+        <v>0.1103972762585638</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02503863733737148</v>
+        <v>0.02503862242156779</v>
       </c>
       <c r="E5" t="n">
         <v>0.08333333333333333</v>
@@ -3016,10 +3016,10 @@
         <v>0.02629958721767706</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01515918102046843</v>
+        <v>0.01515918102046854</v>
       </c>
       <c r="I5" t="n">
-        <v>0.07019945790072375</v>
+        <v>0.07019947281652744</v>
       </c>
     </row>
     <row r="6">
@@ -3030,10 +3030,10 @@
         <v>0.1392886890801395</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1277152932898553</v>
+        <v>0.1277152932898554</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03142979156554484</v>
+        <v>0.03142977399679556</v>
       </c>
       <c r="E6" t="n">
         <v>0.1071428571428571</v>
@@ -3045,10 +3045,10 @@
         <v>0.02024107003252043</v>
       </c>
       <c r="H6" t="n">
-        <v>0.008667674242236273</v>
+        <v>0.008667674242236328</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0876178274820742</v>
+        <v>0.08761784505082348</v>
       </c>
     </row>
     <row r="7">
@@ -3062,7 +3062,7 @@
         <v>0.1302506944650978</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03241413309385233</v>
+        <v>0.03241411513636291</v>
       </c>
       <c r="E7" t="n">
         <v>0.130952380952381</v>
@@ -3074,10 +3074,10 @@
         <v>0.0009819862210175279</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01260644839204506</v>
+        <v>0.012606448392045</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1104430097632905</v>
+        <v>0.1104430277207799</v>
       </c>
     </row>
     <row r="8">
@@ -3091,7 +3091,7 @@
         <v>0.1652977376639957</v>
       </c>
       <c r="D8" t="n">
-        <v>0.04725749262546157</v>
+        <v>0.04725746932314587</v>
       </c>
       <c r="E8" t="n">
         <v>0.1547619047619048</v>
@@ -3106,7 +3106,7 @@
         <v>0.00136892900267091</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1194091740412051</v>
+        <v>0.1194091973435208</v>
       </c>
     </row>
     <row r="9">
@@ -3114,13 +3114,13 @@
         <v>79.901</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1894088382927069</v>
+        <v>0.189408838292707</v>
       </c>
       <c r="C9" t="n">
         <v>0.1773034937306383</v>
       </c>
       <c r="D9" t="n">
-        <v>0.05286074548738718</v>
+        <v>0.05286072037905183</v>
       </c>
       <c r="E9" t="n">
         <v>0.1785714285714286</v>
@@ -3129,13 +3129,13 @@
         <v>0.1904761904761905</v>
       </c>
       <c r="G9" t="n">
-        <v>0.001067352183483528</v>
+        <v>0.001067352183483472</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01317269674555221</v>
+        <v>0.01317269674555216</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1376154449888033</v>
+        <v>0.1376154700971386</v>
       </c>
     </row>
     <row r="10">
@@ -3146,10 +3146,10 @@
         <v>0.1976181584774409</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1855062400867626</v>
+        <v>0.1855062400867627</v>
       </c>
       <c r="D10" t="n">
-        <v>0.05683782106451212</v>
+        <v>0.05683779473321186</v>
       </c>
       <c r="E10" t="n">
         <v>0.2023809523809524</v>
@@ -3161,10 +3161,10 @@
         <v>0.01666755580827337</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02877947419895169</v>
+        <v>0.02877947419895158</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1574478932212021</v>
+        <v>0.1574479195525024</v>
       </c>
     </row>
     <row r="11">
@@ -3178,7 +3178,7 @@
         <v>0.197659134327423</v>
       </c>
       <c r="D11" t="n">
-        <v>0.062949510881328</v>
+        <v>0.06294948275732037</v>
       </c>
       <c r="E11" t="n">
         <v>0.2261904761904762</v>
@@ -3190,10 +3190,10 @@
         <v>0.02834976465640349</v>
       </c>
       <c r="H11" t="n">
-        <v>0.04043610376781509</v>
+        <v>0.04043610376781503</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1751457272139101</v>
+        <v>0.1751457553379177</v>
       </c>
     </row>
     <row r="12">
@@ -3201,13 +3201,13 @@
         <v>83.129</v>
       </c>
       <c r="B12" t="n">
-        <v>0.2201222857493693</v>
+        <v>0.2201222857493692</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2080891577778649</v>
+        <v>0.208089157777865</v>
       </c>
       <c r="D12" t="n">
-        <v>0.06840151846568185</v>
+        <v>0.06840148882376811</v>
       </c>
       <c r="E12" t="n">
         <v>0.25</v>
@@ -3216,13 +3216,13 @@
         <v>0.2619047619047619</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04178247615539266</v>
+        <v>0.04178247615539271</v>
       </c>
       <c r="H12" t="n">
-        <v>0.05381560412689701</v>
+        <v>0.05381560412689695</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1935032434390801</v>
+        <v>0.1935032730809938</v>
       </c>
     </row>
     <row r="13">
@@ -3236,7 +3236,7 @@
         <v>0.2081479938294423</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0684328111716121</v>
+        <v>0.06843278152119431</v>
       </c>
       <c r="E13" t="n">
         <v>0.2738095238095238</v>
@@ -3245,13 +3245,13 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="G13" t="n">
-        <v>0.06553354175863346</v>
+        <v>0.06553354175863352</v>
       </c>
       <c r="H13" t="n">
         <v>0.07756629188484343</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2172814745426736</v>
+        <v>0.2172815041930914</v>
       </c>
     </row>
     <row r="14">
@@ -3265,7 +3265,7 @@
         <v>0.2547055712978784</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0950555053948795</v>
+        <v>0.09505546925581394</v>
       </c>
       <c r="E14" t="n">
         <v>0.2976190476190476</v>
@@ -3277,10 +3277,10 @@
         <v>0.04332581933786928</v>
       </c>
       <c r="H14" t="n">
-        <v>0.05481823822593118</v>
+        <v>0.05481823822593113</v>
       </c>
       <c r="I14" t="n">
-        <v>0.21446830412893</v>
+        <v>0.2144683402679956</v>
       </c>
     </row>
     <row r="15">
@@ -3294,7 +3294,7 @@
         <v>0.2563190198611066</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0960438851607343</v>
+        <v>0.09604384880640364</v>
       </c>
       <c r="E15" t="n">
         <v>0.3214285714285715</v>
@@ -3309,7 +3309,7 @@
         <v>0.0770143134722267</v>
       </c>
       <c r="I15" t="n">
-        <v>0.237289448172599</v>
+        <v>0.2372894845269297</v>
       </c>
     </row>
     <row r="16">
@@ -3323,7 +3323,7 @@
         <v>0.272275423034344</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1060521333858874</v>
+        <v>0.1060520949416104</v>
       </c>
       <c r="E16" t="n">
         <v>0.3452380952380952</v>
@@ -3338,7 +3338,7 @@
         <v>0.08486743410851311</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2510907237569697</v>
+        <v>0.2510907622012467</v>
       </c>
     </row>
     <row r="17">
@@ -3352,7 +3352,7 @@
         <v>0.319488115586023</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1381153188597321</v>
+        <v>0.1381152746866954</v>
       </c>
       <c r="E17" t="n">
         <v>0.3690476190476191</v>
@@ -3367,7 +3367,7 @@
         <v>0.06146426536635791</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2428370620926489</v>
+        <v>0.2428371062656855</v>
       </c>
     </row>
     <row r="18">
@@ -3381,7 +3381,7 @@
         <v>0.3322720718746855</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1474179783484493</v>
+        <v>0.1474179327525842</v>
       </c>
       <c r="E18" t="n">
         <v>0.3928571428571428</v>
@@ -3396,7 +3396,7 @@
         <v>0.07248983288721922</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2573439264134555</v>
+        <v>0.2573439720093205</v>
       </c>
     </row>
     <row r="19">
@@ -3407,10 +3407,10 @@
         <v>0.3901761674654039</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3819107160416727</v>
+        <v>0.3819107160416728</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1860002321232449</v>
+        <v>0.1860001815798042</v>
       </c>
       <c r="E19" t="n">
         <v>0.4166666666666667</v>
@@ -3422,10 +3422,10 @@
         <v>0.03839526110602465</v>
       </c>
       <c r="H19" t="n">
-        <v>0.04666071252975584</v>
+        <v>0.04666071252975579</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2425711964481836</v>
+        <v>0.2425712469916244</v>
       </c>
     </row>
     <row r="20">
@@ -3439,7 +3439,7 @@
         <v>0.3923589851210169</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1946144512638833</v>
+        <v>0.1946143998030467</v>
       </c>
       <c r="E20" t="n">
         <v>0.4404761904761905</v>
@@ -3448,13 +3448,13 @@
         <v>0.4523809523809524</v>
       </c>
       <c r="G20" t="n">
-        <v>0.05209899087866443</v>
+        <v>0.05209899087866438</v>
       </c>
       <c r="H20" t="n">
-        <v>0.06002196725993553</v>
+        <v>0.06002196725993547</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2577665011170691</v>
+        <v>0.2577665525779057</v>
       </c>
     </row>
     <row r="21">
@@ -3468,7 +3468,7 @@
         <v>0.3987914740456758</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2000023177300909</v>
+        <v>0.2000022657269522</v>
       </c>
       <c r="E21" t="n">
         <v>0.4642857142857143</v>
@@ -3483,7 +3483,7 @@
         <v>0.07739900214480039</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2761881584603852</v>
+        <v>0.276188210463524</v>
       </c>
     </row>
     <row r="22">
@@ -3497,7 +3497,7 @@
         <v>0.5021535662662</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2952905999659242</v>
+        <v>0.2952905417743604</v>
       </c>
       <c r="E22" t="n">
         <v>0.4880952380952381</v>
@@ -3512,7 +3512,7 @@
         <v>0.002153566266200002</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2047094000340758</v>
+        <v>0.2047094582256396</v>
       </c>
     </row>
     <row r="23">
@@ -3526,7 +3526,7 @@
         <v>0.5061883472220433</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2993392033372095</v>
+        <v>0.2993391450063462</v>
       </c>
       <c r="E23" t="n">
         <v>0.5119047619047619</v>
@@ -3541,7 +3541,7 @@
         <v>0.01762117658748052</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2244703204723143</v>
+        <v>0.2244703788031776</v>
       </c>
     </row>
     <row r="24">
@@ -3552,10 +3552,10 @@
         <v>0.5517670863942875</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5496795370978785</v>
+        <v>0.5496795370978784</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3445311813821007</v>
+        <v>0.3445311220712378</v>
       </c>
       <c r="E24" t="n">
         <v>0.5357142857142857</v>
@@ -3567,10 +3567,10 @@
         <v>0.004148038775239837</v>
       </c>
       <c r="H24" t="n">
-        <v>0.002060489478830863</v>
+        <v>0.002060489478830752</v>
       </c>
       <c r="I24" t="n">
-        <v>0.203087866236947</v>
+        <v>0.2030879255478099</v>
       </c>
     </row>
     <row r="25">
@@ -3584,7 +3584,7 @@
         <v>0.5742775837190234</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3713444531250806</v>
+        <v>0.3713443936945287</v>
       </c>
       <c r="E25" t="n">
         <v>0.5595238095238095</v>
@@ -3599,7 +3599,7 @@
         <v>0.00284901229045198</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2000841183034908</v>
+        <v>0.2000841777340427</v>
       </c>
     </row>
     <row r="26">
@@ -3610,10 +3610,10 @@
         <v>0.5937591835832153</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5933716865863164</v>
+        <v>0.5933716865863163</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3927808303108698</v>
+        <v>0.3927807710108728</v>
       </c>
       <c r="E26" t="n">
         <v>0.5833333333333334</v>
@@ -3625,10 +3625,10 @@
         <v>0.0014789116548799</v>
       </c>
       <c r="H26" t="n">
-        <v>0.001866408651778784</v>
+        <v>0.001866408651778895</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2024572649272254</v>
+        <v>0.2024573242272224</v>
       </c>
     </row>
     <row r="27">
@@ -3639,10 +3639,10 @@
         <v>0.5981722965883877</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5979618742790413</v>
+        <v>0.5979618742790412</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3980152078384691</v>
+        <v>0.3980151485994688</v>
       </c>
       <c r="E27" t="n">
         <v>0.6071428571428571</v>
@@ -3654,10 +3654,10 @@
         <v>0.0208753224592314</v>
       </c>
       <c r="H27" t="n">
-        <v>0.02108574476857772</v>
+        <v>0.02108574476857783</v>
       </c>
       <c r="I27" t="n">
-        <v>0.22103241120915</v>
+        <v>0.2210324704481503</v>
       </c>
     </row>
     <row r="28">
@@ -3671,7 +3671,7 @@
         <v>0.5991907647586431</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3994218971419746</v>
+        <v>0.3994218379212686</v>
       </c>
       <c r="E28" t="n">
         <v>0.6309523809523809</v>
@@ -3686,7 +3686,7 @@
         <v>0.04366637809849983</v>
       </c>
       <c r="I28" t="n">
-        <v>0.2434352457151683</v>
+        <v>0.2434353049358743</v>
       </c>
     </row>
     <row r="29">
@@ -3700,7 +3700,7 @@
         <v>0.6437100133386293</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4519034554790752</v>
+        <v>0.4519033974899686</v>
       </c>
       <c r="E29" t="n">
         <v>0.6547619047619048</v>
@@ -3715,7 +3715,7 @@
         <v>0.02295665332803731</v>
       </c>
       <c r="I29" t="n">
-        <v>0.2147632111875914</v>
+        <v>0.2147632691766981</v>
       </c>
     </row>
     <row r="30">
@@ -3729,7 +3729,7 @@
         <v>0.6452059137521032</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4537183954027312</v>
+        <v>0.4537183374745307</v>
       </c>
       <c r="E30" t="n">
         <v>0.6785714285714286</v>
@@ -3744,7 +3744,7 @@
         <v>0.04527027672408723</v>
       </c>
       <c r="I30" t="n">
-        <v>0.2367577950734593</v>
+        <v>0.2367578530016597</v>
       </c>
     </row>
     <row r="31">
@@ -3758,7 +3758,7 @@
         <v>0.6613326888173388</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4734979674490238</v>
+        <v>0.4734979102596529</v>
       </c>
       <c r="E31" t="n">
         <v>0.7023809523809523</v>
@@ -3773,7 +3773,7 @@
         <v>0.05295302546837555</v>
       </c>
       <c r="I31" t="n">
-        <v>0.2407877468366905</v>
+        <v>0.2407878040260614</v>
       </c>
     </row>
     <row r="32">
@@ -3787,7 +3787,7 @@
         <v>0.6726636139866308</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4876295123828365</v>
+        <v>0.4876294558034214</v>
       </c>
       <c r="E32" t="n">
         <v>0.7261904761904762</v>
@@ -3802,7 +3802,7 @@
         <v>0.06543162410860737</v>
       </c>
       <c r="I32" t="n">
-        <v>0.2504657257124017</v>
+        <v>0.2504657822918168</v>
       </c>
     </row>
     <row r="33">
@@ -3816,7 +3816,7 @@
         <v>0.6835626973569872</v>
       </c>
       <c r="D33" t="n">
-        <v>0.501405474398645</v>
+        <v>0.5014054184775483</v>
       </c>
       <c r="E33" t="n">
         <v>0.75</v>
@@ -3831,7 +3831,7 @@
         <v>0.0783420645477747</v>
       </c>
       <c r="I33" t="n">
-        <v>0.2604992875061168</v>
+        <v>0.2604993434272136</v>
       </c>
     </row>
     <row r="34">
@@ -3845,7 +3845,7 @@
         <v>0.692234596971832</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5124950288410751</v>
+        <v>0.5124949734944281</v>
       </c>
       <c r="E34" t="n">
         <v>0.7738095238095238</v>
@@ -3860,7 +3860,7 @@
         <v>0.09347968874245371</v>
       </c>
       <c r="I34" t="n">
-        <v>0.2732192568732106</v>
+        <v>0.2732193122198576</v>
       </c>
     </row>
     <row r="35">
@@ -3874,7 +3874,7 @@
         <v>0.7809354664066331</v>
       </c>
       <c r="D35" t="n">
-        <v>0.6326067449452897</v>
+        <v>0.6326066981465766</v>
       </c>
       <c r="E35" t="n">
         <v>0.7976190476190477</v>
@@ -3889,7 +3889,7 @@
         <v>0.0285883431171764</v>
       </c>
       <c r="I35" t="n">
-        <v>0.1769170645785199</v>
+        <v>0.176917111377233</v>
       </c>
     </row>
     <row r="36">
@@ -3903,7 +3903,7 @@
         <v>0.854610684383508</v>
       </c>
       <c r="D36" t="n">
-        <v>0.742198780381028</v>
+        <v>0.7421987446322421</v>
       </c>
       <c r="E36" t="n">
         <v>0.8214285714285714</v>
@@ -3918,7 +3918,7 @@
         <v>0.02127735105017459</v>
       </c>
       <c r="I36" t="n">
-        <v>0.09113455295230533</v>
+        <v>0.09113458870109126</v>
       </c>
     </row>
     <row r="37">
@@ -3926,13 +3926,13 @@
         <v>163.282</v>
       </c>
       <c r="B37" t="n">
-        <v>0.8586272343777037</v>
+        <v>0.8586272343777036</v>
       </c>
       <c r="C37" t="n">
         <v>0.8657650181216239</v>
       </c>
       <c r="D37" t="n">
-        <v>0.7596526993216179</v>
+        <v>0.7596526655848322</v>
       </c>
       <c r="E37" t="n">
         <v>0.8452380952380952</v>
@@ -3941,13 +3941,13 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="G37" t="n">
-        <v>0.001484377234846623</v>
+        <v>0.001484377234846512</v>
       </c>
       <c r="H37" t="n">
         <v>0.00862216097876678</v>
       </c>
       <c r="I37" t="n">
-        <v>0.09749015782123915</v>
+        <v>0.09749019155802485</v>
       </c>
     </row>
     <row r="38">
@@ -3961,7 +3961,7 @@
         <v>0.8916271925727171</v>
       </c>
       <c r="D38" t="n">
-        <v>0.8011010591172846</v>
+        <v>0.8011010304154271</v>
       </c>
       <c r="E38" t="n">
         <v>0.8690476190476191</v>
@@ -3976,7 +3976,7 @@
         <v>0.01067481162033612</v>
       </c>
       <c r="I38" t="n">
-        <v>0.07985132183509636</v>
+        <v>0.0798513505369538</v>
       </c>
     </row>
     <row r="39">
@@ -3987,10 +3987,10 @@
         <v>0.9093774133891683</v>
       </c>
       <c r="C39" t="n">
-        <v>0.9161826338719198</v>
+        <v>0.9161826338719199</v>
       </c>
       <c r="D39" t="n">
-        <v>0.8418607534665039</v>
+        <v>0.8418607300540362</v>
       </c>
       <c r="E39" t="n">
         <v>0.8928571428571429</v>
@@ -4002,10 +4002,10 @@
         <v>0.004615508627263565</v>
       </c>
       <c r="H39" t="n">
-        <v>0.01142072911001502</v>
+        <v>0.01142072911001513</v>
       </c>
       <c r="I39" t="n">
-        <v>0.06290115129540086</v>
+        <v>0.0629011747078686</v>
       </c>
     </row>
     <row r="40">
@@ -4016,10 +4016,10 @@
         <v>0.92143327505439</v>
       </c>
       <c r="C40" t="n">
-        <v>0.9279648136846882</v>
+        <v>0.9279648136846881</v>
       </c>
       <c r="D40" t="n">
-        <v>0.8619755524133155</v>
+        <v>0.8619755317296339</v>
       </c>
       <c r="E40" t="n">
         <v>0.9166666666666666</v>
@@ -4031,10 +4031,10 @@
         <v>0.007138153517038615</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0006066148867404086</v>
+        <v>0.0006066148867405197</v>
       </c>
       <c r="I40" t="n">
-        <v>0.06659587615811313</v>
+        <v>0.06659589684179468</v>
       </c>
     </row>
     <row r="41">
@@ -4045,10 +4045,10 @@
         <v>0.970894911046088</v>
       </c>
       <c r="C41" t="n">
-        <v>0.97495959623665</v>
+        <v>0.9749595962366499</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9471923098832309</v>
+        <v>0.9471923015811593</v>
       </c>
       <c r="E41" t="n">
         <v>0.9404761904761905</v>
@@ -4060,10 +4060,10 @@
         <v>0.01851395866513572</v>
       </c>
       <c r="H41" t="n">
-        <v>0.02257864385569763</v>
+        <v>0.02257864385569752</v>
       </c>
       <c r="I41" t="n">
-        <v>0.005188642497721441</v>
+        <v>0.005188650799793026</v>
       </c>
     </row>
     <row r="42">
@@ -4077,7 +4077,7 @@
         <v>0.9835373561520727</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9640956437008618</v>
+        <v>0.9640956380056943</v>
       </c>
       <c r="E42" t="n">
         <v>0.9642857142857143</v>
@@ -4092,7 +4092,7 @@
         <v>0.007346879961596553</v>
       </c>
       <c r="I42" t="n">
-        <v>0.0120948324896144</v>
+        <v>0.01209483818478185</v>
       </c>
     </row>
     <row r="43">
@@ -4103,10 +4103,10 @@
         <v>0.9847284729833029</v>
       </c>
       <c r="C43" t="n">
-        <v>0.9874179059924982</v>
+        <v>0.9874179059924981</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9719963295893325</v>
+        <v>0.9719963251291137</v>
       </c>
       <c r="E43" t="n">
         <v>0.9880952380952381</v>
@@ -4118,10 +4118,10 @@
         <v>0.0152715270166971</v>
       </c>
       <c r="H43" t="n">
-        <v>0.01258209400750177</v>
+        <v>0.01258209400750188</v>
       </c>
       <c r="I43" t="n">
-        <v>0.02800367041066754</v>
+        <v>0.02800367487088629</v>
       </c>
     </row>
   </sheetData>
@@ -4173,10 +4173,10 @@
         <v>174.3558351446289</v>
       </c>
       <c r="C2" t="n">
-        <v>172.8813583483289</v>
+        <v>172.881358348329</v>
       </c>
       <c r="D2" t="n">
-        <v>195.5984159281983</v>
+        <v>195.5984215432206</v>
       </c>
     </row>
     <row r="3">
@@ -4187,10 +4187,10 @@
         <v>258.5530303380551</v>
       </c>
       <c r="C3" t="n">
-        <v>254.0041188816806</v>
+        <v>254.0041188816808</v>
       </c>
       <c r="D3" t="n">
-        <v>279.2946772672564</v>
+        <v>279.2946828822788</v>
       </c>
     </row>
     <row r="4">
@@ -4201,10 +4201,10 @@
         <v>344.8704606412949</v>
       </c>
       <c r="C4" t="n">
-        <v>336.5174331025025</v>
+        <v>336.5174331025028</v>
       </c>
       <c r="D4" t="n">
-        <v>361.4708714404961</v>
+        <v>361.4708770555184</v>
       </c>
     </row>
     <row r="5">
@@ -4215,10 +4215,10 @@
         <v>437.1556615783541</v>
       </c>
       <c r="C5" t="n">
-        <v>424.1974073653096</v>
+        <v>424.19740736531</v>
       </c>
       <c r="D5" t="n">
-        <v>443.5020779678047</v>
+        <v>443.5020835828271</v>
       </c>
     </row>
     <row r="6">
@@ -4234,7 +4234,7 @@
         <v>774.7162787981323</v>
       </c>
       <c r="D6" t="n">
-        <v>381.8942870284628</v>
+        <v>381.8942269046408</v>
       </c>
     </row>
   </sheetData>
@@ -4289,7 +4289,7 @@
         <v>180.7147711188758</v>
       </c>
       <c r="D2" t="n">
-        <v>212.8178008610142</v>
+        <v>212.8178056693538</v>
       </c>
     </row>
     <row r="3">
@@ -4303,7 +4303,7 @@
         <v>270.3823956259764</v>
       </c>
       <c r="D3" t="n">
-        <v>310.5555680246266</v>
+        <v>310.5555728329663</v>
       </c>
     </row>
     <row r="4">
@@ -4317,7 +4317,7 @@
         <v>363.0073669766706</v>
       </c>
       <c r="D4" t="n">
-        <v>406.5182502758562</v>
+        <v>406.5182550841959</v>
       </c>
     </row>
     <row r="5">
@@ -4331,7 +4331,7 @@
         <v>462.6212541586591</v>
       </c>
       <c r="D5" t="n">
-        <v>502.3116206778718</v>
+        <v>502.3116254862115</v>
       </c>
     </row>
     <row r="6">
@@ -4347,7 +4347,7 @@
         <v>417.2155731215644</v>
       </c>
       <c r="D6" t="n">
-        <v>148.7991547516092</v>
+        <v>148.7991376082626</v>
       </c>
     </row>
   </sheetData>
@@ -4399,10 +4399,10 @@
         <v>176.147146317481</v>
       </c>
       <c r="C2" t="n">
-        <v>173.6438293779424</v>
+        <v>173.6438293779425</v>
       </c>
       <c r="D2" t="n">
-        <v>197.0239888247402</v>
+        <v>197.0239945090367</v>
       </c>
     </row>
     <row r="3">
@@ -4413,10 +4413,10 @@
         <v>258.1170666685379</v>
       </c>
       <c r="C3" t="n">
-        <v>250.7429759414246</v>
+        <v>250.7429759414247</v>
       </c>
       <c r="D3" t="n">
-        <v>279.7002497609799</v>
+        <v>279.7002554452764</v>
       </c>
     </row>
     <row r="4">
@@ -4430,7 +4430,7 @@
         <v>328.0160917679926</v>
       </c>
       <c r="D4" t="n">
-        <v>360.8749684821772</v>
+        <v>360.8749741664736</v>
       </c>
     </row>
     <row r="5">
@@ -4441,10 +4441,10 @@
         <v>429.5454206408473</v>
       </c>
       <c r="C5" t="n">
-        <v>409.1927796756677</v>
+        <v>409.1927796756678</v>
       </c>
       <c r="D5" t="n">
-        <v>441.9064665116047</v>
+        <v>441.9064721959011</v>
       </c>
     </row>
   </sheetData>

--- a/devoir2_results.xlsx
+++ b/devoir2_results.xlsx
@@ -506,7 +506,7 @@
         <v>35.61873608701515</v>
       </c>
       <c r="H2" t="n">
-        <v>115.4431759978146</v>
+        <v>115.443181612837</v>
       </c>
     </row>
     <row r="3">
@@ -534,7 +534,7 @@
         <v>41.59439954231561</v>
       </c>
       <c r="H3" t="n">
-        <v>119.2151231318074</v>
+        <v>119.215127940147</v>
       </c>
     </row>
     <row r="4">
@@ -562,7 +562,7 @@
         <v>35.18465307571481</v>
       </c>
       <c r="H4" t="n">
-        <v>117.8455951203282</v>
+        <v>117.8456008046247</v>
       </c>
     </row>
   </sheetData>
@@ -642,7 +642,7 @@
         <v>0.007487614647643717</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0005950610170728506</v>
+        <v>0.0005950603203842252</v>
       </c>
       <c r="E2" t="n">
         <v>0.0119047619047619</v>
@@ -657,7 +657,7 @@
         <v>0.01632190916188009</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02321446279245096</v>
+        <v>0.02321446348913958</v>
       </c>
     </row>
     <row r="3">
@@ -671,7 +671,7 @@
         <v>0.05719022568203853</v>
       </c>
       <c r="D3" t="n">
-        <v>0.009066562770240941</v>
+        <v>0.009066556048133119</v>
       </c>
       <c r="E3" t="n">
         <v>0.03571428571428571</v>
@@ -686,7 +686,7 @@
         <v>0.009571178062990911</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03855248484880668</v>
+        <v>0.0385524915709145</v>
       </c>
     </row>
     <row r="4">
@@ -700,7 +700,7 @@
         <v>0.1357446988910646</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03362611369742202</v>
+        <v>0.03362609571437278</v>
       </c>
       <c r="E4" t="n">
         <v>0.05952380952380952</v>
@@ -715,7 +715,7 @@
         <v>0.06431612746249313</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0378024577311494</v>
+        <v>0.03780247571419864</v>
       </c>
     </row>
     <row r="5">
@@ -729,7 +729,7 @@
         <v>0.1448541431831825</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03724949282019956</v>
+        <v>0.03724947350031146</v>
       </c>
       <c r="E5" t="n">
         <v>0.08333333333333333</v>
@@ -744,7 +744,7 @@
         <v>0.04961604794508728</v>
       </c>
       <c r="I5" t="n">
-        <v>0.05798860241789567</v>
+        <v>0.05798862173778377</v>
       </c>
     </row>
     <row r="6">
@@ -758,7 +758,7 @@
         <v>0.1547187596300525</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04134654635219388</v>
+        <v>0.04134652558747407</v>
       </c>
       <c r="E6" t="n">
         <v>0.1071428571428571</v>
@@ -773,7 +773,7 @@
         <v>0.03567114058243345</v>
       </c>
       <c r="I6" t="n">
-        <v>0.07770107269542517</v>
+        <v>0.07770109346014498</v>
       </c>
     </row>
     <row r="7">
@@ -787,7 +787,7 @@
         <v>0.1574737636531398</v>
       </c>
       <c r="D7" t="n">
-        <v>0.04252271984475932</v>
+        <v>0.04252269867737873</v>
       </c>
       <c r="E7" t="n">
         <v>0.130952380952381</v>
@@ -802,7 +802,7 @@
         <v>0.0146166207959969</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1003344230123835</v>
+        <v>0.1003344441797641</v>
       </c>
     </row>
     <row r="8">
@@ -816,7 +816,7 @@
         <v>0.2077190396678339</v>
       </c>
       <c r="D8" t="n">
-        <v>0.06637430047709171</v>
+        <v>0.06637427209568753</v>
       </c>
       <c r="E8" t="n">
         <v>0.1547619047619048</v>
@@ -831,7 +831,7 @@
         <v>0.04105237300116724</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1002923661895749</v>
+        <v>0.1002923945709791</v>
       </c>
     </row>
     <row r="9">
@@ -845,7 +845,7 @@
         <v>0.2127406016533091</v>
       </c>
       <c r="D9" t="n">
-        <v>0.06900445757919055</v>
+        <v>0.06900442849587358</v>
       </c>
       <c r="E9" t="n">
         <v>0.1785714285714286</v>
@@ -860,7 +860,7 @@
         <v>0.02226441117711864</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1214717328969999</v>
+        <v>0.1214717619803169</v>
       </c>
     </row>
     <row r="10">
@@ -874,7 +874,7 @@
         <v>0.2163293575646535</v>
       </c>
       <c r="D10" t="n">
-        <v>0.07091121036863203</v>
+        <v>0.0709111807863759</v>
       </c>
       <c r="E10" t="n">
         <v>0.2023809523809524</v>
@@ -889,7 +889,7 @@
         <v>0.002043643278939272</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1433745039170822</v>
+        <v>0.1433745334993384</v>
       </c>
     </row>
     <row r="11">
@@ -903,7 +903,7 @@
         <v>0.2196492423151352</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0726951443102684</v>
+        <v>0.07269511426853444</v>
       </c>
       <c r="E11" t="n">
         <v>0.2261904761904762</v>
@@ -918,7 +918,7 @@
         <v>0.01844599578010286</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1654000937849697</v>
+        <v>0.1654001238267037</v>
       </c>
     </row>
     <row r="12">
@@ -932,7 +932,7 @@
         <v>0.2290162461357511</v>
       </c>
       <c r="D12" t="n">
-        <v>0.07783196029649676</v>
+        <v>0.0778319289696798</v>
       </c>
       <c r="E12" t="n">
         <v>0.25</v>
@@ -947,7 +947,7 @@
         <v>0.03288851576901086</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1840728016082652</v>
+        <v>0.1840728329350821</v>
       </c>
     </row>
     <row r="13">
@@ -961,7 +961,7 @@
         <v>0.2306117501956816</v>
       </c>
       <c r="D13" t="n">
-        <v>0.07872211340494638</v>
+        <v>0.07872208186097428</v>
       </c>
       <c r="E13" t="n">
         <v>0.2738095238095238</v>
@@ -976,7 +976,7 @@
         <v>0.05510253551860411</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2069921723093393</v>
+        <v>0.2069922038533114</v>
       </c>
     </row>
     <row r="14">
@@ -990,7 +990,7 @@
         <v>0.2398420010791221</v>
       </c>
       <c r="D14" t="n">
-        <v>0.08395822882500469</v>
+        <v>0.08395819603521537</v>
       </c>
       <c r="E14" t="n">
         <v>0.2976190476190476</v>
@@ -1005,7 +1005,7 @@
         <v>0.06968180844468741</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2255655806988048</v>
+        <v>0.2255656134885942</v>
       </c>
     </row>
     <row r="15">
@@ -1019,7 +1019,7 @@
         <v>0.2399029125565237</v>
       </c>
       <c r="D15" t="n">
-        <v>0.08399327111468681</v>
+        <v>0.08399323831673712</v>
       </c>
       <c r="E15" t="n">
         <v>0.3214285714285715</v>
@@ -1034,7 +1034,7 @@
         <v>0.09343042077680963</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2493400622186465</v>
+        <v>0.2493400950165962</v>
       </c>
     </row>
     <row r="16">
@@ -1048,7 +1048,7 @@
         <v>0.284545658503076</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1113835069161228</v>
+        <v>0.1113834683785784</v>
       </c>
       <c r="E16" t="n">
         <v>0.3452380952380952</v>
@@ -1063,7 +1063,7 @@
         <v>0.07259719863978115</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2457593502267344</v>
+        <v>0.2457593887642787</v>
       </c>
     </row>
     <row r="17">
@@ -1077,7 +1077,7 @@
         <v>0.2876035609587587</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1133835257558638</v>
+        <v>0.1133834868444351</v>
       </c>
       <c r="E17" t="n">
         <v>0.3690476190476191</v>
@@ -1092,7 +1092,7 @@
         <v>0.09334881999362221</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2675688551965171</v>
+        <v>0.2675688941079458</v>
       </c>
     </row>
     <row r="18">
@@ -1106,7 +1106,7 @@
         <v>0.289240138066074</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1144604052288724</v>
+        <v>0.1144603661184411</v>
       </c>
       <c r="E18" t="n">
         <v>0.3928571428571428</v>
@@ -1121,7 +1121,7 @@
         <v>0.1155217666958308</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2903014995330324</v>
+        <v>0.2903015386434636</v>
       </c>
     </row>
     <row r="19">
@@ -1135,7 +1135,7 @@
         <v>0.3525824291552077</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1595804568207833</v>
+        <v>0.1595804106531374</v>
       </c>
       <c r="E19" t="n">
         <v>0.4166666666666667</v>
@@ -1150,7 +1150,7 @@
         <v>0.07598899941622089</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2689909717506452</v>
+        <v>0.2689910179182911</v>
       </c>
     </row>
     <row r="20">
@@ -1164,7 +1164,7 @@
         <v>0.4139921948836415</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2096390331449878</v>
+        <v>0.2096389815118543</v>
       </c>
       <c r="E20" t="n">
         <v>0.4404761904761905</v>
@@ -1179,7 +1179,7 @@
         <v>0.03838875749731091</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2427419192359646</v>
+        <v>0.2427419708690981</v>
       </c>
     </row>
     <row r="21">
@@ -1193,7 +1193,7 @@
         <v>0.4241743987264993</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2185323097904424</v>
+        <v>0.2185322573982177</v>
       </c>
       <c r="E21" t="n">
         <v>0.4642857142857143</v>
@@ -1208,7 +1208,7 @@
         <v>0.05201607746397685</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2576581664000338</v>
+        <v>0.2576582187922585</v>
       </c>
     </row>
     <row r="22">
@@ -1222,7 +1222,7 @@
         <v>0.4701257915513752</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2607463726838885</v>
+        <v>0.2607463174306888</v>
       </c>
       <c r="E22" t="n">
         <v>0.4880952380952381</v>
@@ -1237,7 +1237,7 @@
         <v>0.02987420844862476</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2392536273161115</v>
+        <v>0.2392536825693112</v>
       </c>
     </row>
     <row r="23">
@@ -1251,7 +1251,7 @@
         <v>0.5298154590707826</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3206266148195194</v>
+        <v>0.3206265573264406</v>
       </c>
       <c r="E23" t="n">
         <v>0.5119047619047619</v>
@@ -1266,7 +1266,7 @@
         <v>0.00600593526125881</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2031829089900044</v>
+        <v>0.2031829664830833</v>
       </c>
     </row>
     <row r="24">
@@ -1280,7 +1280,7 @@
         <v>0.5749070489036998</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3696127641008278</v>
+        <v>0.3696127061080796</v>
       </c>
       <c r="E24" t="n">
         <v>0.5357142857142857</v>
@@ -1295,7 +1295,7 @@
         <v>0.02728800128465214</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1780062835182198</v>
+        <v>0.1780063415109681</v>
       </c>
     </row>
     <row r="25">
@@ -1309,7 +1309,7 @@
         <v>0.5981239651740817</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3960879015570422</v>
+        <v>0.3960878437299419</v>
       </c>
       <c r="E25" t="n">
         <v>0.5595238095238095</v>
@@ -1324,7 +1324,7 @@
         <v>0.02669539374551033</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1753406698715292</v>
+        <v>0.1753407276986295</v>
       </c>
     </row>
     <row r="26">
@@ -1338,7 +1338,7 @@
         <v>0.6114444222451174</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4116615538701797</v>
+        <v>0.4116614962721065</v>
       </c>
       <c r="E26" t="n">
         <v>0.5833333333333334</v>
@@ -1353,7 +1353,7 @@
         <v>0.01620632700702218</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1835765413679155</v>
+        <v>0.1835765989659888</v>
       </c>
     </row>
     <row r="27">
@@ -1367,7 +1367,7 @@
         <v>0.6160954206262322</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4171651699873602</v>
+        <v>0.4171651124926196</v>
       </c>
       <c r="E27" t="n">
         <v>0.6071428571428571</v>
@@ -1382,7 +1382,7 @@
         <v>0.002952198421386831</v>
       </c>
       <c r="I27" t="n">
-        <v>0.2018824490602589</v>
+        <v>0.2018825065549995</v>
       </c>
     </row>
     <row r="28">
@@ -1396,7 +1396,7 @@
         <v>0.6204095732058192</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4223006743546385</v>
+        <v>0.4223006169666457</v>
       </c>
       <c r="E28" t="n">
         <v>0.6309523809523809</v>
@@ -1411,7 +1411,7 @@
         <v>0.02244756965132366</v>
       </c>
       <c r="I28" t="n">
-        <v>0.2205564685025044</v>
+        <v>0.2205565258904972</v>
       </c>
     </row>
     <row r="29">
@@ -1425,7 +1425,7 @@
         <v>0.6215641732421128</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4236800700694461</v>
+        <v>0.4236800127118082</v>
       </c>
       <c r="E29" t="n">
         <v>0.6547619047619048</v>
@@ -1440,7 +1440,7 @@
         <v>0.04510249342455386</v>
       </c>
       <c r="I29" t="n">
-        <v>0.2429865965972205</v>
+        <v>0.2429866539548585</v>
       </c>
     </row>
     <row r="30">
@@ -1454,7 +1454,7 @@
         <v>0.6332720344205158</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4377860971171033</v>
+        <v>0.4377860401101186</v>
       </c>
       <c r="E30" t="n">
         <v>0.6785714285714286</v>
@@ -1469,7 +1469,7 @@
         <v>0.05720415605567464</v>
       </c>
       <c r="I30" t="n">
-        <v>0.2526900933590872</v>
+        <v>0.2526901503660718</v>
       </c>
     </row>
     <row r="31">
@@ -1483,7 +1483,7 @@
         <v>0.663289521042139</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4749398147344222</v>
+        <v>0.4749397589881968</v>
       </c>
       <c r="E31" t="n">
         <v>0.7023809523809523</v>
@@ -1498,7 +1498,7 @@
         <v>0.05099619324357529</v>
       </c>
       <c r="I31" t="n">
-        <v>0.2393458995512921</v>
+        <v>0.2393459552975175</v>
       </c>
     </row>
     <row r="32">
@@ -1512,7 +1512,7 @@
         <v>0.6797569374910258</v>
       </c>
       <c r="D32" t="n">
-        <v>0.495926501942637</v>
+        <v>0.4959264471135255</v>
       </c>
       <c r="E32" t="n">
         <v>0.7261904761904762</v>
@@ -1527,7 +1527,7 @@
         <v>0.0583383006042123</v>
       </c>
       <c r="I32" t="n">
-        <v>0.2421687361526011</v>
+        <v>0.2421687909817127</v>
       </c>
     </row>
     <row r="33">
@@ -1541,7 +1541,7 @@
         <v>0.6903323680001329</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5096304962457631</v>
+        <v>0.5096304420914597</v>
       </c>
       <c r="E33" t="n">
         <v>0.75</v>
@@ -1556,7 +1556,7 @@
         <v>0.07157239390462899</v>
       </c>
       <c r="I33" t="n">
-        <v>0.2522742656589988</v>
+        <v>0.2522743198133022</v>
       </c>
     </row>
     <row r="34">
@@ -1570,7 +1570,7 @@
         <v>0.70049624332451</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5229682951123188</v>
+        <v>0.5229682416705951</v>
       </c>
       <c r="E34" t="n">
         <v>0.7738095238095238</v>
@@ -1585,7 +1585,7 @@
         <v>0.08521804238977571</v>
       </c>
       <c r="I34" t="n">
-        <v>0.2627459906019669</v>
+        <v>0.2627460440436906</v>
       </c>
     </row>
     <row r="35">
@@ -1599,7 +1599,7 @@
         <v>0.708577699139011</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5336905080675181</v>
+        <v>0.5336904552375852</v>
       </c>
       <c r="E35" t="n">
         <v>0.7976190476190477</v>
@@ -1614,7 +1614,7 @@
         <v>0.1009461103847985</v>
       </c>
       <c r="I35" t="n">
-        <v>0.2758333014562915</v>
+        <v>0.2758333542862244</v>
       </c>
     </row>
     <row r="36">
@@ -1628,7 +1628,7 @@
         <v>0.7910579671496827</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6491224510566556</v>
+        <v>0.6491224068367332</v>
       </c>
       <c r="E36" t="n">
         <v>0.8214285714285714</v>
@@ -1643,7 +1643,7 @@
         <v>0.04227536618365069</v>
       </c>
       <c r="I36" t="n">
-        <v>0.1842108822766778</v>
+        <v>0.1842109264966002</v>
       </c>
     </row>
     <row r="37">
@@ -1657,7 +1657,7 @@
         <v>0.8700062222782761</v>
       </c>
       <c r="D37" t="n">
-        <v>0.770249849312685</v>
+        <v>0.7702498176161161</v>
       </c>
       <c r="E37" t="n">
         <v>0.8452380952380952</v>
@@ -1672,7 +1672,7 @@
         <v>0.01286336513541897</v>
       </c>
       <c r="I37" t="n">
-        <v>0.08689300783017206</v>
+        <v>0.08689303952674099</v>
       </c>
     </row>
     <row r="38">
@@ -1686,7 +1686,7 @@
         <v>0.8942157470270049</v>
       </c>
       <c r="D38" t="n">
-        <v>0.8096576330506836</v>
+        <v>0.8096576061010571</v>
       </c>
       <c r="E38" t="n">
         <v>0.8690476190476191</v>
@@ -1701,7 +1701,7 @@
         <v>0.01326336607462397</v>
       </c>
       <c r="I38" t="n">
-        <v>0.07129474790169732</v>
+        <v>0.07129477485132385</v>
       </c>
     </row>
     <row r="39">
@@ -1715,7 +1715,7 @@
         <v>0.9173353034810199</v>
       </c>
       <c r="D39" t="n">
-        <v>0.8484021126087865</v>
+        <v>0.8484020906211744</v>
       </c>
       <c r="E39" t="n">
         <v>0.8928571428571429</v>
@@ -1730,7 +1730,7 @@
         <v>0.01257339871911511</v>
       </c>
       <c r="I39" t="n">
-        <v>0.05635979215311826</v>
+        <v>0.05635981414073032</v>
       </c>
     </row>
     <row r="40">
@@ -1744,7 +1744,7 @@
         <v>0.9284958333822537</v>
       </c>
       <c r="D40" t="n">
-        <v>0.8675299391413916</v>
+        <v>0.8675299197071487</v>
       </c>
       <c r="E40" t="n">
         <v>0.9166666666666666</v>
@@ -1759,7 +1759,7 @@
         <v>7.559518917488184e-05</v>
       </c>
       <c r="I40" t="n">
-        <v>0.06104148943003695</v>
+        <v>0.06104150886427995</v>
       </c>
     </row>
     <row r="41">
@@ -1773,7 +1773,7 @@
         <v>0.9738532505794389</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9488088073313276</v>
+        <v>0.9488087994715971</v>
       </c>
       <c r="E41" t="n">
         <v>0.9404761904761905</v>
@@ -1788,7 +1788,7 @@
         <v>0.02147229819848662</v>
       </c>
       <c r="I41" t="n">
-        <v>0.003572145049624775</v>
+        <v>0.003572152909355197</v>
       </c>
     </row>
     <row r="42">
@@ -1802,7 +1802,7 @@
         <v>0.9824242202613794</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9650394847599911</v>
+        <v>0.9650394793462128</v>
       </c>
       <c r="E42" t="n">
         <v>0.9642857142857143</v>
@@ -1817,7 +1817,7 @@
         <v>0.006233744070903269</v>
       </c>
       <c r="I42" t="n">
-        <v>0.01115099143048504</v>
+        <v>0.01115099684426335</v>
       </c>
     </row>
     <row r="43">
@@ -1831,7 +1831,7 @@
         <v>0.9863681276060511</v>
       </c>
       <c r="D43" t="n">
-        <v>0.972652530959374</v>
+        <v>0.9726525267077475</v>
       </c>
       <c r="E43" t="n">
         <v>0.9880952380952381</v>
@@ -1846,7 +1846,7 @@
         <v>0.01363187239394892</v>
       </c>
       <c r="I43" t="n">
-        <v>0.02734746904062602</v>
+        <v>0.02734747329225251</v>
       </c>
     </row>
   </sheetData>
@@ -1911,7 +1911,7 @@
         <v>0.008647973303246981</v>
       </c>
       <c r="D2" t="n">
-        <v>0.002250629251403668</v>
+        <v>0.002250627665240272</v>
       </c>
       <c r="E2" t="n">
         <v>0.01063829787234043</v>
@@ -1931,7 +1931,7 @@
         <v>0.05882555545401921</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01620181912852355</v>
+        <v>0.01620181140707962</v>
       </c>
       <c r="E3" t="n">
         <v>0.03191489361702127</v>
@@ -1951,7 +1951,7 @@
         <v>0.1341138410239009</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04430757627959986</v>
+        <v>0.04430756031642659</v>
       </c>
       <c r="E4" t="n">
         <v>0.05319148936170213</v>
@@ -1971,7 +1971,7 @@
         <v>0.142733292181175</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0480306685174364</v>
+        <v>0.0480306516608922</v>
       </c>
       <c r="E5" t="n">
         <v>0.07446808510638298</v>
@@ -1991,7 +1991,7 @@
         <v>0.1520522487048782</v>
       </c>
       <c r="D6" t="n">
-        <v>0.05216881296865133</v>
+        <v>0.05216879515822161</v>
       </c>
       <c r="E6" t="n">
         <v>0.09574468085106383</v>
@@ -2011,7 +2011,7 @@
         <v>0.1546523522260774</v>
       </c>
       <c r="D7" t="n">
-        <v>0.05334423456747039</v>
+        <v>0.05334421649315065</v>
       </c>
       <c r="E7" t="n">
         <v>0.1170212765957447</v>
@@ -2031,7 +2031,7 @@
         <v>0.2019315193222429</v>
       </c>
       <c r="D8" t="n">
-        <v>0.07628552214743629</v>
+        <v>0.07628549945463689</v>
       </c>
       <c r="E8" t="n">
         <v>0.1382978723404255</v>
@@ -2051,7 +2051,7 @@
         <v>0.2066460014159929</v>
       </c>
       <c r="D9" t="n">
-        <v>0.07873490195711833</v>
+        <v>0.07873487882334494</v>
       </c>
       <c r="E9" t="n">
         <v>0.1595744680851064</v>
@@ -2071,7 +2071,7 @@
         <v>0.210014502505086</v>
       </c>
       <c r="D10" t="n">
-        <v>0.08050285629959085</v>
+        <v>0.08050283285301391</v>
       </c>
       <c r="E10" t="n">
         <v>0.1808510638297872</v>
@@ -2091,7 +2091,7 @@
         <v>0.2131300951398636</v>
       </c>
       <c r="D11" t="n">
-        <v>0.08215132139636608</v>
+        <v>0.08215129766217272</v>
       </c>
       <c r="E11" t="n">
         <v>0.2021276595744681</v>
@@ -2111,7 +2111,7 @@
         <v>0.2219182424646712</v>
       </c>
       <c r="D12" t="n">
-        <v>0.08686969612340947</v>
+        <v>0.08686967158685824</v>
       </c>
       <c r="E12" t="n">
         <v>0.2234042553191489</v>
@@ -2131,7 +2131,7 @@
         <v>0.2234148307080164</v>
       </c>
       <c r="D13" t="n">
-        <v>0.08768329734648726</v>
+        <v>0.08768327267462431</v>
       </c>
       <c r="E13" t="n">
         <v>0.2446808510638298</v>
@@ -2151,7 +2151,7 @@
         <v>0.2320713514120815</v>
       </c>
       <c r="D14" t="n">
-        <v>0.09244682132472171</v>
+        <v>0.09244679587788401</v>
       </c>
       <c r="E14" t="n">
         <v>0.2659574468085106</v>
@@ -2171,7 +2171,7 @@
         <v>0.232128469330987</v>
       </c>
       <c r="D15" t="n">
-        <v>0.09247857786826504</v>
+        <v>0.09247855241635777</v>
       </c>
       <c r="E15" t="n">
         <v>0.2872340425531915</v>
@@ -2191,7 +2191,7 @@
         <v>0.273980040406938</v>
       </c>
       <c r="D16" t="n">
-        <v>0.116894286702627</v>
+        <v>0.116894257697054</v>
       </c>
       <c r="E16" t="n">
         <v>0.3085106382978723</v>
@@ -2211,7 +2211,7 @@
         <v>0.2768468781645126</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1186506473039972</v>
+        <v>0.1186506180671637</v>
       </c>
       <c r="E17" t="n">
         <v>0.3297872340425532</v>
@@ -2231,7 +2231,7 @@
         <v>0.2783812510755337</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1195951011991904</v>
+        <v>0.1195950718392458</v>
       </c>
       <c r="E18" t="n">
         <v>0.351063829787234</v>
@@ -2251,7 +2251,7 @@
         <v>0.3235742483507528</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1488002803577517</v>
+        <v>0.148800247586484</v>
       </c>
       <c r="E19" t="n">
         <v>0.3723404255319149</v>
@@ -2271,7 +2271,7 @@
         <v>0.3378262024089898</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1585695801424694</v>
+        <v>0.1585695463852686</v>
       </c>
       <c r="E20" t="n">
         <v>0.3936170212765958</v>
@@ -2291,7 +2291,7 @@
         <v>0.3956598256175535</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2009994500814186</v>
+        <v>0.2009994128008815</v>
       </c>
       <c r="E21" t="n">
         <v>0.4148936170212766</v>
@@ -2311,7 +2311,7 @@
         <v>0.4041267711187648</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2075906597592331</v>
+        <v>0.2075906220304927</v>
       </c>
       <c r="E22" t="n">
         <v>0.4361702127659575</v>
@@ -2331,7 +2331,7 @@
         <v>0.4052771216093275</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2084937220810601</v>
+        <v>0.2084936842928131</v>
       </c>
       <c r="E23" t="n">
         <v>0.4574468085106383</v>
@@ -2351,7 +2351,7 @@
         <v>0.4251460282350601</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2243781817854163</v>
+        <v>0.2243781430226966</v>
       </c>
       <c r="E24" t="n">
         <v>0.4787234042553192</v>
@@ -2371,7 +2371,7 @@
         <v>0.4488041729174384</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2440049527907195</v>
+        <v>0.2440049130026789</v>
       </c>
       <c r="E25" t="n">
         <v>0.5</v>
@@ -2391,7 +2391,7 @@
         <v>0.5057134557002478</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2944593107119439</v>
+        <v>0.2944592690945303</v>
       </c>
       <c r="E26" t="n">
         <v>0.5212765957446809</v>
@@ -2411,7 +2411,7 @@
         <v>0.5490463147091303</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3360436877158089</v>
+        <v>0.3360436453527507</v>
       </c>
       <c r="E27" t="n">
         <v>0.5425531914893617</v>
@@ -2431,7 +2431,7 @@
         <v>0.5714930010300717</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3586987757928882</v>
+        <v>0.3586987332791397</v>
       </c>
       <c r="E28" t="n">
         <v>0.5638297872340425</v>
@@ -2451,7 +2451,7 @@
         <v>0.5844175829457535</v>
       </c>
       <c r="D29" t="n">
-        <v>0.372097060982836</v>
+        <v>0.3720970184585175</v>
       </c>
       <c r="E29" t="n">
         <v>0.5851063829787234</v>
@@ -2471,7 +2471,7 @@
         <v>0.5889386867937221</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3768457383615593</v>
+        <v>0.3768456958469866</v>
       </c>
       <c r="E30" t="n">
         <v>0.6063829787234043</v>
@@ -2491,7 +2491,7 @@
         <v>0.5931363181348163</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3812835925995336</v>
+        <v>0.3812835501003237</v>
       </c>
       <c r="E31" t="n">
         <v>0.6276595744680851</v>
@@ -2511,7 +2511,7 @@
         <v>0.5942603893901224</v>
       </c>
       <c r="D32" t="n">
-        <v>0.3824767384380667</v>
+        <v>0.3824766959440085</v>
       </c>
       <c r="E32" t="n">
         <v>0.648936170212766</v>
@@ -2531,7 +2531,7 @@
         <v>0.6056746767228171</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3947066989319746</v>
+        <v>0.3947066565152969</v>
       </c>
       <c r="E33" t="n">
         <v>0.6702127659574468</v>
@@ -2551,7 +2551,7 @@
         <v>0.6350802116839612</v>
       </c>
       <c r="D34" t="n">
-        <v>0.4271878229029907</v>
+        <v>0.4271877809010318</v>
       </c>
       <c r="E34" t="n">
         <v>0.6914893617021277</v>
@@ -2571,7 +2571,7 @@
         <v>0.6513048276183671</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4457247120557</v>
+        <v>0.4457246704198679</v>
       </c>
       <c r="E35" t="n">
         <v>0.7127659574468085</v>
@@ -2591,7 +2591,7 @@
         <v>0.661761815202753</v>
       </c>
       <c r="D36" t="n">
-        <v>0.457909723023923</v>
+        <v>0.457909681677546</v>
       </c>
       <c r="E36" t="n">
         <v>0.7340425531914894</v>
@@ -2611,7 +2611,7 @@
         <v>0.6718409513999472</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4698339152189661</v>
+        <v>0.4698338741921476</v>
       </c>
       <c r="E37" t="n">
         <v>0.7553191489361702</v>
@@ -2631,7 +2631,7 @@
         <v>0.6798200263440446</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4794003394046355</v>
+        <v>0.4794002986595259</v>
       </c>
       <c r="E38" t="n">
         <v>0.776595744680851</v>
@@ -2651,7 +2651,7 @@
         <v>0.6798762327767303</v>
       </c>
       <c r="D39" t="n">
-        <v>0.479468128411829</v>
+        <v>0.4794680876687949</v>
       </c>
       <c r="E39" t="n">
         <v>0.7978723404255319</v>
@@ -2671,7 +2671,7 @@
         <v>0.7631433910939411</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5863925041399223</v>
+        <v>0.586392467957342</v>
       </c>
       <c r="E40" t="n">
         <v>0.8191489361702128</v>
@@ -2691,7 +2691,7 @@
         <v>0.8457813707196551</v>
       </c>
       <c r="D41" t="n">
-        <v>0.7070534642194947</v>
+        <v>0.7070534358858468</v>
       </c>
       <c r="E41" t="n">
         <v>0.8404255319148937</v>
@@ -2711,7 +2711,7 @@
         <v>0.8719818808477633</v>
       </c>
       <c r="D42" t="n">
-        <v>0.7489630714064581</v>
+        <v>0.7489630463789788</v>
       </c>
       <c r="E42" t="n">
         <v>0.8617021276595744</v>
@@ -2731,7 +2731,7 @@
         <v>0.8975448382798568</v>
       </c>
       <c r="D43" t="n">
-        <v>0.7919076824825243</v>
+        <v>0.7919076611241076</v>
       </c>
       <c r="E43" t="n">
         <v>0.8829787234042553</v>
@@ -2751,7 +2751,7 @@
         <v>0.9101224683955472</v>
       </c>
       <c r="D44" t="n">
-        <v>0.8138844757799718</v>
+        <v>0.8138844564042845</v>
       </c>
       <c r="E44" t="n">
         <v>0.9042553191489362</v>
@@ -2771,7 +2771,7 @@
         <v>0.9637582826086037</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9158965491507127</v>
+        <v>0.9158965398491125</v>
       </c>
       <c r="E45" t="n">
         <v>0.925531914893617</v>
@@ -2791,7 +2791,7 @@
         <v>0.9746781025785772</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9390175881448769</v>
+        <v>0.9390175813147288</v>
       </c>
       <c r="E46" t="n">
         <v>0.9468085106382979</v>
@@ -2811,7 +2811,7 @@
         <v>0.9798683770756452</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9504529953029421</v>
+        <v>0.9504529897195735</v>
       </c>
       <c r="E47" t="n">
         <v>0.9680851063829787</v>
@@ -2831,7 +2831,7 @@
         <v>0.9976031575415124</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9932795317173051</v>
+        <v>0.993279530943031</v>
       </c>
       <c r="E48" t="n">
         <v>0.9893617021276596</v>
@@ -2917,7 +2917,7 @@
         <v>0.03836409679582967</v>
       </c>
       <c r="D2" t="n">
-        <v>0.005149288448955172</v>
+        <v>0.005149284065766067</v>
       </c>
       <c r="E2" t="n">
         <v>0.0119047619047619</v>
@@ -2932,7 +2932,7 @@
         <v>0.01455457298630586</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01866023536056863</v>
+        <v>0.01866023974375774</v>
       </c>
     </row>
     <row r="3">
@@ -2946,7 +2946,7 @@
         <v>0.05811264135190177</v>
       </c>
       <c r="D3" t="n">
-        <v>0.009450336462307042</v>
+        <v>0.009450329345005384</v>
       </c>
       <c r="E3" t="n">
         <v>0.03571428571428571</v>
@@ -2961,7 +2961,7 @@
         <v>0.01049359373285415</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03816871115674057</v>
+        <v>0.03816871827404223</v>
       </c>
     </row>
     <row r="4">
@@ -2975,7 +2975,7 @@
         <v>0.1060379755131709</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02352257270241736</v>
+        <v>0.02352255845239084</v>
       </c>
       <c r="E4" t="n">
         <v>0.05952380952380952</v>
@@ -2990,7 +2990,7 @@
         <v>0.03460940408459948</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04790599872615407</v>
+        <v>0.04790601297618059</v>
       </c>
     </row>
     <row r="5">
@@ -3004,7 +3004,7 @@
         <v>0.1103972762585637</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02503863733737148</v>
+        <v>0.02503862242156779</v>
       </c>
       <c r="E5" t="n">
         <v>0.08333333333333333</v>
@@ -3019,7 +3019,7 @@
         <v>0.01515918102046843</v>
       </c>
       <c r="I5" t="n">
-        <v>0.07019945790072375</v>
+        <v>0.07019947281652744</v>
       </c>
     </row>
     <row r="6">
@@ -3033,7 +3033,7 @@
         <v>0.1277152932898553</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03142979156554484</v>
+        <v>0.03142977399679556</v>
       </c>
       <c r="E6" t="n">
         <v>0.1071428571428571</v>
@@ -3048,7 +3048,7 @@
         <v>0.008667674242236273</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0876178274820742</v>
+        <v>0.08761784505082348</v>
       </c>
     </row>
     <row r="7">
@@ -3062,7 +3062,7 @@
         <v>0.1302506944650978</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03241413309385233</v>
+        <v>0.03241411513636291</v>
       </c>
       <c r="E7" t="n">
         <v>0.130952380952381</v>
@@ -3077,7 +3077,7 @@
         <v>0.01260644839204506</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1104430097632905</v>
+        <v>0.1104430277207799</v>
       </c>
     </row>
     <row r="8">
@@ -3091,7 +3091,7 @@
         <v>0.1652977376639957</v>
       </c>
       <c r="D8" t="n">
-        <v>0.04725749262546157</v>
+        <v>0.04725746932314587</v>
       </c>
       <c r="E8" t="n">
         <v>0.1547619047619048</v>
@@ -3106,7 +3106,7 @@
         <v>0.00136892900267091</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1194091740412051</v>
+        <v>0.1194091973435208</v>
       </c>
     </row>
     <row r="9">
@@ -3120,7 +3120,7 @@
         <v>0.1773034937306383</v>
       </c>
       <c r="D9" t="n">
-        <v>0.05286074548738718</v>
+        <v>0.05286072037905183</v>
       </c>
       <c r="E9" t="n">
         <v>0.1785714285714286</v>
@@ -3135,7 +3135,7 @@
         <v>0.01317269674555221</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1376154449888033</v>
+        <v>0.1376154700971386</v>
       </c>
     </row>
     <row r="10">
@@ -3149,7 +3149,7 @@
         <v>0.1855062400867626</v>
       </c>
       <c r="D10" t="n">
-        <v>0.05683782106451212</v>
+        <v>0.05683779473321186</v>
       </c>
       <c r="E10" t="n">
         <v>0.2023809523809524</v>
@@ -3164,7 +3164,7 @@
         <v>0.02877947419895169</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1574478932212021</v>
+        <v>0.1574479195525024</v>
       </c>
     </row>
     <row r="11">
@@ -3178,7 +3178,7 @@
         <v>0.197659134327423</v>
       </c>
       <c r="D11" t="n">
-        <v>0.062949510881328</v>
+        <v>0.06294948275732037</v>
       </c>
       <c r="E11" t="n">
         <v>0.2261904761904762</v>
@@ -3193,7 +3193,7 @@
         <v>0.04043610376781509</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1751457272139101</v>
+        <v>0.1751457553379177</v>
       </c>
     </row>
     <row r="12">
@@ -3207,7 +3207,7 @@
         <v>0.2080891577778649</v>
       </c>
       <c r="D12" t="n">
-        <v>0.06840151846568185</v>
+        <v>0.06840148882376811</v>
       </c>
       <c r="E12" t="n">
         <v>0.25</v>
@@ -3222,7 +3222,7 @@
         <v>0.05381560412689701</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1935032434390801</v>
+        <v>0.1935032730809938</v>
       </c>
     </row>
     <row r="13">
@@ -3236,7 +3236,7 @@
         <v>0.2081479938294423</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0684328111716121</v>
+        <v>0.06843278152119431</v>
       </c>
       <c r="E13" t="n">
         <v>0.2738095238095238</v>
@@ -3251,7 +3251,7 @@
         <v>0.07756629188484343</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2172814745426736</v>
+        <v>0.2172815041930914</v>
       </c>
     </row>
     <row r="14">
@@ -3265,7 +3265,7 @@
         <v>0.2547055712978784</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0950555053948795</v>
+        <v>0.09505546925581394</v>
       </c>
       <c r="E14" t="n">
         <v>0.2976190476190476</v>
@@ -3280,7 +3280,7 @@
         <v>0.05481823822593118</v>
       </c>
       <c r="I14" t="n">
-        <v>0.21446830412893</v>
+        <v>0.2144683402679956</v>
       </c>
     </row>
     <row r="15">
@@ -3294,7 +3294,7 @@
         <v>0.2563190198611066</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0960438851607343</v>
+        <v>0.09604384880640364</v>
       </c>
       <c r="E15" t="n">
         <v>0.3214285714285715</v>
@@ -3309,7 +3309,7 @@
         <v>0.0770143134722267</v>
       </c>
       <c r="I15" t="n">
-        <v>0.237289448172599</v>
+        <v>0.2372894845269297</v>
       </c>
     </row>
     <row r="16">
@@ -3323,7 +3323,7 @@
         <v>0.272275423034344</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1060521333858874</v>
+        <v>0.1060520949416104</v>
       </c>
       <c r="E16" t="n">
         <v>0.3452380952380952</v>
@@ -3338,7 +3338,7 @@
         <v>0.08486743410851311</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2510907237569697</v>
+        <v>0.2510907622012467</v>
       </c>
     </row>
     <row r="17">
@@ -3352,7 +3352,7 @@
         <v>0.319488115586023</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1381153188597321</v>
+        <v>0.1381152746866954</v>
       </c>
       <c r="E17" t="n">
         <v>0.3690476190476191</v>
@@ -3367,7 +3367,7 @@
         <v>0.06146426536635791</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2428370620926489</v>
+        <v>0.2428371062656855</v>
       </c>
     </row>
     <row r="18">
@@ -3381,7 +3381,7 @@
         <v>0.3322720718746855</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1474179783484493</v>
+        <v>0.1474179327525842</v>
       </c>
       <c r="E18" t="n">
         <v>0.3928571428571428</v>
@@ -3396,7 +3396,7 @@
         <v>0.07248983288721922</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2573439264134555</v>
+        <v>0.2573439720093205</v>
       </c>
     </row>
     <row r="19">
@@ -3410,7 +3410,7 @@
         <v>0.3819107160416727</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1860002321232449</v>
+        <v>0.1860001815798042</v>
       </c>
       <c r="E19" t="n">
         <v>0.4166666666666667</v>
@@ -3425,7 +3425,7 @@
         <v>0.04666071252975584</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2425711964481836</v>
+        <v>0.2425712469916244</v>
       </c>
     </row>
     <row r="20">
@@ -3439,7 +3439,7 @@
         <v>0.3923589851210169</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1946144512638833</v>
+        <v>0.1946143998030467</v>
       </c>
       <c r="E20" t="n">
         <v>0.4404761904761905</v>
@@ -3454,7 +3454,7 @@
         <v>0.06002196725993553</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2577665011170691</v>
+        <v>0.2577665525779057</v>
       </c>
     </row>
     <row r="21">
@@ -3468,7 +3468,7 @@
         <v>0.3987914740456758</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2000023177300909</v>
+        <v>0.2000022657269522</v>
       </c>
       <c r="E21" t="n">
         <v>0.4642857142857143</v>
@@ -3483,7 +3483,7 @@
         <v>0.07739900214480039</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2761881584603852</v>
+        <v>0.276188210463524</v>
       </c>
     </row>
     <row r="22">
@@ -3497,7 +3497,7 @@
         <v>0.5021535662662</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2952905999659242</v>
+        <v>0.2952905417743604</v>
       </c>
       <c r="E22" t="n">
         <v>0.4880952380952381</v>
@@ -3512,7 +3512,7 @@
         <v>0.002153566266200002</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2047094000340758</v>
+        <v>0.2047094582256396</v>
       </c>
     </row>
     <row r="23">
@@ -3526,7 +3526,7 @@
         <v>0.5061883472220433</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2993392033372095</v>
+        <v>0.2993391450063462</v>
       </c>
       <c r="E23" t="n">
         <v>0.5119047619047619</v>
@@ -3541,7 +3541,7 @@
         <v>0.01762117658748052</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2244703204723143</v>
+        <v>0.2244703788031776</v>
       </c>
     </row>
     <row r="24">
@@ -3555,7 +3555,7 @@
         <v>0.5496795370978785</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3445311813821007</v>
+        <v>0.3445311220712378</v>
       </c>
       <c r="E24" t="n">
         <v>0.5357142857142857</v>
@@ -3570,7 +3570,7 @@
         <v>0.002060489478830863</v>
       </c>
       <c r="I24" t="n">
-        <v>0.203087866236947</v>
+        <v>0.2030879255478099</v>
       </c>
     </row>
     <row r="25">
@@ -3584,7 +3584,7 @@
         <v>0.5742775837190234</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3713444531250806</v>
+        <v>0.3713443936945287</v>
       </c>
       <c r="E25" t="n">
         <v>0.5595238095238095</v>
@@ -3599,7 +3599,7 @@
         <v>0.00284901229045198</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2000841183034908</v>
+        <v>0.2000841777340427</v>
       </c>
     </row>
     <row r="26">
@@ -3613,7 +3613,7 @@
         <v>0.5933716865863164</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3927808303108698</v>
+        <v>0.3927807710108728</v>
       </c>
       <c r="E26" t="n">
         <v>0.5833333333333334</v>
@@ -3628,7 +3628,7 @@
         <v>0.001866408651778784</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2024572649272254</v>
+        <v>0.2024573242272224</v>
       </c>
     </row>
     <row r="27">
@@ -3642,7 +3642,7 @@
         <v>0.5979618742790413</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3980152078384691</v>
+        <v>0.3980151485994688</v>
       </c>
       <c r="E27" t="n">
         <v>0.6071428571428571</v>
@@ -3657,7 +3657,7 @@
         <v>0.02108574476857772</v>
       </c>
       <c r="I27" t="n">
-        <v>0.22103241120915</v>
+        <v>0.2210324704481503</v>
       </c>
     </row>
     <row r="28">
@@ -3671,7 +3671,7 @@
         <v>0.5991907647586431</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3994218971419746</v>
+        <v>0.3994218379212686</v>
       </c>
       <c r="E28" t="n">
         <v>0.6309523809523809</v>
@@ -3686,7 +3686,7 @@
         <v>0.04366637809849983</v>
       </c>
       <c r="I28" t="n">
-        <v>0.2434352457151683</v>
+        <v>0.2434353049358743</v>
       </c>
     </row>
     <row r="29">
@@ -3700,7 +3700,7 @@
         <v>0.6437100133386293</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4519034554790752</v>
+        <v>0.4519033974899686</v>
       </c>
       <c r="E29" t="n">
         <v>0.6547619047619048</v>
@@ -3715,7 +3715,7 @@
         <v>0.02295665332803731</v>
       </c>
       <c r="I29" t="n">
-        <v>0.2147632111875914</v>
+        <v>0.2147632691766981</v>
       </c>
     </row>
     <row r="30">
@@ -3729,7 +3729,7 @@
         <v>0.6452059137521032</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4537183954027312</v>
+        <v>0.4537183374745307</v>
       </c>
       <c r="E30" t="n">
         <v>0.6785714285714286</v>
@@ -3744,7 +3744,7 @@
         <v>0.04527027672408723</v>
       </c>
       <c r="I30" t="n">
-        <v>0.2367577950734593</v>
+        <v>0.2367578530016597</v>
       </c>
     </row>
     <row r="31">
@@ -3758,7 +3758,7 @@
         <v>0.6613326888173388</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4734979674490238</v>
+        <v>0.4734979102596529</v>
       </c>
       <c r="E31" t="n">
         <v>0.7023809523809523</v>
@@ -3773,7 +3773,7 @@
         <v>0.05295302546837555</v>
       </c>
       <c r="I31" t="n">
-        <v>0.2407877468366905</v>
+        <v>0.2407878040260614</v>
       </c>
     </row>
     <row r="32">
@@ -3787,7 +3787,7 @@
         <v>0.6726636139866308</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4876295123828365</v>
+        <v>0.4876294558034214</v>
       </c>
       <c r="E32" t="n">
         <v>0.7261904761904762</v>
@@ -3802,7 +3802,7 @@
         <v>0.06543162410860737</v>
       </c>
       <c r="I32" t="n">
-        <v>0.2504657257124017</v>
+        <v>0.2504657822918168</v>
       </c>
     </row>
     <row r="33">
@@ -3816,7 +3816,7 @@
         <v>0.6835626973569872</v>
       </c>
       <c r="D33" t="n">
-        <v>0.501405474398645</v>
+        <v>0.5014054184775483</v>
       </c>
       <c r="E33" t="n">
         <v>0.75</v>
@@ -3831,7 +3831,7 @@
         <v>0.0783420645477747</v>
       </c>
       <c r="I33" t="n">
-        <v>0.2604992875061168</v>
+        <v>0.2604993434272136</v>
       </c>
     </row>
     <row r="34">
@@ -3845,7 +3845,7 @@
         <v>0.692234596971832</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5124950288410751</v>
+        <v>0.5124949734944281</v>
       </c>
       <c r="E34" t="n">
         <v>0.7738095238095238</v>
@@ -3860,7 +3860,7 @@
         <v>0.09347968874245371</v>
       </c>
       <c r="I34" t="n">
-        <v>0.2732192568732106</v>
+        <v>0.2732193122198576</v>
       </c>
     </row>
     <row r="35">
@@ -3874,7 +3874,7 @@
         <v>0.7809354664066331</v>
       </c>
       <c r="D35" t="n">
-        <v>0.6326067449452897</v>
+        <v>0.6326066981465766</v>
       </c>
       <c r="E35" t="n">
         <v>0.7976190476190477</v>
@@ -3889,7 +3889,7 @@
         <v>0.0285883431171764</v>
       </c>
       <c r="I35" t="n">
-        <v>0.1769170645785199</v>
+        <v>0.176917111377233</v>
       </c>
     </row>
     <row r="36">
@@ -3903,7 +3903,7 @@
         <v>0.854610684383508</v>
       </c>
       <c r="D36" t="n">
-        <v>0.742198780381028</v>
+        <v>0.7421987446322421</v>
       </c>
       <c r="E36" t="n">
         <v>0.8214285714285714</v>
@@ -3918,7 +3918,7 @@
         <v>0.02127735105017459</v>
       </c>
       <c r="I36" t="n">
-        <v>0.09113455295230533</v>
+        <v>0.09113458870109126</v>
       </c>
     </row>
     <row r="37">
@@ -3932,7 +3932,7 @@
         <v>0.8657650181216239</v>
       </c>
       <c r="D37" t="n">
-        <v>0.7596526993216179</v>
+        <v>0.7596526655848322</v>
       </c>
       <c r="E37" t="n">
         <v>0.8452380952380952</v>
@@ -3947,7 +3947,7 @@
         <v>0.00862216097876678</v>
       </c>
       <c r="I37" t="n">
-        <v>0.09749015782123915</v>
+        <v>0.09749019155802485</v>
       </c>
     </row>
     <row r="38">
@@ -3961,7 +3961,7 @@
         <v>0.8916271925727171</v>
       </c>
       <c r="D38" t="n">
-        <v>0.8011010591172846</v>
+        <v>0.8011010304154271</v>
       </c>
       <c r="E38" t="n">
         <v>0.8690476190476191</v>
@@ -3976,7 +3976,7 @@
         <v>0.01067481162033612</v>
       </c>
       <c r="I38" t="n">
-        <v>0.07985132183509636</v>
+        <v>0.0798513505369538</v>
       </c>
     </row>
     <row r="39">
@@ -3990,7 +3990,7 @@
         <v>0.9161826338719198</v>
       </c>
       <c r="D39" t="n">
-        <v>0.8418607534665039</v>
+        <v>0.8418607300540362</v>
       </c>
       <c r="E39" t="n">
         <v>0.8928571428571429</v>
@@ -4005,7 +4005,7 @@
         <v>0.01142072911001502</v>
       </c>
       <c r="I39" t="n">
-        <v>0.06290115129540086</v>
+        <v>0.0629011747078686</v>
       </c>
     </row>
     <row r="40">
@@ -4019,7 +4019,7 @@
         <v>0.9279648136846882</v>
       </c>
       <c r="D40" t="n">
-        <v>0.8619755524133155</v>
+        <v>0.8619755317296339</v>
       </c>
       <c r="E40" t="n">
         <v>0.9166666666666666</v>
@@ -4034,7 +4034,7 @@
         <v>0.0006066148867404086</v>
       </c>
       <c r="I40" t="n">
-        <v>0.06659587615811313</v>
+        <v>0.06659589684179468</v>
       </c>
     </row>
     <row r="41">
@@ -4048,7 +4048,7 @@
         <v>0.97495959623665</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9471923098832309</v>
+        <v>0.9471923015811593</v>
       </c>
       <c r="E41" t="n">
         <v>0.9404761904761905</v>
@@ -4063,7 +4063,7 @@
         <v>0.02257864385569763</v>
       </c>
       <c r="I41" t="n">
-        <v>0.005188642497721441</v>
+        <v>0.005188650799793026</v>
       </c>
     </row>
     <row r="42">
@@ -4077,7 +4077,7 @@
         <v>0.9835373561520727</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9640956437008618</v>
+        <v>0.9640956380056943</v>
       </c>
       <c r="E42" t="n">
         <v>0.9642857142857143</v>
@@ -4092,7 +4092,7 @@
         <v>0.007346879961596553</v>
       </c>
       <c r="I42" t="n">
-        <v>0.0120948324896144</v>
+        <v>0.01209483818478185</v>
       </c>
     </row>
     <row r="43">
@@ -4106,7 +4106,7 @@
         <v>0.9874179059924982</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9719963295893325</v>
+        <v>0.9719963251291137</v>
       </c>
       <c r="E43" t="n">
         <v>0.9880952380952381</v>
@@ -4121,7 +4121,7 @@
         <v>0.01258209400750177</v>
       </c>
       <c r="I43" t="n">
-        <v>0.02800367041066754</v>
+        <v>0.02800367487088629</v>
       </c>
     </row>
   </sheetData>
@@ -4176,7 +4176,7 @@
         <v>172.8813583483289</v>
       </c>
       <c r="D2" t="n">
-        <v>195.5984159281983</v>
+        <v>195.5984215432206</v>
       </c>
     </row>
     <row r="3">
@@ -4190,7 +4190,7 @@
         <v>254.0041188816806</v>
       </c>
       <c r="D3" t="n">
-        <v>279.2946772672564</v>
+        <v>279.2946828822788</v>
       </c>
     </row>
     <row r="4">
@@ -4204,7 +4204,7 @@
         <v>336.5174331025025</v>
       </c>
       <c r="D4" t="n">
-        <v>361.4708714404961</v>
+        <v>361.4708770555184</v>
       </c>
     </row>
     <row r="5">
@@ -4218,7 +4218,7 @@
         <v>424.1974073653096</v>
       </c>
       <c r="D5" t="n">
-        <v>443.5020779678047</v>
+        <v>443.5020835828271</v>
       </c>
     </row>
     <row r="6">
@@ -4234,7 +4234,7 @@
         <v>774.7162787981323</v>
       </c>
       <c r="D6" t="n">
-        <v>381.8942870284628</v>
+        <v>381.8942269046408</v>
       </c>
     </row>
   </sheetData>
@@ -4289,7 +4289,7 @@
         <v>180.7147711188758</v>
       </c>
       <c r="D2" t="n">
-        <v>212.8178008610142</v>
+        <v>212.8178056693538</v>
       </c>
     </row>
     <row r="3">
@@ -4303,7 +4303,7 @@
         <v>270.3823956259764</v>
       </c>
       <c r="D3" t="n">
-        <v>310.5555680246266</v>
+        <v>310.5555728329663</v>
       </c>
     </row>
     <row r="4">
@@ -4317,7 +4317,7 @@
         <v>363.0073669766706</v>
       </c>
       <c r="D4" t="n">
-        <v>406.5182502758562</v>
+        <v>406.5182550841959</v>
       </c>
     </row>
     <row r="5">
@@ -4331,7 +4331,7 @@
         <v>462.6212541586591</v>
       </c>
       <c r="D5" t="n">
-        <v>502.3116206778718</v>
+        <v>502.3116254862115</v>
       </c>
     </row>
     <row r="6">
@@ -4347,7 +4347,7 @@
         <v>417.2155731215644</v>
       </c>
       <c r="D6" t="n">
-        <v>148.7991547516092</v>
+        <v>148.7991376082626</v>
       </c>
     </row>
   </sheetData>
@@ -4402,7 +4402,7 @@
         <v>173.6438293779424</v>
       </c>
       <c r="D2" t="n">
-        <v>197.0239888247402</v>
+        <v>197.0239945090367</v>
       </c>
     </row>
     <row r="3">
@@ -4416,7 +4416,7 @@
         <v>250.7429759414246</v>
       </c>
       <c r="D3" t="n">
-        <v>279.7002497609799</v>
+        <v>279.7002554452764</v>
       </c>
     </row>
     <row r="4">
@@ -4430,7 +4430,7 @@
         <v>328.0160917679926</v>
       </c>
       <c r="D4" t="n">
-        <v>360.8749684821772</v>
+        <v>360.8749741664736</v>
       </c>
     </row>
     <row r="5">
@@ -4444,7 +4444,7 @@
         <v>409.1927796756677</v>
       </c>
       <c r="D5" t="n">
-        <v>441.9064665116047</v>
+        <v>441.9064721959011</v>
       </c>
     </row>
   </sheetData>

--- a/devoir2_results.xlsx
+++ b/devoir2_results.xlsx
@@ -500,13 +500,13 @@
         <v>0.3682487299061701</v>
       </c>
       <c r="F2" t="n">
-        <v>4.680675833021207</v>
+        <v>4.680675833021208</v>
       </c>
       <c r="G2" t="n">
-        <v>35.61873608701515</v>
+        <v>0.02807511186126986</v>
       </c>
       <c r="H2" t="n">
-        <v>115.443181612837</v>
+        <v>94.90737023017321</v>
       </c>
     </row>
     <row r="3">
@@ -531,10 +531,10 @@
         <v>4.702699877159873</v>
       </c>
       <c r="G3" t="n">
-        <v>41.59439954231561</v>
+        <v>0.02404169818541703</v>
       </c>
       <c r="H3" t="n">
-        <v>119.215127940147</v>
+        <v>95.2290314640839</v>
       </c>
     </row>
     <row r="4">
@@ -553,16 +553,16 @@
         <v>4.702642173211798</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3516687104736785</v>
+        <v>0.3516687104736786</v>
       </c>
       <c r="F4" t="n">
         <v>4.706324657274862</v>
       </c>
       <c r="G4" t="n">
-        <v>35.18465307571481</v>
+        <v>0.02842148245282035</v>
       </c>
       <c r="H4" t="n">
-        <v>117.8456008046247</v>
+        <v>97.56045517531255</v>
       </c>
     </row>
   </sheetData>
@@ -639,10 +639,10 @@
         <v>0.008936958889347892</v>
       </c>
       <c r="C2" t="n">
-        <v>0.007487614647643717</v>
+        <v>0.007487614647643662</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0005950603203842252</v>
+        <v>0.01541104524643576</v>
       </c>
       <c r="E2" t="n">
         <v>0.0119047619047619</v>
@@ -654,10 +654,10 @@
         <v>0.01487256492017592</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01632190916188009</v>
+        <v>0.01632190916188015</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02321446348913958</v>
+        <v>0.008398478563088048</v>
       </c>
     </row>
     <row r="3">
@@ -668,10 +668,10 @@
         <v>0.06250023432670739</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05719022568203853</v>
+        <v>0.05719022568203825</v>
       </c>
       <c r="D3" t="n">
-        <v>0.009066556048133119</v>
+        <v>0.07118975250554996</v>
       </c>
       <c r="E3" t="n">
         <v>0.03571428571428571</v>
@@ -683,10 +683,10 @@
         <v>0.01488118670765977</v>
       </c>
       <c r="H3" t="n">
-        <v>0.009571178062990911</v>
+        <v>0.009571178062990633</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0385524915709145</v>
+        <v>0.02357070488650234</v>
       </c>
     </row>
     <row r="4">
@@ -697,10 +697,10 @@
         <v>0.1431643623253325</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1357446988910646</v>
+        <v>0.135744698891064</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03362609571437278</v>
+        <v>0.1486735517909558</v>
       </c>
       <c r="E4" t="n">
         <v>0.05952380952380952</v>
@@ -712,10 +712,10 @@
         <v>0.0717357908967611</v>
       </c>
       <c r="H4" t="n">
-        <v>0.06431612746249313</v>
+        <v>0.06431612746249257</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03780247571419864</v>
+        <v>0.07724498036238436</v>
       </c>
     </row>
     <row r="5">
@@ -726,10 +726,10 @@
         <v>0.1523767148425946</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1448541431831825</v>
+        <v>0.144854143183182</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03724947350031146</v>
+        <v>0.157472160520419</v>
       </c>
       <c r="E5" t="n">
         <v>0.08333333333333333</v>
@@ -741,10 +741,10 @@
         <v>0.0571386196044994</v>
       </c>
       <c r="H5" t="n">
-        <v>0.04961604794508728</v>
+        <v>0.04961604794508673</v>
       </c>
       <c r="I5" t="n">
-        <v>0.05798862173778377</v>
+        <v>0.06223406528232378</v>
       </c>
     </row>
     <row r="6">
@@ -755,10 +755,10 @@
         <v>0.1623293156293571</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1547187596300525</v>
+        <v>0.1547187596300518</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04134652558747407</v>
+        <v>0.166980427197704</v>
       </c>
       <c r="E6" t="n">
         <v>0.1071428571428571</v>
@@ -770,10 +770,10 @@
         <v>0.04328169658173806</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03567114058243345</v>
+        <v>0.03567114058243279</v>
       </c>
       <c r="I6" t="n">
-        <v>0.07770109346014498</v>
+        <v>0.04793280815008494</v>
       </c>
     </row>
     <row r="7">
@@ -784,10 +784,10 @@
         <v>0.1651047922720605</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1574737636531398</v>
+        <v>0.1574737636531391</v>
       </c>
       <c r="D7" t="n">
-        <v>0.04252269867737873</v>
+        <v>0.1696327649719593</v>
       </c>
       <c r="E7" t="n">
         <v>0.130952380952381</v>
@@ -799,10 +799,10 @@
         <v>0.02224764941491769</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0146166207959969</v>
+        <v>0.01461662079599629</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1003344441797641</v>
+        <v>0.02677562211481643</v>
       </c>
     </row>
     <row r="8">
@@ -810,13 +810,13 @@
         <v>79.901</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2154550947662716</v>
+        <v>0.2154550947662717</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2077190396678339</v>
+        <v>0.2077190396678332</v>
       </c>
       <c r="D8" t="n">
-        <v>0.06637427209568753</v>
+        <v>0.217849720640087</v>
       </c>
       <c r="E8" t="n">
         <v>0.1547619047619048</v>
@@ -825,13 +825,13 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04878842809960496</v>
+        <v>0.04878842809960501</v>
       </c>
       <c r="H8" t="n">
-        <v>0.04105237300116724</v>
+        <v>0.04105237300116657</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1002923945709791</v>
+        <v>0.05118305397342035</v>
       </c>
     </row>
     <row r="9">
@@ -842,10 +842,10 @@
         <v>0.2204628077419719</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2127406016533091</v>
+        <v>0.2127406016533084</v>
       </c>
       <c r="D9" t="n">
-        <v>0.06900442849587358</v>
+        <v>0.2226584708777131</v>
       </c>
       <c r="E9" t="n">
         <v>0.1785714285714286</v>
@@ -857,10 +857,10 @@
         <v>0.02998661726578139</v>
       </c>
       <c r="H9" t="n">
-        <v>0.02226441117711864</v>
+        <v>0.02226441117711797</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1214717619803169</v>
+        <v>0.03218228040152266</v>
       </c>
     </row>
     <row r="10">
@@ -871,10 +871,10 @@
         <v>0.2240393025701286</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2163293575646535</v>
+        <v>0.2163293575646528</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0709111807863759</v>
+        <v>0.2260945526995485</v>
       </c>
       <c r="E10" t="n">
         <v>0.2023809523809524</v>
@@ -886,10 +886,10 @@
         <v>0.009753588284414333</v>
       </c>
       <c r="H10" t="n">
-        <v>0.002043643278939272</v>
+        <v>0.002043643278938551</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1433745334993384</v>
+        <v>0.01180883841383423</v>
       </c>
     </row>
     <row r="11">
@@ -900,10 +900,10 @@
         <v>0.2273461350712963</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2196492423151352</v>
+        <v>0.2196492423151344</v>
       </c>
       <c r="D11" t="n">
-        <v>0.07269511426853444</v>
+        <v>0.2292728314831313</v>
       </c>
       <c r="E11" t="n">
         <v>0.2261904761904762</v>
@@ -912,13 +912,13 @@
         <v>0.2380952380952381</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01074910302394178</v>
+        <v>0.01074910302394183</v>
       </c>
       <c r="H11" t="n">
-        <v>0.01844599578010286</v>
+        <v>0.01844599578010364</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1654001238267037</v>
+        <v>0.008822406612106787</v>
       </c>
     </row>
     <row r="12">
@@ -929,10 +929,10 @@
         <v>0.2366677541784064</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2290162461357511</v>
+        <v>0.2290162461357502</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0778319289696798</v>
+        <v>0.2382387915516581</v>
       </c>
       <c r="E12" t="n">
         <v>0.25</v>
@@ -944,10 +944,10 @@
         <v>0.02523700772635551</v>
       </c>
       <c r="H12" t="n">
-        <v>0.03288851576901086</v>
+        <v>0.03288851576901169</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1840728329350821</v>
+        <v>0.02366597035310383</v>
       </c>
     </row>
     <row r="13">
@@ -958,10 +958,10 @@
         <v>0.2382543055524297</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2306117501956816</v>
+        <v>0.2306117501956809</v>
       </c>
       <c r="D13" t="n">
-        <v>0.07872208186097428</v>
+        <v>0.2397658135450037</v>
       </c>
       <c r="E13" t="n">
         <v>0.2738095238095238</v>
@@ -973,10 +973,10 @@
         <v>0.04745998016185599</v>
       </c>
       <c r="H13" t="n">
-        <v>0.05510253551860411</v>
+        <v>0.05510253551860483</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2069922038533114</v>
+        <v>0.04594847216928202</v>
       </c>
     </row>
     <row r="14">
@@ -987,10 +987,10 @@
         <v>0.2474260685184582</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2398420010791221</v>
+        <v>0.2398420010791213</v>
       </c>
       <c r="D14" t="n">
-        <v>0.08395819603521537</v>
+        <v>0.2485992784159044</v>
       </c>
       <c r="E14" t="n">
         <v>0.2976190476190476</v>
@@ -1002,10 +1002,10 @@
         <v>0.06209774100535131</v>
       </c>
       <c r="H14" t="n">
-        <v>0.06968180844468741</v>
+        <v>0.06968180844468819</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2255656134885942</v>
+        <v>0.06092453110790516</v>
       </c>
     </row>
     <row r="15">
@@ -1016,10 +1016,10 @@
         <v>0.2474865569492724</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2399029125565237</v>
+        <v>0.2399029125565229</v>
       </c>
       <c r="D15" t="n">
-        <v>0.08399323831673712</v>
+        <v>0.2486575690841458</v>
       </c>
       <c r="E15" t="n">
         <v>0.3214285714285715</v>
@@ -1031,10 +1031,10 @@
         <v>0.08584677638406091</v>
       </c>
       <c r="H15" t="n">
-        <v>0.09343042077680963</v>
+        <v>0.09343042077681046</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2493400950165962</v>
+        <v>0.08467576424918749</v>
       </c>
     </row>
     <row r="16">
@@ -1045,10 +1045,10 @@
         <v>0.2917017270447764</v>
       </c>
       <c r="C16" t="n">
-        <v>0.284545658503076</v>
+        <v>0.2845456585030751</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1113834683785784</v>
+        <v>0.2913865693449568</v>
       </c>
       <c r="E16" t="n">
         <v>0.3452380952380952</v>
@@ -1057,13 +1057,13 @@
         <v>0.3571428571428572</v>
       </c>
       <c r="G16" t="n">
-        <v>0.06544113009808072</v>
+        <v>0.06544113009808078</v>
       </c>
       <c r="H16" t="n">
-        <v>0.07259719863978115</v>
+        <v>0.07259719863978203</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2457593887642787</v>
+        <v>0.06575628779790033</v>
       </c>
     </row>
     <row r="17">
@@ -1074,10 +1074,10 @@
         <v>0.2947225247212408</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2876035609587587</v>
+        <v>0.2876035609587578</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1133834868444351</v>
+        <v>0.2943147318577783</v>
       </c>
       <c r="E17" t="n">
         <v>0.3690476190476191</v>
@@ -1089,10 +1089,10 @@
         <v>0.0862298562311401</v>
       </c>
       <c r="H17" t="n">
-        <v>0.09334881999362221</v>
+        <v>0.0933488199936231</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2675688941079458</v>
+        <v>0.08663764909460259</v>
       </c>
     </row>
     <row r="18">
@@ -1100,13 +1100,13 @@
         <v>87.889</v>
       </c>
       <c r="B18" t="n">
-        <v>0.2963388703683681</v>
+        <v>0.296338870368368</v>
       </c>
       <c r="C18" t="n">
-        <v>0.289240138066074</v>
+        <v>0.2892401380660732</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1144603661184411</v>
+        <v>0.295881981945153</v>
       </c>
       <c r="E18" t="n">
         <v>0.3928571428571428</v>
@@ -1118,10 +1118,10 @@
         <v>0.1084230343935367</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1155217666958308</v>
+        <v>0.1155217666958316</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2903015386434636</v>
+        <v>0.1088799228167518</v>
       </c>
     </row>
     <row r="19">
@@ -1132,10 +1132,10 @@
         <v>0.358722276913348</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3525824291552077</v>
+        <v>0.3525824291552067</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1595804106531374</v>
+        <v>0.3566195899858637</v>
       </c>
       <c r="E19" t="n">
         <v>0.4166666666666667</v>
@@ -1147,10 +1147,10 @@
         <v>0.06984915165808053</v>
       </c>
       <c r="H19" t="n">
-        <v>0.07598899941622089</v>
+        <v>0.07598899941622189</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2689910179182911</v>
+        <v>0.07195183858556481</v>
       </c>
     </row>
     <row r="20">
@@ -1161,10 +1161,10 @@
         <v>0.4189460720623802</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4139921948836415</v>
+        <v>0.4139921948836405</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2096389815118543</v>
+        <v>0.4156985726655633</v>
       </c>
       <c r="E20" t="n">
         <v>0.4404761904761905</v>
@@ -1176,10 +1176,10 @@
         <v>0.03343488031857217</v>
       </c>
       <c r="H20" t="n">
-        <v>0.03838875749731091</v>
+        <v>0.03838875749731191</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2427419708690981</v>
+        <v>0.03668237971538912</v>
       </c>
     </row>
     <row r="21">
@@ -1190,10 +1190,10 @@
         <v>0.4289134727232018</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4241743987264993</v>
+        <v>0.4241743987264983</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2185322573982177</v>
+        <v>0.4255161306387851</v>
       </c>
       <c r="E21" t="n">
         <v>0.4642857142857143</v>
@@ -1205,10 +1205,10 @@
         <v>0.04727700346727431</v>
       </c>
       <c r="H21" t="n">
-        <v>0.05201607746397685</v>
+        <v>0.05201607746397785</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2576582187922585</v>
+        <v>0.05067434555169109</v>
       </c>
     </row>
     <row r="22">
@@ -1219,10 +1219,10 @@
         <v>0.4738477342539273</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4701257915513752</v>
+        <v>0.4701257915513742</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2607463174306888</v>
+        <v>0.4699052871366046</v>
       </c>
       <c r="E22" t="n">
         <v>0.4880952380952381</v>
@@ -1234,10 +1234,10 @@
         <v>0.02615226574607271</v>
       </c>
       <c r="H22" t="n">
-        <v>0.02987420844862476</v>
+        <v>0.02987420844862576</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2392536825693112</v>
+        <v>0.03009471286339538</v>
       </c>
     </row>
     <row r="23">
@@ -1248,10 +1248,10 @@
         <v>0.5321357890372287</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5298154590707826</v>
+        <v>0.5298154590707814</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3206265573264406</v>
+        <v>0.527779730422948</v>
       </c>
       <c r="E23" t="n">
         <v>0.5119047619047619</v>
@@ -1263,10 +1263,10 @@
         <v>0.008326265227704854</v>
       </c>
       <c r="H23" t="n">
-        <v>0.00600593526125881</v>
+        <v>0.006005935261257589</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2031829664830833</v>
+        <v>0.003970206613424176</v>
       </c>
     </row>
     <row r="24">
@@ -1277,10 +1277,10 @@
         <v>0.5761424783854154</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5749070489036998</v>
+        <v>0.5749070489036989</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3696127061080796</v>
+        <v>0.5716689739018975</v>
       </c>
       <c r="E24" t="n">
         <v>0.5357142857142857</v>
@@ -1292,10 +1292,10 @@
         <v>0.02852343076636776</v>
       </c>
       <c r="H24" t="n">
-        <v>0.02728800128465214</v>
+        <v>0.02728800128465125</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1780063415109681</v>
+        <v>0.02404992628284985</v>
       </c>
     </row>
     <row r="25">
@@ -1306,10 +1306,10 @@
         <v>0.5988018038945421</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5981239651740817</v>
+        <v>0.5981239651740808</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3960878437299419</v>
+        <v>0.5943260601635566</v>
       </c>
       <c r="E25" t="n">
         <v>0.5595238095238095</v>
@@ -1321,10 +1321,10 @@
         <v>0.02737323246597068</v>
       </c>
       <c r="H25" t="n">
-        <v>0.02669539374551033</v>
+        <v>0.02669539374550944</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1753407276986295</v>
+        <v>0.02289748873498521</v>
       </c>
     </row>
     <row r="26">
@@ -1332,13 +1332,13 @@
         <v>119.692</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6118046401611391</v>
+        <v>0.6118046401611392</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6114444222451174</v>
+        <v>0.6114444222451164</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4116614962721065</v>
+        <v>0.6073440994525643</v>
       </c>
       <c r="E26" t="n">
         <v>0.5833333333333334</v>
@@ -1347,13 +1347,13 @@
         <v>0.5952380952380952</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01656654492304388</v>
+        <v>0.01656654492304399</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01620632700702218</v>
+        <v>0.01620632700702118</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1835765989659888</v>
+        <v>0.01210600421446906</v>
       </c>
     </row>
     <row r="27">
@@ -1364,10 +1364,10 @@
         <v>0.616345309525232</v>
       </c>
       <c r="C27" t="n">
-        <v>0.6160954206262322</v>
+        <v>0.6160954206262312</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4171651124926196</v>
+        <v>0.6118927913381269</v>
       </c>
       <c r="E27" t="n">
         <v>0.6071428571428571</v>
@@ -1379,10 +1379,10 @@
         <v>0.002702309522387036</v>
       </c>
       <c r="H27" t="n">
-        <v>0.002952198421386831</v>
+        <v>0.002952198421387831</v>
       </c>
       <c r="I27" t="n">
-        <v>0.2018825065549995</v>
+        <v>0.007154827709492162</v>
       </c>
     </row>
     <row r="28">
@@ -1393,10 +1393,10 @@
         <v>0.6205574342744622</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6204095732058192</v>
+        <v>0.6204095732058181</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4223006169666457</v>
+        <v>0.6161135845021297</v>
       </c>
       <c r="E28" t="n">
         <v>0.6309523809523809</v>
@@ -1408,10 +1408,10 @@
         <v>0.02229970858268071</v>
       </c>
       <c r="H28" t="n">
-        <v>0.02244756965132366</v>
+        <v>0.02244756965132477</v>
       </c>
       <c r="I28" t="n">
-        <v>0.2205565258904972</v>
+        <v>0.02674355835501319</v>
       </c>
     </row>
     <row r="29">
@@ -1419,13 +1419,13 @@
         <v>120.866</v>
       </c>
       <c r="B29" t="n">
-        <v>0.6216847826992838</v>
+        <v>0.621684782699284</v>
       </c>
       <c r="C29" t="n">
-        <v>0.6215641732421128</v>
+        <v>0.621564173242112</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4236800127118082</v>
+        <v>0.6172434510279288</v>
       </c>
       <c r="E29" t="n">
         <v>0.6547619047619048</v>
@@ -1434,13 +1434,13 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04498188396738279</v>
+        <v>0.04498188396738267</v>
       </c>
       <c r="H29" t="n">
-        <v>0.04510249342455386</v>
+        <v>0.04510249342455463</v>
       </c>
       <c r="I29" t="n">
-        <v>0.2429866539548585</v>
+        <v>0.04942321563873786</v>
       </c>
     </row>
     <row r="30">
@@ -1451,10 +1451,10 @@
         <v>0.6331177416530361</v>
       </c>
       <c r="C30" t="n">
-        <v>0.6332720344205158</v>
+        <v>0.6332720344205147</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4377860401101186</v>
+        <v>0.6287065844419392</v>
       </c>
       <c r="E30" t="n">
         <v>0.6785714285714286</v>
@@ -1466,10 +1466,10 @@
         <v>0.05735844882315433</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05720415605567464</v>
+        <v>0.05720415605567575</v>
       </c>
       <c r="I30" t="n">
-        <v>0.2526901503660718</v>
+        <v>0.0617696060342513</v>
       </c>
     </row>
     <row r="31">
@@ -1480,10 +1480,10 @@
         <v>0.6624454044936983</v>
       </c>
       <c r="C31" t="n">
-        <v>0.663289521042139</v>
+        <v>0.663289521042138</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4749397589881968</v>
+        <v>0.6581484583299666</v>
       </c>
       <c r="E31" t="n">
         <v>0.7023809523809523</v>
@@ -1495,10 +1495,10 @@
         <v>0.05184030979201604</v>
       </c>
       <c r="H31" t="n">
-        <v>0.05099619324357529</v>
+        <v>0.05099619324357629</v>
       </c>
       <c r="I31" t="n">
-        <v>0.2393459552975175</v>
+        <v>0.0561372559557477</v>
       </c>
     </row>
     <row r="32">
@@ -1509,10 +1509,10 @@
         <v>0.6785462256846684</v>
       </c>
       <c r="C32" t="n">
-        <v>0.6797569374910258</v>
+        <v>0.6797569374910249</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4959264471135255</v>
+        <v>0.6743330450248828</v>
       </c>
       <c r="E32" t="n">
         <v>0.7261904761904762</v>
@@ -1524,10 +1524,10 @@
         <v>0.05954901241056976</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0583383006042123</v>
+        <v>0.05833830060421319</v>
       </c>
       <c r="I32" t="n">
-        <v>0.2421687909817127</v>
+        <v>0.06376219307035536</v>
       </c>
     </row>
     <row r="33">
@@ -1538,10 +1538,10 @@
         <v>0.6888916987738397</v>
       </c>
       <c r="C33" t="n">
-        <v>0.6903323680001329</v>
+        <v>0.690332368000132</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5096304420914597</v>
+        <v>0.6847397022603883</v>
       </c>
       <c r="E33" t="n">
         <v>0.75</v>
@@ -1553,10 +1553,10 @@
         <v>0.07301306313092215</v>
       </c>
       <c r="H33" t="n">
-        <v>0.07157239390462899</v>
+        <v>0.07157239390462988</v>
       </c>
       <c r="I33" t="n">
-        <v>0.2522743198133022</v>
+        <v>0.07716505964437359</v>
       </c>
     </row>
     <row r="34">
@@ -1567,10 +1567,10 @@
         <v>0.6988391408882454</v>
       </c>
       <c r="C34" t="n">
-        <v>0.70049624332451</v>
+        <v>0.7004962433245092</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5229682416705951</v>
+        <v>0.6947511660316068</v>
       </c>
       <c r="E34" t="n">
         <v>0.7738095238095238</v>
@@ -1582,10 +1582,10 @@
         <v>0.08687514482604031</v>
       </c>
       <c r="H34" t="n">
-        <v>0.08521804238977571</v>
+        <v>0.08521804238977648</v>
       </c>
       <c r="I34" t="n">
-        <v>0.2627460440436906</v>
+        <v>0.09096311968267889</v>
       </c>
     </row>
     <row r="35">
@@ -1596,10 +1596,10 @@
         <v>0.7067520182487361</v>
       </c>
       <c r="C35" t="n">
-        <v>0.708577699139011</v>
+        <v>0.70857769913901</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5336904552375852</v>
+        <v>0.7027184795328976</v>
       </c>
       <c r="E35" t="n">
         <v>0.7976190476190477</v>
@@ -1611,10 +1611,10 @@
         <v>0.1027717912750734</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1009461103847985</v>
+        <v>0.1009461103847995</v>
       </c>
       <c r="I35" t="n">
-        <v>0.2758333542862244</v>
+        <v>0.106805329990912</v>
       </c>
     </row>
     <row r="36">
@@ -1625,10 +1625,10 @@
         <v>0.7877546663520549</v>
       </c>
       <c r="C36" t="n">
-        <v>0.7910579671496827</v>
+        <v>0.791057967149682</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6491224068367332</v>
+        <v>0.7844374496666662</v>
       </c>
       <c r="E36" t="n">
         <v>0.8214285714285714</v>
@@ -1640,10 +1640,10 @@
         <v>0.04557866698127844</v>
       </c>
       <c r="H36" t="n">
-        <v>0.04227536618365069</v>
+        <v>0.04227536618365135</v>
       </c>
       <c r="I36" t="n">
-        <v>0.1842109264966002</v>
+        <v>0.04889588366666719</v>
       </c>
     </row>
     <row r="37">
@@ -1654,10 +1654,10 @@
         <v>0.8659708447322163</v>
       </c>
       <c r="C37" t="n">
-        <v>0.8700062222782761</v>
+        <v>0.8700062222782756</v>
       </c>
       <c r="D37" t="n">
-        <v>0.7702498176161161</v>
+        <v>0.8635859112701347</v>
       </c>
       <c r="E37" t="n">
         <v>0.8452380952380952</v>
@@ -1669,10 +1669,10 @@
         <v>0.00882798758935921</v>
       </c>
       <c r="H37" t="n">
-        <v>0.01286336513541897</v>
+        <v>0.01286336513541853</v>
       </c>
       <c r="I37" t="n">
-        <v>0.08689303952674099</v>
+        <v>0.006443054127277636</v>
       </c>
     </row>
     <row r="38">
@@ -1683,10 +1683,10 @@
         <v>0.8901830651801689</v>
       </c>
       <c r="C38" t="n">
-        <v>0.8942157470270049</v>
+        <v>0.8942157470270045</v>
       </c>
       <c r="D38" t="n">
-        <v>0.8096576061010571</v>
+        <v>0.8881379362017058</v>
       </c>
       <c r="E38" t="n">
         <v>0.8690476190476191</v>
@@ -1698,10 +1698,10 @@
         <v>0.009230684227787944</v>
       </c>
       <c r="H38" t="n">
-        <v>0.01326336607462397</v>
+        <v>0.01326336607462353</v>
       </c>
       <c r="I38" t="n">
-        <v>0.07129477485132385</v>
+        <v>0.007185555249324849</v>
       </c>
     </row>
     <row r="39">
@@ -1712,10 +1712,10 @@
         <v>0.913458139722889</v>
       </c>
       <c r="C39" t="n">
-        <v>0.9173353034810199</v>
+        <v>0.9173353034810195</v>
       </c>
       <c r="D39" t="n">
-        <v>0.8484020906211744</v>
+        <v>0.9117712170232588</v>
       </c>
       <c r="E39" t="n">
         <v>0.8928571428571429</v>
@@ -1727,10 +1727,10 @@
         <v>0.008696234960984262</v>
       </c>
       <c r="H39" t="n">
-        <v>0.01257339871911511</v>
+        <v>0.01257339871911478</v>
       </c>
       <c r="I39" t="n">
-        <v>0.05635981414073032</v>
+        <v>0.007009312261354039</v>
       </c>
     </row>
     <row r="40">
@@ -1741,10 +1741,10 @@
         <v>0.9247625945204265</v>
       </c>
       <c r="C40" t="n">
-        <v>0.9284958333822537</v>
+        <v>0.9284958333822534</v>
       </c>
       <c r="D40" t="n">
-        <v>0.8675299197071487</v>
+        <v>0.9232641788286847</v>
       </c>
       <c r="E40" t="n">
         <v>0.9166666666666666</v>
@@ -1756,10 +1756,10 @@
         <v>0.003808834051002075</v>
       </c>
       <c r="H40" t="n">
-        <v>7.559518917488184e-05</v>
+        <v>7.559518917521491e-05</v>
       </c>
       <c r="I40" t="n">
-        <v>0.06104150886427995</v>
+        <v>0.00530724974274388</v>
       </c>
     </row>
     <row r="41">
@@ -1770,10 +1770,10 @@
         <v>0.9714602391574156</v>
       </c>
       <c r="C41" t="n">
-        <v>0.9738532505794389</v>
+        <v>0.9738532505794388</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9488087994715971</v>
+        <v>0.9709082091830805</v>
       </c>
       <c r="E41" t="n">
         <v>0.9404761904761905</v>
@@ -1785,10 +1785,10 @@
         <v>0.01907928677646331</v>
       </c>
       <c r="H41" t="n">
-        <v>0.02147229819848662</v>
+        <v>0.02147229819848651</v>
       </c>
       <c r="I41" t="n">
-        <v>0.003572152909355197</v>
+        <v>0.01852725680212819</v>
       </c>
     </row>
     <row r="42">
@@ -1799,10 +1799,10 @@
         <v>0.9805243881396879</v>
       </c>
       <c r="C42" t="n">
-        <v>0.9824242202613794</v>
+        <v>0.9824242202613793</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9650394793462128</v>
+        <v>0.9802048998047704</v>
       </c>
       <c r="E42" t="n">
         <v>0.9642857142857143</v>
@@ -1814,10 +1814,10 @@
         <v>0.004333911949211733</v>
       </c>
       <c r="H42" t="n">
-        <v>0.006233744070903269</v>
+        <v>0.006233744070903158</v>
       </c>
       <c r="I42" t="n">
-        <v>0.01115099684426335</v>
+        <v>0.004014423614294271</v>
       </c>
     </row>
     <row r="43">
@@ -1831,7 +1831,7 @@
         <v>0.9863681276060511</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9726525267077475</v>
+        <v>0.9845419206370354</v>
       </c>
       <c r="E43" t="n">
         <v>0.9880952380952381</v>
@@ -1846,7 +1846,7 @@
         <v>0.01363187239394892</v>
       </c>
       <c r="I43" t="n">
-        <v>0.02734747329225251</v>
+        <v>0.01545807936296462</v>
       </c>
     </row>
   </sheetData>
@@ -1911,7 +1911,7 @@
         <v>0.008647973303246981</v>
       </c>
       <c r="D2" t="n">
-        <v>0.002250627665240272</v>
+        <v>0.03255436032144853</v>
       </c>
       <c r="E2" t="n">
         <v>0.01063829787234043</v>
@@ -1931,7 +1931,7 @@
         <v>0.05882555545401921</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01620181140707962</v>
+        <v>0.09867116966231379</v>
       </c>
       <c r="E3" t="n">
         <v>0.03191489361702127</v>
@@ -1951,7 +1951,7 @@
         <v>0.1341138410239009</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04430756031642659</v>
+        <v>0.1736339672523425</v>
       </c>
       <c r="E4" t="n">
         <v>0.05319148936170213</v>
@@ -1971,7 +1971,7 @@
         <v>0.142733292181175</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0480306516608922</v>
+        <v>0.181685135105534</v>
       </c>
       <c r="E5" t="n">
         <v>0.07446808510638298</v>
@@ -1991,7 +1991,7 @@
         <v>0.1520522487048782</v>
       </c>
       <c r="D6" t="n">
-        <v>0.05216879515822161</v>
+        <v>0.1903191783153887</v>
       </c>
       <c r="E6" t="n">
         <v>0.09574468085106383</v>
@@ -2011,7 +2011,7 @@
         <v>0.1546523522260774</v>
       </c>
       <c r="D7" t="n">
-        <v>0.05334421649315065</v>
+        <v>0.1927163316175457</v>
       </c>
       <c r="E7" t="n">
         <v>0.1170212765957447</v>
@@ -2031,7 +2031,7 @@
         <v>0.2019315193222429</v>
       </c>
       <c r="D8" t="n">
-        <v>0.07628549945463689</v>
+        <v>0.2356089471363423</v>
       </c>
       <c r="E8" t="n">
         <v>0.1382978723404255</v>
@@ -2051,7 +2051,7 @@
         <v>0.2066460014159929</v>
       </c>
       <c r="D9" t="n">
-        <v>0.07873487882334494</v>
+        <v>0.2398292438928128</v>
       </c>
       <c r="E9" t="n">
         <v>0.1595744680851064</v>
@@ -2071,7 +2071,7 @@
         <v>0.210014502505086</v>
       </c>
       <c r="D10" t="n">
-        <v>0.08050283285301391</v>
+        <v>0.2428397783718882</v>
       </c>
       <c r="E10" t="n">
         <v>0.1808510638297872</v>
@@ -2091,7 +2091,7 @@
         <v>0.2131300951398636</v>
       </c>
       <c r="D11" t="n">
-        <v>0.08215129766217272</v>
+        <v>0.2456208440431495</v>
       </c>
       <c r="E11" t="n">
         <v>0.2021276595744681</v>
@@ -2111,7 +2111,7 @@
         <v>0.2219182424646712</v>
       </c>
       <c r="D12" t="n">
-        <v>0.08686967158685824</v>
+        <v>0.2534487763260921</v>
       </c>
       <c r="E12" t="n">
         <v>0.2234042553191489</v>
@@ -2131,7 +2131,7 @@
         <v>0.2234148307080164</v>
       </c>
       <c r="D13" t="n">
-        <v>0.08768327267462431</v>
+        <v>0.254779544117218</v>
       </c>
       <c r="E13" t="n">
         <v>0.2446808510638298</v>
@@ -2151,7 +2151,7 @@
         <v>0.2320713514120815</v>
       </c>
       <c r="D14" t="n">
-        <v>0.09244679587788401</v>
+        <v>0.2624649027620845</v>
       </c>
       <c r="E14" t="n">
         <v>0.2659574468085106</v>
@@ -2165,13 +2165,13 @@
         <v>83.13500000000001</v>
       </c>
       <c r="B15" t="n">
-        <v>0.2607824823460791</v>
+        <v>0.2607824823460792</v>
       </c>
       <c r="C15" t="n">
         <v>0.232128469330987</v>
       </c>
       <c r="D15" t="n">
-        <v>0.09247855241635777</v>
+        <v>0.2625155477848605</v>
       </c>
       <c r="E15" t="n">
         <v>0.2872340425531915</v>
@@ -2191,7 +2191,7 @@
         <v>0.273980040406938</v>
       </c>
       <c r="D16" t="n">
-        <v>0.116894257697054</v>
+        <v>0.2994443512055663</v>
       </c>
       <c r="E16" t="n">
         <v>0.3085106382978723</v>
@@ -2211,7 +2211,7 @@
         <v>0.2768468781645126</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1186506180671637</v>
+        <v>0.3019636029613038</v>
       </c>
       <c r="E17" t="n">
         <v>0.3297872340425532</v>
@@ -2231,7 +2231,7 @@
         <v>0.2783812510755337</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1195950718392458</v>
+        <v>0.3033115318078559</v>
       </c>
       <c r="E18" t="n">
         <v>0.351063829787234</v>
@@ -2248,10 +2248,10 @@
         <v>0.3478922977144504</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3235742483507528</v>
+        <v>0.3235742483507529</v>
       </c>
       <c r="D19" t="n">
-        <v>0.148800247586484</v>
+        <v>0.3429219516657602</v>
       </c>
       <c r="E19" t="n">
         <v>0.3723404255319149</v>
@@ -2271,7 +2271,7 @@
         <v>0.3378262024089898</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1585695463852686</v>
+        <v>0.355393223252891</v>
       </c>
       <c r="E20" t="n">
         <v>0.3936170212765958</v>
@@ -2291,7 +2291,7 @@
         <v>0.3956598256175535</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2009994128008815</v>
+        <v>0.406029132462583</v>
       </c>
       <c r="E21" t="n">
         <v>0.4148936170212766</v>
@@ -2311,7 +2311,7 @@
         <v>0.4041267711187648</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2075906220304927</v>
+        <v>0.4134559212827211</v>
       </c>
       <c r="E22" t="n">
         <v>0.4361702127659575</v>
@@ -2331,7 +2331,7 @@
         <v>0.4052771216093275</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2084936842928131</v>
+        <v>0.4144653666037426</v>
       </c>
       <c r="E23" t="n">
         <v>0.4574468085106383</v>
@@ -2351,7 +2351,7 @@
         <v>0.4251460282350601</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2243781430226966</v>
+        <v>0.4319183963257927</v>
       </c>
       <c r="E24" t="n">
         <v>0.4787234042553192</v>
@@ -2371,7 +2371,7 @@
         <v>0.4488041729174384</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2440049130026789</v>
+        <v>0.4527517916901403</v>
       </c>
       <c r="E25" t="n">
         <v>0.5</v>
@@ -2391,7 +2391,7 @@
         <v>0.5057134557002478</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2944592690945303</v>
+        <v>0.5031707822818039</v>
       </c>
       <c r="E26" t="n">
         <v>0.5212765957446809</v>
@@ -2411,7 +2411,7 @@
         <v>0.5490463147091303</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3360436453527507</v>
+        <v>0.5419313769618453</v>
       </c>
       <c r="E27" t="n">
         <v>0.5425531914893617</v>
@@ -2431,7 +2431,7 @@
         <v>0.5714930010300717</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3586987332791397</v>
+        <v>0.5621620394143843</v>
       </c>
       <c r="E28" t="n">
         <v>0.5638297872340425</v>
@@ -2451,7 +2451,7 @@
         <v>0.5844175829457535</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3720970184585175</v>
+        <v>0.5738632674109222</v>
       </c>
       <c r="E29" t="n">
         <v>0.5851063829787234</v>
@@ -2471,7 +2471,7 @@
         <v>0.5889386867937221</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3768456958469866</v>
+        <v>0.5779659987843939</v>
       </c>
       <c r="E30" t="n">
         <v>0.6063829787234043</v>
@@ -2491,7 +2491,7 @@
         <v>0.5931363181348163</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3812835501003237</v>
+        <v>0.5817797547086708</v>
       </c>
       <c r="E31" t="n">
         <v>0.6276595744680851</v>
@@ -2511,7 +2511,7 @@
         <v>0.5942603893901224</v>
       </c>
       <c r="D32" t="n">
-        <v>0.3824766959440085</v>
+        <v>0.5828017844900272</v>
       </c>
       <c r="E32" t="n">
         <v>0.648936170212766</v>
@@ -2531,7 +2531,7 @@
         <v>0.6056746767228171</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3947066565152969</v>
+        <v>0.5931983622300852</v>
       </c>
       <c r="E33" t="n">
         <v>0.6702127659574468</v>
@@ -2548,10 +2548,10 @@
         <v>0.633494986614397</v>
       </c>
       <c r="C34" t="n">
-        <v>0.6350802116839612</v>
+        <v>0.6350802116839613</v>
       </c>
       <c r="D34" t="n">
-        <v>0.4271877809010318</v>
+        <v>0.6201453745995651</v>
       </c>
       <c r="E34" t="n">
         <v>0.6914893617021277</v>
@@ -2571,7 +2571,7 @@
         <v>0.6513048276183671</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4457246704198679</v>
+        <v>0.6351216530620438</v>
       </c>
       <c r="E35" t="n">
         <v>0.7127659574468085</v>
@@ -2588,10 +2588,10 @@
         <v>0.6578888628940529</v>
       </c>
       <c r="C36" t="n">
-        <v>0.661761815202753</v>
+        <v>0.6617618152027531</v>
       </c>
       <c r="D36" t="n">
-        <v>0.457909681677546</v>
+        <v>0.644817763588083</v>
       </c>
       <c r="E36" t="n">
         <v>0.7340425531914894</v>
@@ -2611,7 +2611,7 @@
         <v>0.6718409513999472</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4698338741921476</v>
+        <v>0.6541974553128957</v>
       </c>
       <c r="E37" t="n">
         <v>0.7553191489361702</v>
@@ -2628,10 +2628,10 @@
         <v>0.674444341941868</v>
       </c>
       <c r="C38" t="n">
-        <v>0.6798200263440446</v>
+        <v>0.6798200263440445</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4794002986595259</v>
+        <v>0.6616473121694335</v>
       </c>
       <c r="E38" t="n">
         <v>0.776595744680851</v>
@@ -2651,7 +2651,7 @@
         <v>0.6798762327767303</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4794680876687949</v>
+        <v>0.6616998692227934</v>
       </c>
       <c r="E39" t="n">
         <v>0.7978723404255319</v>
@@ -2665,13 +2665,13 @@
         <v>145.328</v>
       </c>
       <c r="B40" t="n">
-        <v>0.7515768552681846</v>
+        <v>0.7515768552681845</v>
       </c>
       <c r="C40" t="n">
         <v>0.7631433910939411</v>
       </c>
       <c r="D40" t="n">
-        <v>0.586392467957342</v>
+        <v>0.7409274303429113</v>
       </c>
       <c r="E40" t="n">
         <v>0.8191489361702128</v>
@@ -2691,7 +2691,7 @@
         <v>0.8457813707196551</v>
       </c>
       <c r="D41" t="n">
-        <v>0.7070534358858468</v>
+        <v>0.8230516660605404</v>
       </c>
       <c r="E41" t="n">
         <v>0.8404255319148937</v>
@@ -2711,7 +2711,7 @@
         <v>0.8719818808477633</v>
       </c>
       <c r="D42" t="n">
-        <v>0.7489630463789788</v>
+        <v>0.850111470752686</v>
       </c>
       <c r="E42" t="n">
         <v>0.8617021276595744</v>
@@ -2731,7 +2731,7 @@
         <v>0.8975448382798568</v>
       </c>
       <c r="D43" t="n">
-        <v>0.7919076611241076</v>
+        <v>0.8771595800647689</v>
       </c>
       <c r="E43" t="n">
         <v>0.8829787234042553</v>
@@ -2751,7 +2751,7 @@
         <v>0.9101224683955472</v>
       </c>
       <c r="D44" t="n">
-        <v>0.8138844564042845</v>
+        <v>0.8907524504592959</v>
       </c>
       <c r="E44" t="n">
         <v>0.9042553191489362</v>
@@ -2771,7 +2771,7 @@
         <v>0.9637582826086037</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9158965398491125</v>
+        <v>0.9518456780472934</v>
       </c>
       <c r="E45" t="n">
         <v>0.925531914893617</v>
@@ -2791,7 +2791,7 @@
         <v>0.9746781025785772</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9390175813147288</v>
+        <v>0.9652703693205085</v>
       </c>
       <c r="E46" t="n">
         <v>0.9468085106382979</v>
@@ -2811,7 +2811,7 @@
         <v>0.9798683770756452</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9504529897195735</v>
+        <v>0.9718564973056025</v>
       </c>
       <c r="E47" t="n">
         <v>0.9680851063829787</v>
@@ -2831,7 +2831,7 @@
         <v>0.9976031575415124</v>
       </c>
       <c r="D48" t="n">
-        <v>0.993279530943031</v>
+        <v>0.996219078751463</v>
       </c>
       <c r="E48" t="n">
         <v>0.9893617021276596</v>
@@ -2914,10 +2914,10 @@
         <v>0.04532667197068628</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03836409679582967</v>
+        <v>0.0383640967958297</v>
       </c>
       <c r="D2" t="n">
-        <v>0.005149284065766067</v>
+        <v>0.05180389068343308</v>
       </c>
       <c r="E2" t="n">
         <v>0.0119047619047619</v>
@@ -2929,10 +2929,10 @@
         <v>0.02151714816116247</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01455457298630586</v>
+        <v>0.01455457298630589</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01866023974375774</v>
+        <v>0.02799436687390927</v>
       </c>
     </row>
     <row r="3">
@@ -2946,7 +2946,7 @@
         <v>0.05811264135190177</v>
       </c>
       <c r="D3" t="n">
-        <v>0.009450329345005384</v>
+        <v>0.07286521811357659</v>
       </c>
       <c r="E3" t="n">
         <v>0.03571428571428571</v>
@@ -2961,7 +2961,7 @@
         <v>0.01049359373285415</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03816871827404223</v>
+        <v>0.02524617049452897</v>
       </c>
     </row>
     <row r="4">
@@ -2972,10 +2972,10 @@
         <v>0.1170442383146548</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1060379755131709</v>
+        <v>0.106037975513171</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02352255845239084</v>
+        <v>0.1216272783189475</v>
       </c>
       <c r="E4" t="n">
         <v>0.05952380952380952</v>
@@ -2987,10 +2987,10 @@
         <v>0.0456156668860834</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03460940408459948</v>
+        <v>0.03460940408459953</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04790601297618059</v>
+        <v>0.05019870689037606</v>
       </c>
     </row>
     <row r="5">
@@ -3001,10 +3001,10 @@
         <v>0.1215376824557723</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1103972762585637</v>
+        <v>0.1103972762585638</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02503862242156779</v>
+        <v>0.125971254649052</v>
       </c>
       <c r="E5" t="n">
         <v>0.08333333333333333</v>
@@ -3016,10 +3016,10 @@
         <v>0.02629958721767706</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01515918102046843</v>
+        <v>0.01515918102046854</v>
       </c>
       <c r="I5" t="n">
-        <v>0.07019947281652744</v>
+        <v>0.03073315941095681</v>
       </c>
     </row>
     <row r="6">
@@ -3030,10 +3030,10 @@
         <v>0.1392886890801395</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1277152932898553</v>
+        <v>0.1277152932898554</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03142977399679556</v>
+        <v>0.1431339375973215</v>
       </c>
       <c r="E6" t="n">
         <v>0.1071428571428571</v>
@@ -3045,10 +3045,10 @@
         <v>0.02024107003252043</v>
       </c>
       <c r="H6" t="n">
-        <v>0.008667674242236273</v>
+        <v>0.008667674242236328</v>
       </c>
       <c r="I6" t="n">
-        <v>0.08761784505082348</v>
+        <v>0.02408631854970247</v>
       </c>
     </row>
     <row r="7">
@@ -3062,7 +3062,7 @@
         <v>0.1302506944650978</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03241411513636291</v>
+        <v>0.1456355246550552</v>
       </c>
       <c r="E7" t="n">
         <v>0.130952380952381</v>
@@ -3074,10 +3074,10 @@
         <v>0.0009819862210175279</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01260644839204506</v>
+        <v>0.012606448392045</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1104430277207799</v>
+        <v>0.002778381797912399</v>
       </c>
     </row>
     <row r="8">
@@ -3091,7 +3091,7 @@
         <v>0.1652977376639957</v>
       </c>
       <c r="D8" t="n">
-        <v>0.04725746932314587</v>
+        <v>0.1799953616643863</v>
       </c>
       <c r="E8" t="n">
         <v>0.1547619047619048</v>
@@ -3106,7 +3106,7 @@
         <v>0.00136892900267091</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1194091973435208</v>
+        <v>0.01332869499771969</v>
       </c>
     </row>
     <row r="9">
@@ -3114,13 +3114,13 @@
         <v>79.901</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1894088382927069</v>
+        <v>0.189408838292707</v>
       </c>
       <c r="C9" t="n">
         <v>0.1773034937306383</v>
       </c>
       <c r="D9" t="n">
-        <v>0.05286072037905183</v>
+        <v>0.1916911375076037</v>
       </c>
       <c r="E9" t="n">
         <v>0.1785714285714286</v>
@@ -3129,13 +3129,13 @@
         <v>0.1904761904761905</v>
       </c>
       <c r="G9" t="n">
-        <v>0.001067352183483528</v>
+        <v>0.001067352183483472</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01317269674555221</v>
+        <v>0.01317269674555216</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1376154700971386</v>
+        <v>0.001214947031413227</v>
       </c>
     </row>
     <row r="10">
@@ -3146,10 +3146,10 @@
         <v>0.1976181584774409</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1855062400867626</v>
+        <v>0.1855062400867627</v>
       </c>
       <c r="D10" t="n">
-        <v>0.05683779473321186</v>
+        <v>0.1996652089397115</v>
       </c>
       <c r="E10" t="n">
         <v>0.2023809523809524</v>
@@ -3161,10 +3161,10 @@
         <v>0.01666755580827337</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02877947419895169</v>
+        <v>0.02877947419895158</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1574479195525024</v>
+        <v>0.01462050534600276</v>
       </c>
     </row>
     <row r="11">
@@ -3178,7 +3178,7 @@
         <v>0.197659134327423</v>
       </c>
       <c r="D11" t="n">
-        <v>0.06294948275732037</v>
+        <v>0.2114573991731399</v>
       </c>
       <c r="E11" t="n">
         <v>0.2261904761904762</v>
@@ -3190,10 +3190,10 @@
         <v>0.02834976465640349</v>
       </c>
       <c r="H11" t="n">
-        <v>0.04043610376781509</v>
+        <v>0.04043610376781503</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1751457553379177</v>
+        <v>0.02663783892209817</v>
       </c>
     </row>
     <row r="12">
@@ -3201,13 +3201,13 @@
         <v>83.129</v>
       </c>
       <c r="B12" t="n">
-        <v>0.2201222857493693</v>
+        <v>0.2201222857493692</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2080891577778649</v>
+        <v>0.208089157777865</v>
       </c>
       <c r="D12" t="n">
-        <v>0.06840148882376811</v>
+        <v>0.2215595351374219</v>
       </c>
       <c r="E12" t="n">
         <v>0.25</v>
@@ -3216,13 +3216,13 @@
         <v>0.2619047619047619</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04178247615539266</v>
+        <v>0.04178247615539271</v>
       </c>
       <c r="H12" t="n">
-        <v>0.05381560412689701</v>
+        <v>0.05381560412689695</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1935032730809938</v>
+        <v>0.04034522676734006</v>
       </c>
     </row>
     <row r="13">
@@ -3236,7 +3236,7 @@
         <v>0.2081479938294423</v>
       </c>
       <c r="D13" t="n">
-        <v>0.06843278152119431</v>
+        <v>0.2216164779448956</v>
       </c>
       <c r="E13" t="n">
         <v>0.2738095238095238</v>
@@ -3245,13 +3245,13 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="G13" t="n">
-        <v>0.06553354175863346</v>
+        <v>0.06553354175863352</v>
       </c>
       <c r="H13" t="n">
         <v>0.07756629188484343</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2172815041930914</v>
+        <v>0.06409780776939011</v>
       </c>
     </row>
     <row r="14">
@@ -3265,7 +3265,7 @@
         <v>0.2547055712978784</v>
       </c>
       <c r="D14" t="n">
-        <v>0.09505546925581394</v>
+        <v>0.2665533931711752</v>
       </c>
       <c r="E14" t="n">
         <v>0.2976190476190476</v>
@@ -3277,10 +3277,10 @@
         <v>0.04332581933786928</v>
       </c>
       <c r="H14" t="n">
-        <v>0.05481823822593118</v>
+        <v>0.05481823822593113</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2144683402679956</v>
+        <v>0.04297041635263432</v>
       </c>
     </row>
     <row r="15">
@@ -3294,7 +3294,7 @@
         <v>0.2563190198611066</v>
       </c>
       <c r="D15" t="n">
-        <v>0.09604384880640364</v>
+        <v>0.2681070669490234</v>
       </c>
       <c r="E15" t="n">
         <v>0.3214285714285715</v>
@@ -3309,7 +3309,7 @@
         <v>0.0770143134722267</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2372894845269297</v>
+        <v>0.06522626638430995</v>
       </c>
     </row>
     <row r="16">
@@ -3323,7 +3323,7 @@
         <v>0.272275423034344</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1060520949416104</v>
+        <v>0.283462364861418</v>
       </c>
       <c r="E16" t="n">
         <v>0.3452380952380952</v>
@@ -3338,7 +3338,7 @@
         <v>0.08486743410851311</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2510907622012467</v>
+        <v>0.07368049228143919</v>
       </c>
     </row>
     <row r="17">
@@ -3352,7 +3352,7 @@
         <v>0.319488115586023</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1381152746866954</v>
+        <v>0.3288147924991571</v>
       </c>
       <c r="E17" t="n">
         <v>0.3690476190476191</v>
@@ -3367,7 +3367,7 @@
         <v>0.06146426536635791</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2428371062656855</v>
+        <v>0.0521375884532238</v>
       </c>
     </row>
     <row r="18">
@@ -3381,7 +3381,7 @@
         <v>0.3322720718746855</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1474179327525842</v>
+        <v>0.3410800528075406</v>
       </c>
       <c r="E18" t="n">
         <v>0.3928571428571428</v>
@@ -3396,7 +3396,7 @@
         <v>0.07248983288721922</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2573439720093205</v>
+        <v>0.06368185195436421</v>
       </c>
     </row>
     <row r="19">
@@ -3407,10 +3407,10 @@
         <v>0.3901761674654039</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3819107160416727</v>
+        <v>0.3819107160416728</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1860001815798042</v>
+        <v>0.3886705579740238</v>
       </c>
       <c r="E19" t="n">
         <v>0.4166666666666667</v>
@@ -3422,10 +3422,10 @@
         <v>0.03839526110602465</v>
       </c>
       <c r="H19" t="n">
-        <v>0.04666071252975584</v>
+        <v>0.04666071252975579</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2425712469916244</v>
+        <v>0.03990087059740471</v>
       </c>
     </row>
     <row r="20">
@@ -3439,7 +3439,7 @@
         <v>0.3923589851210169</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1946143998030467</v>
+        <v>0.3986835951402006</v>
       </c>
       <c r="E20" t="n">
         <v>0.4404761904761905</v>
@@ -3448,13 +3448,13 @@
         <v>0.4523809523809524</v>
       </c>
       <c r="G20" t="n">
-        <v>0.05209899087866443</v>
+        <v>0.05209899087866438</v>
       </c>
       <c r="H20" t="n">
-        <v>0.06002196725993553</v>
+        <v>0.06002196725993547</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2577665525779057</v>
+        <v>0.05369735724075181</v>
       </c>
     </row>
     <row r="21">
@@ -3468,7 +3468,7 @@
         <v>0.3987914740456758</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2000022657269522</v>
+        <v>0.4048478016695009</v>
       </c>
       <c r="E21" t="n">
         <v>0.4642857142857143</v>
@@ -3483,7 +3483,7 @@
         <v>0.07739900214480039</v>
       </c>
       <c r="I21" t="n">
-        <v>0.276188210463524</v>
+        <v>0.07134267452097526</v>
       </c>
     </row>
     <row r="22">
@@ -3497,7 +3497,7 @@
         <v>0.5021535662662</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2952905417743604</v>
+        <v>0.503922480084967</v>
       </c>
       <c r="E22" t="n">
         <v>0.4880952380952381</v>
@@ -3512,7 +3512,7 @@
         <v>0.002153566266200002</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2047094582256396</v>
+        <v>0.003922480084966984</v>
       </c>
     </row>
     <row r="23">
@@ -3526,7 +3526,7 @@
         <v>0.5061883472220433</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2993391450063462</v>
+        <v>0.5077927031268537</v>
       </c>
       <c r="E23" t="n">
         <v>0.5119047619047619</v>
@@ -3541,7 +3541,7 @@
         <v>0.01762117658748052</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2244703788031776</v>
+        <v>0.01601682068267019</v>
       </c>
     </row>
     <row r="24">
@@ -3552,10 +3552,10 @@
         <v>0.5517670863942875</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5496795370978785</v>
+        <v>0.5496795370978784</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3445311220712378</v>
+        <v>0.5495349651818162</v>
       </c>
       <c r="E24" t="n">
         <v>0.5357142857142857</v>
@@ -3567,10 +3567,10 @@
         <v>0.004148038775239837</v>
       </c>
       <c r="H24" t="n">
-        <v>0.002060489478830863</v>
+        <v>0.002060489478830752</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2030879255478099</v>
+        <v>0.001915917562768543</v>
       </c>
     </row>
     <row r="25">
@@ -3584,7 +3584,7 @@
         <v>0.5742775837190234</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3713443936945287</v>
+        <v>0.5731686241779618</v>
       </c>
       <c r="E25" t="n">
         <v>0.5595238095238095</v>
@@ -3599,7 +3599,7 @@
         <v>0.00284901229045198</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2000841777340427</v>
+        <v>0.001740052749390375</v>
       </c>
     </row>
     <row r="26">
@@ -3610,10 +3610,10 @@
         <v>0.5937591835832153</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5933716865863164</v>
+        <v>0.5933716865863163</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3927807710108728</v>
+        <v>0.5915294727193599</v>
       </c>
       <c r="E26" t="n">
         <v>0.5833333333333334</v>
@@ -3625,10 +3625,10 @@
         <v>0.0014789116548799</v>
       </c>
       <c r="H26" t="n">
-        <v>0.001866408651778784</v>
+        <v>0.001866408651778895</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2024573242272224</v>
+        <v>0.003708622518735383</v>
       </c>
     </row>
     <row r="27">
@@ -3639,10 +3639,10 @@
         <v>0.5981722965883877</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5979618742790413</v>
+        <v>0.5979618742790412</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3980151485994688</v>
+        <v>0.5959456244169383</v>
       </c>
       <c r="E27" t="n">
         <v>0.6071428571428571</v>
@@ -3654,10 +3654,10 @@
         <v>0.0208753224592314</v>
       </c>
       <c r="H27" t="n">
-        <v>0.02108574476857772</v>
+        <v>0.02108574476857783</v>
       </c>
       <c r="I27" t="n">
-        <v>0.2210324704481503</v>
+        <v>0.02310199463068074</v>
       </c>
     </row>
     <row r="28">
@@ -3671,7 +3671,7 @@
         <v>0.5991907647586431</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3994218379212686</v>
+        <v>0.5971280774533441</v>
       </c>
       <c r="E28" t="n">
         <v>0.6309523809523809</v>
@@ -3686,7 +3686,7 @@
         <v>0.04366637809849983</v>
       </c>
       <c r="I28" t="n">
-        <v>0.2434353049358743</v>
+        <v>0.04572906540379884</v>
       </c>
     </row>
     <row r="29">
@@ -3700,7 +3700,7 @@
         <v>0.6437100133386293</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4519033974899686</v>
+        <v>0.6400147729330443</v>
       </c>
       <c r="E29" t="n">
         <v>0.6547619047619048</v>
@@ -3715,7 +3715,7 @@
         <v>0.02295665332803731</v>
       </c>
       <c r="I29" t="n">
-        <v>0.2147632691766981</v>
+        <v>0.02665189373362231</v>
       </c>
     </row>
     <row r="30">
@@ -3729,7 +3729,7 @@
         <v>0.6452059137521032</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4537183374745307</v>
+        <v>0.6414576841504545</v>
       </c>
       <c r="E30" t="n">
         <v>0.6785714285714286</v>
@@ -3744,7 +3744,7 @@
         <v>0.04527027672408723</v>
       </c>
       <c r="I30" t="n">
-        <v>0.2367578530016597</v>
+        <v>0.04901850632573601</v>
       </c>
     </row>
     <row r="31">
@@ -3758,7 +3758,7 @@
         <v>0.6613326888173388</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4734979102596529</v>
+        <v>0.6570220214329116</v>
       </c>
       <c r="E31" t="n">
         <v>0.7023809523809523</v>
@@ -3773,7 +3773,7 @@
         <v>0.05295302546837555</v>
       </c>
       <c r="I31" t="n">
-        <v>0.2407878040260614</v>
+        <v>0.05726369285280275</v>
       </c>
     </row>
     <row r="32">
@@ -3787,7 +3787,7 @@
         <v>0.6726636139866308</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4876294558034214</v>
+        <v>0.6679680674945284</v>
       </c>
       <c r="E32" t="n">
         <v>0.7261904761904762</v>
@@ -3802,7 +3802,7 @@
         <v>0.06543162410860737</v>
       </c>
       <c r="I32" t="n">
-        <v>0.2504657822918168</v>
+        <v>0.07012717060070972</v>
       </c>
     </row>
     <row r="33">
@@ -3816,7 +3816,7 @@
         <v>0.6835626973569872</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5014054184775483</v>
+        <v>0.6785056737157698</v>
       </c>
       <c r="E33" t="n">
         <v>0.75</v>
@@ -3831,7 +3831,7 @@
         <v>0.0783420645477747</v>
       </c>
       <c r="I33" t="n">
-        <v>0.2604993434272136</v>
+        <v>0.08339908818899211</v>
       </c>
     </row>
     <row r="34">
@@ -3845,7 +3845,7 @@
         <v>0.692234596971832</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5124949734944281</v>
+        <v>0.6868965203098882</v>
       </c>
       <c r="E34" t="n">
         <v>0.7738095238095238</v>
@@ -3860,7 +3860,7 @@
         <v>0.09347968874245371</v>
       </c>
       <c r="I34" t="n">
-        <v>0.2732193122198576</v>
+        <v>0.09881776540439746</v>
       </c>
     </row>
     <row r="35">
@@ -3874,7 +3874,7 @@
         <v>0.7809354664066331</v>
       </c>
       <c r="D35" t="n">
-        <v>0.6326066981465766</v>
+        <v>0.7731584927080836</v>
       </c>
       <c r="E35" t="n">
         <v>0.7976190476190477</v>
@@ -3889,7 +3889,7 @@
         <v>0.0285883431171764</v>
       </c>
       <c r="I35" t="n">
-        <v>0.176917111377233</v>
+        <v>0.03636531681572597</v>
       </c>
     </row>
     <row r="36">
@@ -3903,7 +3903,7 @@
         <v>0.854610684383508</v>
       </c>
       <c r="D36" t="n">
-        <v>0.7421987446322421</v>
+        <v>0.8457709577737973</v>
       </c>
       <c r="E36" t="n">
         <v>0.8214285714285714</v>
@@ -3918,7 +3918,7 @@
         <v>0.02127735105017459</v>
       </c>
       <c r="I36" t="n">
-        <v>0.09113458870109126</v>
+        <v>0.01243762444046392</v>
       </c>
     </row>
     <row r="37">
@@ -3926,13 +3926,13 @@
         <v>163.282</v>
       </c>
       <c r="B37" t="n">
-        <v>0.8586272343777037</v>
+        <v>0.8586272343777036</v>
       </c>
       <c r="C37" t="n">
         <v>0.8657650181216239</v>
       </c>
       <c r="D37" t="n">
-        <v>0.7596526655848322</v>
+        <v>0.8568888331872431</v>
       </c>
       <c r="E37" t="n">
         <v>0.8452380952380952</v>
@@ -3941,13 +3941,13 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="G37" t="n">
-        <v>0.001484377234846623</v>
+        <v>0.001484377234846512</v>
       </c>
       <c r="H37" t="n">
         <v>0.00862216097876678</v>
       </c>
       <c r="I37" t="n">
-        <v>0.09749019155802485</v>
+        <v>0.0002540239556140245</v>
       </c>
     </row>
     <row r="38">
@@ -3961,7 +3961,7 @@
         <v>0.8916271925727171</v>
       </c>
       <c r="D38" t="n">
-        <v>0.8011010304154271</v>
+        <v>0.8828510479776768</v>
       </c>
       <c r="E38" t="n">
         <v>0.8690476190476191</v>
@@ -3976,7 +3976,7 @@
         <v>0.01067481162033612</v>
       </c>
       <c r="I38" t="n">
-        <v>0.0798513505369538</v>
+        <v>0.001898667025295842</v>
       </c>
     </row>
     <row r="39">
@@ -3987,10 +3987,10 @@
         <v>0.9093774133891683</v>
       </c>
       <c r="C39" t="n">
-        <v>0.9161826338719198</v>
+        <v>0.9161826338719199</v>
       </c>
       <c r="D39" t="n">
-        <v>0.8418607300540362</v>
+        <v>0.9078138498828584</v>
       </c>
       <c r="E39" t="n">
         <v>0.8928571428571429</v>
@@ -4002,10 +4002,10 @@
         <v>0.004615508627263565</v>
       </c>
       <c r="H39" t="n">
-        <v>0.01142072911001502</v>
+        <v>0.01142072911001513</v>
       </c>
       <c r="I39" t="n">
-        <v>0.0629011747078686</v>
+        <v>0.003051945120953636</v>
       </c>
     </row>
     <row r="40">
@@ -4016,10 +4016,10 @@
         <v>0.92143327505439</v>
       </c>
       <c r="C40" t="n">
-        <v>0.9279648136846882</v>
+        <v>0.9279648136846881</v>
       </c>
       <c r="D40" t="n">
-        <v>0.8619755317296339</v>
+        <v>0.9199374980051067</v>
       </c>
       <c r="E40" t="n">
         <v>0.9166666666666666</v>
@@ -4031,10 +4031,10 @@
         <v>0.007138153517038615</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0006066148867404086</v>
+        <v>0.0006066148867405197</v>
       </c>
       <c r="I40" t="n">
-        <v>0.06659589684179468</v>
+        <v>0.00863393056632189</v>
       </c>
     </row>
     <row r="41">
@@ -4045,10 +4045,10 @@
         <v>0.970894911046088</v>
       </c>
       <c r="C41" t="n">
-        <v>0.97495959623665</v>
+        <v>0.9749595962366499</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9471923015811593</v>
+        <v>0.9699781676693158</v>
       </c>
       <c r="E41" t="n">
         <v>0.9404761904761905</v>
@@ -4060,10 +4060,10 @@
         <v>0.01851395866513572</v>
       </c>
       <c r="H41" t="n">
-        <v>0.02257864385569763</v>
+        <v>0.02257864385569752</v>
       </c>
       <c r="I41" t="n">
-        <v>0.005188650799793026</v>
+        <v>0.01759721528836344</v>
       </c>
     </row>
     <row r="42">
@@ -4077,7 +4077,7 @@
         <v>0.9835373561520727</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9640956380056943</v>
+        <v>0.979665939690707</v>
       </c>
       <c r="E42" t="n">
         <v>0.9642857142857143</v>
@@ -4092,7 +4092,7 @@
         <v>0.007346879961596553</v>
       </c>
       <c r="I42" t="n">
-        <v>0.01209483818478185</v>
+        <v>0.003475463500230869</v>
       </c>
     </row>
     <row r="43">
@@ -4103,10 +4103,10 @@
         <v>0.9847284729833029</v>
       </c>
       <c r="C43" t="n">
-        <v>0.9874179059924982</v>
+        <v>0.9874179059924981</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9719963251291137</v>
+        <v>0.9841685038284421</v>
       </c>
       <c r="E43" t="n">
         <v>0.9880952380952381</v>
@@ -4118,10 +4118,10 @@
         <v>0.0152715270166971</v>
       </c>
       <c r="H43" t="n">
-        <v>0.01258209400750177</v>
+        <v>0.01258209400750188</v>
       </c>
       <c r="I43" t="n">
-        <v>0.02800367487088629</v>
+        <v>0.01583149617155788</v>
       </c>
     </row>
   </sheetData>
@@ -4173,10 +4173,10 @@
         <v>174.3558351446289</v>
       </c>
       <c r="C2" t="n">
-        <v>172.8813583483289</v>
+        <v>172.881358348329</v>
       </c>
       <c r="D2" t="n">
-        <v>195.5984215432206</v>
+        <v>94.97054954461646</v>
       </c>
     </row>
     <row r="3">
@@ -4187,10 +4187,10 @@
         <v>258.5530303380551</v>
       </c>
       <c r="C3" t="n">
-        <v>254.0041188816806</v>
+        <v>254.0041188816808</v>
       </c>
       <c r="D3" t="n">
-        <v>279.2946828822788</v>
+        <v>95.03651993429349</v>
       </c>
     </row>
     <row r="4">
@@ -4201,10 +4201,10 @@
         <v>344.8704606412949</v>
       </c>
       <c r="C4" t="n">
-        <v>336.5174331025025</v>
+        <v>336.5174331025028</v>
       </c>
       <c r="D4" t="n">
-        <v>361.4708770555184</v>
+        <v>95.10129218893249</v>
       </c>
     </row>
     <row r="5">
@@ -4215,10 +4215,10 @@
         <v>437.1556615783541</v>
       </c>
       <c r="C5" t="n">
-        <v>424.1974073653096</v>
+        <v>424.19740736531</v>
       </c>
       <c r="D5" t="n">
-        <v>443.5020835828271</v>
+        <v>95.16595016258273</v>
       </c>
     </row>
     <row r="6">
@@ -4233,8 +4233,10 @@
       <c r="C6" t="n">
         <v>774.7162787981323</v>
       </c>
-      <c r="D6" t="n">
-        <v>381.8942269046408</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -4289,7 +4291,7 @@
         <v>180.7147711188758</v>
       </c>
       <c r="D2" t="n">
-        <v>212.8178056693538</v>
+        <v>95.28313411617347</v>
       </c>
     </row>
     <row r="3">
@@ -4303,7 +4305,7 @@
         <v>270.3823956259764</v>
       </c>
       <c r="D3" t="n">
-        <v>310.5555728329663</v>
+        <v>95.33962686340195</v>
       </c>
     </row>
     <row r="4">
@@ -4317,7 +4319,7 @@
         <v>363.0073669766706</v>
       </c>
       <c r="D4" t="n">
-        <v>406.5182550841959</v>
+        <v>95.39509360577912</v>
       </c>
     </row>
     <row r="5">
@@ -4331,7 +4333,7 @@
         <v>462.6212541586591</v>
       </c>
       <c r="D5" t="n">
-        <v>502.3116254862115</v>
+        <v>95.45046248535692</v>
       </c>
     </row>
     <row r="6">
@@ -4346,8 +4348,10 @@
       <c r="C6" t="n">
         <v>417.2155731215644</v>
       </c>
-      <c r="D6" t="n">
-        <v>148.7991376082626</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -4399,10 +4403,10 @@
         <v>176.147146317481</v>
       </c>
       <c r="C2" t="n">
-        <v>173.6438293779424</v>
+        <v>173.6438293779425</v>
       </c>
       <c r="D2" t="n">
-        <v>197.0239945090367</v>
+        <v>97.62441395081817</v>
       </c>
     </row>
     <row r="3">
@@ -4413,10 +4417,10 @@
         <v>258.1170666685379</v>
       </c>
       <c r="C3" t="n">
-        <v>250.7429759414246</v>
+        <v>250.7429759414247</v>
       </c>
       <c r="D3" t="n">
-        <v>279.7002554452764</v>
+        <v>97.69119823584174</v>
       </c>
     </row>
     <row r="4">
@@ -4430,7 +4434,7 @@
         <v>328.0160917679926</v>
       </c>
       <c r="D4" t="n">
-        <v>360.8749741664736</v>
+        <v>97.7567696040966</v>
       </c>
     </row>
     <row r="5">
@@ -4441,10 +4445,10 @@
         <v>429.5454206408473</v>
       </c>
       <c r="C5" t="n">
-        <v>409.1927796756677</v>
+        <v>409.1927796756678</v>
       </c>
       <c r="D5" t="n">
-        <v>441.9064721959011</v>
+        <v>97.82222528144584</v>
       </c>
     </row>
   </sheetData>

--- a/devoir2_results.xlsx
+++ b/devoir2_results.xlsx
@@ -14,6 +14,8 @@
     <sheet name="Return periods Calen 20" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="Return periods Calen 25" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="Return periods Hydro 20" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Kolmogorov-Smirnov" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Chi-squared" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4176,7 +4178,7 @@
         <v>172.881358348329</v>
       </c>
       <c r="D2" t="n">
-        <v>94.97054954461646</v>
+        <v>175.0626101605569</v>
       </c>
     </row>
     <row r="3">
@@ -4190,7 +4192,7 @@
         <v>254.0041188816808</v>
       </c>
       <c r="D3" t="n">
-        <v>95.03651993429349</v>
+        <v>258.758871499615</v>
       </c>
     </row>
     <row r="4">
@@ -4204,7 +4206,7 @@
         <v>336.5174331025028</v>
       </c>
       <c r="D4" t="n">
-        <v>95.10129218893249</v>
+        <v>340.9350656728547</v>
       </c>
     </row>
     <row r="5">
@@ -4218,7 +4220,7 @@
         <v>424.19740736531</v>
       </c>
       <c r="D5" t="n">
-        <v>95.16595016258273</v>
+        <v>422.9662722001634</v>
       </c>
     </row>
     <row r="6">
@@ -4233,10 +4235,8 @@
       <c r="C6" t="n">
         <v>774.7162787981323</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="D6" t="n">
+        <v>679.3351850034544</v>
       </c>
     </row>
   </sheetData>
@@ -4291,7 +4291,7 @@
         <v>180.7147711188758</v>
       </c>
       <c r="D2" t="n">
-        <v>95.28313411617347</v>
+        <v>188.8317091932907</v>
       </c>
     </row>
     <row r="3">
@@ -4305,7 +4305,7 @@
         <v>270.3823956259764</v>
       </c>
       <c r="D3" t="n">
-        <v>95.33962686340195</v>
+        <v>286.5694763569031</v>
       </c>
     </row>
     <row r="4">
@@ -4319,7 +4319,7 @@
         <v>363.0073669766706</v>
       </c>
       <c r="D4" t="n">
-        <v>95.39509360577912</v>
+        <v>382.5321586081328</v>
       </c>
     </row>
     <row r="5">
@@ -4333,7 +4333,7 @@
         <v>462.6212541586591</v>
       </c>
       <c r="D5" t="n">
-        <v>95.45046248535692</v>
+        <v>478.3255290101483</v>
       </c>
     </row>
     <row r="6">
@@ -4348,10 +4348,8 @@
       <c r="C6" t="n">
         <v>417.2155731215644</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="D6" t="n">
+        <v>264.485804983888</v>
       </c>
     </row>
   </sheetData>
@@ -4406,7 +4404,7 @@
         <v>173.6438293779425</v>
       </c>
       <c r="D2" t="n">
-        <v>97.62441395081817</v>
+        <v>176.7388488797245</v>
       </c>
     </row>
     <row r="3">
@@ -4420,7 +4418,7 @@
         <v>250.7429759414247</v>
       </c>
       <c r="D3" t="n">
-        <v>97.69119823584174</v>
+        <v>259.4151098159642</v>
       </c>
     </row>
     <row r="4">
@@ -4434,7 +4432,7 @@
         <v>328.0160917679926</v>
       </c>
       <c r="D4" t="n">
-        <v>97.7567696040966</v>
+        <v>340.5898285371615</v>
       </c>
     </row>
     <row r="5">
@@ -4448,7 +4446,659 @@
         <v>409.1927796756678</v>
       </c>
       <c r="D5" t="n">
-        <v>97.82222528144584</v>
+        <v>421.6213265665889</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>D_max</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>C_alpha</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>alpha</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Calendar 2020</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Lognormal: Moments</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.1084230343935367</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1882500869537521</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Accept H0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Calendar 2020</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Lognormal: MaxLikelihood</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.1155217666958316</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1882500869537521</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Accept H0</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Calendar 2020</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Gumbel</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1088799228167518</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1882500869537521</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Accept H0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Hydrological 2020</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Lognormal: Moments</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.09672734580030384</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1882500869537521</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Accept H0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Hydrological 2020</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Lognormal: MaxLikelihood</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.09347968874245371</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1882500869537521</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Accept H0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Hydrological 2020</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Gumbel</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.09881776540439746</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1882500869537521</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Accept H0</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>k_classes</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Chi2_stat</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>dof</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Critical_value</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>alpha</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Calendar 2020</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Lognormal: Moments</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.539002663778082</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3.841458820694124</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Accept H0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Calendar 2020</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Lognormal: Moments</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.46993198906311</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5.991464547107979</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Accept H0</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Calendar 2020</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Lognormal: MaxLikelihood</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.778731921344894</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3.841458820694124</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Accept H0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Calendar 2020</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Lognormal: MaxLikelihood</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.101257355697612</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5.991464547107979</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Accept H0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Calendar 2020</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gumbel</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.648332938984475</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3.841458820694124</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Accept H0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Calendar 2020</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Gumbel</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.564895208152135</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5.991464547107979</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Accept H0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Hydrological 2020</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Lognormal: Moments</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.674723409782879</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3.841458820694124</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Accept H0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Hydrological 2020</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Lognormal: Moments</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7.254192607344461</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5.991464547107979</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Reject H0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Hydrological 2020</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Lognormal: MaxLikelihood</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2.033592561050211</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3.841458820694124</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Accept H0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Hydrological 2020</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Lognormal: MaxLikelihood</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>7.956985019850496</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5.991464547107979</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Reject H0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Hydrological 2020</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Gumbel</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.76248375215539</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3.841458820694124</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Accept H0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Hydrological 2020</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Gumbel</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>5</v>
+      </c>
+      <c r="D13" t="n">
+        <v>7.388469580311943</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5.991464547107979</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Reject H0</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/devoir2_results.xlsx
+++ b/devoir2_results.xlsx
@@ -502,7 +502,7 @@
         <v>0.3682487299061701</v>
       </c>
       <c r="F2" t="n">
-        <v>4.680675833021208</v>
+        <v>4.680675833021207</v>
       </c>
       <c r="G2" t="n">
         <v>0.02807511186126986</v>
@@ -555,7 +555,7 @@
         <v>4.702642173211798</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3516687104736786</v>
+        <v>0.3516687104736785</v>
       </c>
       <c r="F4" t="n">
         <v>4.706324657274862</v>
@@ -641,7 +641,7 @@
         <v>0.008936958889347892</v>
       </c>
       <c r="C2" t="n">
-        <v>0.007487614647643662</v>
+        <v>0.007487614647643717</v>
       </c>
       <c r="D2" t="n">
         <v>0.01541104524643576</v>
@@ -656,7 +656,7 @@
         <v>0.01487256492017592</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01632190916188015</v>
+        <v>0.01632190916188009</v>
       </c>
       <c r="I2" t="n">
         <v>0.008398478563088048</v>
@@ -670,7 +670,7 @@
         <v>0.06250023432670739</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05719022568203825</v>
+        <v>0.05719022568203853</v>
       </c>
       <c r="D3" t="n">
         <v>0.07118975250554996</v>
@@ -685,7 +685,7 @@
         <v>0.01488118670765977</v>
       </c>
       <c r="H3" t="n">
-        <v>0.009571178062990633</v>
+        <v>0.009571178062990911</v>
       </c>
       <c r="I3" t="n">
         <v>0.02357070488650234</v>
@@ -699,7 +699,7 @@
         <v>0.1431643623253325</v>
       </c>
       <c r="C4" t="n">
-        <v>0.135744698891064</v>
+        <v>0.1357446988910646</v>
       </c>
       <c r="D4" t="n">
         <v>0.1486735517909558</v>
@@ -714,7 +714,7 @@
         <v>0.0717357908967611</v>
       </c>
       <c r="H4" t="n">
-        <v>0.06431612746249257</v>
+        <v>0.06431612746249313</v>
       </c>
       <c r="I4" t="n">
         <v>0.07724498036238436</v>
@@ -728,7 +728,7 @@
         <v>0.1523767148425946</v>
       </c>
       <c r="C5" t="n">
-        <v>0.144854143183182</v>
+        <v>0.1448541431831825</v>
       </c>
       <c r="D5" t="n">
         <v>0.157472160520419</v>
@@ -743,7 +743,7 @@
         <v>0.0571386196044994</v>
       </c>
       <c r="H5" t="n">
-        <v>0.04961604794508673</v>
+        <v>0.04961604794508728</v>
       </c>
       <c r="I5" t="n">
         <v>0.06223406528232378</v>
@@ -757,7 +757,7 @@
         <v>0.1623293156293571</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1547187596300518</v>
+        <v>0.1547187596300525</v>
       </c>
       <c r="D6" t="n">
         <v>0.166980427197704</v>
@@ -772,7 +772,7 @@
         <v>0.04328169658173806</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03567114058243279</v>
+        <v>0.03567114058243345</v>
       </c>
       <c r="I6" t="n">
         <v>0.04793280815008494</v>
@@ -786,7 +786,7 @@
         <v>0.1651047922720605</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1574737636531391</v>
+        <v>0.1574737636531398</v>
       </c>
       <c r="D7" t="n">
         <v>0.1696327649719593</v>
@@ -801,7 +801,7 @@
         <v>0.02224764941491769</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01461662079599629</v>
+        <v>0.0146166207959969</v>
       </c>
       <c r="I7" t="n">
         <v>0.02677562211481643</v>
@@ -812,10 +812,10 @@
         <v>79.901</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2154550947662717</v>
+        <v>0.2154550947662716</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2077190396678332</v>
+        <v>0.2077190396678339</v>
       </c>
       <c r="D8" t="n">
         <v>0.217849720640087</v>
@@ -827,10 +827,10 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04878842809960501</v>
+        <v>0.04878842809960496</v>
       </c>
       <c r="H8" t="n">
-        <v>0.04105237300116657</v>
+        <v>0.04105237300116724</v>
       </c>
       <c r="I8" t="n">
         <v>0.05118305397342035</v>
@@ -844,7 +844,7 @@
         <v>0.2204628077419719</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2127406016533084</v>
+        <v>0.2127406016533091</v>
       </c>
       <c r="D9" t="n">
         <v>0.2226584708777131</v>
@@ -859,7 +859,7 @@
         <v>0.02998661726578139</v>
       </c>
       <c r="H9" t="n">
-        <v>0.02226441117711797</v>
+        <v>0.02226441117711864</v>
       </c>
       <c r="I9" t="n">
         <v>0.03218228040152266</v>
@@ -873,7 +873,7 @@
         <v>0.2240393025701286</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2163293575646528</v>
+        <v>0.2163293575646535</v>
       </c>
       <c r="D10" t="n">
         <v>0.2260945526995485</v>
@@ -888,7 +888,7 @@
         <v>0.009753588284414333</v>
       </c>
       <c r="H10" t="n">
-        <v>0.002043643278938551</v>
+        <v>0.002043643278939272</v>
       </c>
       <c r="I10" t="n">
         <v>0.01180883841383423</v>
@@ -902,7 +902,7 @@
         <v>0.2273461350712963</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2196492423151344</v>
+        <v>0.2196492423151352</v>
       </c>
       <c r="D11" t="n">
         <v>0.2292728314831313</v>
@@ -914,10 +914,10 @@
         <v>0.2380952380952381</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01074910302394183</v>
+        <v>0.01074910302394178</v>
       </c>
       <c r="H11" t="n">
-        <v>0.01844599578010364</v>
+        <v>0.01844599578010286</v>
       </c>
       <c r="I11" t="n">
         <v>0.008822406612106787</v>
@@ -931,7 +931,7 @@
         <v>0.2366677541784064</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2290162461357502</v>
+        <v>0.2290162461357511</v>
       </c>
       <c r="D12" t="n">
         <v>0.2382387915516581</v>
@@ -946,7 +946,7 @@
         <v>0.02523700772635551</v>
       </c>
       <c r="H12" t="n">
-        <v>0.03288851576901169</v>
+        <v>0.03288851576901086</v>
       </c>
       <c r="I12" t="n">
         <v>0.02366597035310383</v>
@@ -960,7 +960,7 @@
         <v>0.2382543055524297</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2306117501956809</v>
+        <v>0.2306117501956816</v>
       </c>
       <c r="D13" t="n">
         <v>0.2397658135450037</v>
@@ -975,7 +975,7 @@
         <v>0.04745998016185599</v>
       </c>
       <c r="H13" t="n">
-        <v>0.05510253551860483</v>
+        <v>0.05510253551860411</v>
       </c>
       <c r="I13" t="n">
         <v>0.04594847216928202</v>
@@ -989,7 +989,7 @@
         <v>0.2474260685184582</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2398420010791213</v>
+        <v>0.2398420010791221</v>
       </c>
       <c r="D14" t="n">
         <v>0.2485992784159044</v>
@@ -1004,7 +1004,7 @@
         <v>0.06209774100535131</v>
       </c>
       <c r="H14" t="n">
-        <v>0.06968180844468819</v>
+        <v>0.06968180844468741</v>
       </c>
       <c r="I14" t="n">
         <v>0.06092453110790516</v>
@@ -1018,7 +1018,7 @@
         <v>0.2474865569492724</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2399029125565229</v>
+        <v>0.2399029125565237</v>
       </c>
       <c r="D15" t="n">
         <v>0.2486575690841458</v>
@@ -1033,7 +1033,7 @@
         <v>0.08584677638406091</v>
       </c>
       <c r="H15" t="n">
-        <v>0.09343042077681046</v>
+        <v>0.09343042077680963</v>
       </c>
       <c r="I15" t="n">
         <v>0.08467576424918749</v>
@@ -1047,7 +1047,7 @@
         <v>0.2917017270447764</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2845456585030751</v>
+        <v>0.284545658503076</v>
       </c>
       <c r="D16" t="n">
         <v>0.2913865693449568</v>
@@ -1059,10 +1059,10 @@
         <v>0.3571428571428572</v>
       </c>
       <c r="G16" t="n">
-        <v>0.06544113009808078</v>
+        <v>0.06544113009808072</v>
       </c>
       <c r="H16" t="n">
-        <v>0.07259719863978203</v>
+        <v>0.07259719863978115</v>
       </c>
       <c r="I16" t="n">
         <v>0.06575628779790033</v>
@@ -1076,7 +1076,7 @@
         <v>0.2947225247212408</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2876035609587578</v>
+        <v>0.2876035609587587</v>
       </c>
       <c r="D17" t="n">
         <v>0.2943147318577783</v>
@@ -1091,7 +1091,7 @@
         <v>0.0862298562311401</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0933488199936231</v>
+        <v>0.09334881999362221</v>
       </c>
       <c r="I17" t="n">
         <v>0.08663764909460259</v>
@@ -1102,10 +1102,10 @@
         <v>87.889</v>
       </c>
       <c r="B18" t="n">
-        <v>0.296338870368368</v>
+        <v>0.2963388703683681</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2892401380660732</v>
+        <v>0.289240138066074</v>
       </c>
       <c r="D18" t="n">
         <v>0.295881981945153</v>
@@ -1120,7 +1120,7 @@
         <v>0.1084230343935367</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1155217666958316</v>
+        <v>0.1155217666958308</v>
       </c>
       <c r="I18" t="n">
         <v>0.1088799228167518</v>
@@ -1134,7 +1134,7 @@
         <v>0.358722276913348</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3525824291552067</v>
+        <v>0.3525824291552077</v>
       </c>
       <c r="D19" t="n">
         <v>0.3566195899858637</v>
@@ -1149,7 +1149,7 @@
         <v>0.06984915165808053</v>
       </c>
       <c r="H19" t="n">
-        <v>0.07598899941622189</v>
+        <v>0.07598899941622089</v>
       </c>
       <c r="I19" t="n">
         <v>0.07195183858556481</v>
@@ -1163,7 +1163,7 @@
         <v>0.4189460720623802</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4139921948836405</v>
+        <v>0.4139921948836415</v>
       </c>
       <c r="D20" t="n">
         <v>0.4156985726655633</v>
@@ -1178,7 +1178,7 @@
         <v>0.03343488031857217</v>
       </c>
       <c r="H20" t="n">
-        <v>0.03838875749731191</v>
+        <v>0.03838875749731091</v>
       </c>
       <c r="I20" t="n">
         <v>0.03668237971538912</v>
@@ -1192,7 +1192,7 @@
         <v>0.4289134727232018</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4241743987264983</v>
+        <v>0.4241743987264993</v>
       </c>
       <c r="D21" t="n">
         <v>0.4255161306387851</v>
@@ -1207,7 +1207,7 @@
         <v>0.04727700346727431</v>
       </c>
       <c r="H21" t="n">
-        <v>0.05201607746397785</v>
+        <v>0.05201607746397685</v>
       </c>
       <c r="I21" t="n">
         <v>0.05067434555169109</v>
@@ -1221,7 +1221,7 @@
         <v>0.4738477342539273</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4701257915513742</v>
+        <v>0.4701257915513752</v>
       </c>
       <c r="D22" t="n">
         <v>0.4699052871366046</v>
@@ -1236,7 +1236,7 @@
         <v>0.02615226574607271</v>
       </c>
       <c r="H22" t="n">
-        <v>0.02987420844862576</v>
+        <v>0.02987420844862476</v>
       </c>
       <c r="I22" t="n">
         <v>0.03009471286339538</v>
@@ -1250,7 +1250,7 @@
         <v>0.5321357890372287</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5298154590707814</v>
+        <v>0.5298154590707826</v>
       </c>
       <c r="D23" t="n">
         <v>0.527779730422948</v>
@@ -1265,7 +1265,7 @@
         <v>0.008326265227704854</v>
       </c>
       <c r="H23" t="n">
-        <v>0.006005935261257589</v>
+        <v>0.00600593526125881</v>
       </c>
       <c r="I23" t="n">
         <v>0.003970206613424176</v>
@@ -1279,7 +1279,7 @@
         <v>0.5761424783854154</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5749070489036989</v>
+        <v>0.5749070489036998</v>
       </c>
       <c r="D24" t="n">
         <v>0.5716689739018975</v>
@@ -1294,7 +1294,7 @@
         <v>0.02852343076636776</v>
       </c>
       <c r="H24" t="n">
-        <v>0.02728800128465125</v>
+        <v>0.02728800128465214</v>
       </c>
       <c r="I24" t="n">
         <v>0.02404992628284985</v>
@@ -1308,7 +1308,7 @@
         <v>0.5988018038945421</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5981239651740808</v>
+        <v>0.5981239651740817</v>
       </c>
       <c r="D25" t="n">
         <v>0.5943260601635566</v>
@@ -1323,7 +1323,7 @@
         <v>0.02737323246597068</v>
       </c>
       <c r="H25" t="n">
-        <v>0.02669539374550944</v>
+        <v>0.02669539374551033</v>
       </c>
       <c r="I25" t="n">
         <v>0.02289748873498521</v>
@@ -1334,10 +1334,10 @@
         <v>119.692</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6118046401611392</v>
+        <v>0.6118046401611391</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6114444222451164</v>
+        <v>0.6114444222451174</v>
       </c>
       <c r="D26" t="n">
         <v>0.6073440994525643</v>
@@ -1349,10 +1349,10 @@
         <v>0.5952380952380952</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01656654492304399</v>
+        <v>0.01656654492304388</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01620632700702118</v>
+        <v>0.01620632700702218</v>
       </c>
       <c r="I26" t="n">
         <v>0.01210600421446906</v>
@@ -1366,7 +1366,7 @@
         <v>0.616345309525232</v>
       </c>
       <c r="C27" t="n">
-        <v>0.6160954206262312</v>
+        <v>0.6160954206262322</v>
       </c>
       <c r="D27" t="n">
         <v>0.6118927913381269</v>
@@ -1381,7 +1381,7 @@
         <v>0.002702309522387036</v>
       </c>
       <c r="H27" t="n">
-        <v>0.002952198421387831</v>
+        <v>0.002952198421386831</v>
       </c>
       <c r="I27" t="n">
         <v>0.007154827709492162</v>
@@ -1395,7 +1395,7 @@
         <v>0.6205574342744622</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6204095732058181</v>
+        <v>0.6204095732058192</v>
       </c>
       <c r="D28" t="n">
         <v>0.6161135845021297</v>
@@ -1410,7 +1410,7 @@
         <v>0.02229970858268071</v>
       </c>
       <c r="H28" t="n">
-        <v>0.02244756965132477</v>
+        <v>0.02244756965132366</v>
       </c>
       <c r="I28" t="n">
         <v>0.02674355835501319</v>
@@ -1421,10 +1421,10 @@
         <v>120.866</v>
       </c>
       <c r="B29" t="n">
-        <v>0.621684782699284</v>
+        <v>0.6216847826992838</v>
       </c>
       <c r="C29" t="n">
-        <v>0.621564173242112</v>
+        <v>0.6215641732421128</v>
       </c>
       <c r="D29" t="n">
         <v>0.6172434510279288</v>
@@ -1436,10 +1436,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04498188396738267</v>
+        <v>0.04498188396738279</v>
       </c>
       <c r="H29" t="n">
-        <v>0.04510249342455463</v>
+        <v>0.04510249342455386</v>
       </c>
       <c r="I29" t="n">
         <v>0.04942321563873786</v>
@@ -1453,7 +1453,7 @@
         <v>0.6331177416530361</v>
       </c>
       <c r="C30" t="n">
-        <v>0.6332720344205147</v>
+        <v>0.6332720344205158</v>
       </c>
       <c r="D30" t="n">
         <v>0.6287065844419392</v>
@@ -1468,7 +1468,7 @@
         <v>0.05735844882315433</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05720415605567575</v>
+        <v>0.05720415605567464</v>
       </c>
       <c r="I30" t="n">
         <v>0.0617696060342513</v>
@@ -1482,7 +1482,7 @@
         <v>0.6624454044936983</v>
       </c>
       <c r="C31" t="n">
-        <v>0.663289521042138</v>
+        <v>0.663289521042139</v>
       </c>
       <c r="D31" t="n">
         <v>0.6581484583299666</v>
@@ -1497,7 +1497,7 @@
         <v>0.05184030979201604</v>
       </c>
       <c r="H31" t="n">
-        <v>0.05099619324357629</v>
+        <v>0.05099619324357529</v>
       </c>
       <c r="I31" t="n">
         <v>0.0561372559557477</v>
@@ -1511,7 +1511,7 @@
         <v>0.6785462256846684</v>
       </c>
       <c r="C32" t="n">
-        <v>0.6797569374910249</v>
+        <v>0.6797569374910258</v>
       </c>
       <c r="D32" t="n">
         <v>0.6743330450248828</v>
@@ -1526,7 +1526,7 @@
         <v>0.05954901241056976</v>
       </c>
       <c r="H32" t="n">
-        <v>0.05833830060421319</v>
+        <v>0.0583383006042123</v>
       </c>
       <c r="I32" t="n">
         <v>0.06376219307035536</v>
@@ -1540,7 +1540,7 @@
         <v>0.6888916987738397</v>
       </c>
       <c r="C33" t="n">
-        <v>0.690332368000132</v>
+        <v>0.6903323680001329</v>
       </c>
       <c r="D33" t="n">
         <v>0.6847397022603883</v>
@@ -1555,7 +1555,7 @@
         <v>0.07301306313092215</v>
       </c>
       <c r="H33" t="n">
-        <v>0.07157239390462988</v>
+        <v>0.07157239390462899</v>
       </c>
       <c r="I33" t="n">
         <v>0.07716505964437359</v>
@@ -1569,7 +1569,7 @@
         <v>0.6988391408882454</v>
       </c>
       <c r="C34" t="n">
-        <v>0.7004962433245092</v>
+        <v>0.70049624332451</v>
       </c>
       <c r="D34" t="n">
         <v>0.6947511660316068</v>
@@ -1584,7 +1584,7 @@
         <v>0.08687514482604031</v>
       </c>
       <c r="H34" t="n">
-        <v>0.08521804238977648</v>
+        <v>0.08521804238977571</v>
       </c>
       <c r="I34" t="n">
         <v>0.09096311968267889</v>
@@ -1598,7 +1598,7 @@
         <v>0.7067520182487361</v>
       </c>
       <c r="C35" t="n">
-        <v>0.70857769913901</v>
+        <v>0.708577699139011</v>
       </c>
       <c r="D35" t="n">
         <v>0.7027184795328976</v>
@@ -1613,7 +1613,7 @@
         <v>0.1027717912750734</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1009461103847995</v>
+        <v>0.1009461103847985</v>
       </c>
       <c r="I35" t="n">
         <v>0.106805329990912</v>
@@ -1627,7 +1627,7 @@
         <v>0.7877546663520549</v>
       </c>
       <c r="C36" t="n">
-        <v>0.791057967149682</v>
+        <v>0.7910579671496827</v>
       </c>
       <c r="D36" t="n">
         <v>0.7844374496666662</v>
@@ -1642,7 +1642,7 @@
         <v>0.04557866698127844</v>
       </c>
       <c r="H36" t="n">
-        <v>0.04227536618365135</v>
+        <v>0.04227536618365069</v>
       </c>
       <c r="I36" t="n">
         <v>0.04889588366666719</v>
@@ -1656,7 +1656,7 @@
         <v>0.8659708447322163</v>
       </c>
       <c r="C37" t="n">
-        <v>0.8700062222782756</v>
+        <v>0.8700062222782761</v>
       </c>
       <c r="D37" t="n">
         <v>0.8635859112701347</v>
@@ -1671,7 +1671,7 @@
         <v>0.00882798758935921</v>
       </c>
       <c r="H37" t="n">
-        <v>0.01286336513541853</v>
+        <v>0.01286336513541897</v>
       </c>
       <c r="I37" t="n">
         <v>0.006443054127277636</v>
@@ -1685,7 +1685,7 @@
         <v>0.8901830651801689</v>
       </c>
       <c r="C38" t="n">
-        <v>0.8942157470270045</v>
+        <v>0.8942157470270049</v>
       </c>
       <c r="D38" t="n">
         <v>0.8881379362017058</v>
@@ -1700,7 +1700,7 @@
         <v>0.009230684227787944</v>
       </c>
       <c r="H38" t="n">
-        <v>0.01326336607462353</v>
+        <v>0.01326336607462397</v>
       </c>
       <c r="I38" t="n">
         <v>0.007185555249324849</v>
@@ -1714,7 +1714,7 @@
         <v>0.913458139722889</v>
       </c>
       <c r="C39" t="n">
-        <v>0.9173353034810195</v>
+        <v>0.9173353034810199</v>
       </c>
       <c r="D39" t="n">
         <v>0.9117712170232588</v>
@@ -1729,7 +1729,7 @@
         <v>0.008696234960984262</v>
       </c>
       <c r="H39" t="n">
-        <v>0.01257339871911478</v>
+        <v>0.01257339871911511</v>
       </c>
       <c r="I39" t="n">
         <v>0.007009312261354039</v>
@@ -1743,7 +1743,7 @@
         <v>0.9247625945204265</v>
       </c>
       <c r="C40" t="n">
-        <v>0.9284958333822534</v>
+        <v>0.9284958333822537</v>
       </c>
       <c r="D40" t="n">
         <v>0.9232641788286847</v>
@@ -1758,7 +1758,7 @@
         <v>0.003808834051002075</v>
       </c>
       <c r="H40" t="n">
-        <v>7.559518917521491e-05</v>
+        <v>7.559518917488184e-05</v>
       </c>
       <c r="I40" t="n">
         <v>0.00530724974274388</v>
@@ -1772,7 +1772,7 @@
         <v>0.9714602391574156</v>
       </c>
       <c r="C41" t="n">
-        <v>0.9738532505794388</v>
+        <v>0.9738532505794389</v>
       </c>
       <c r="D41" t="n">
         <v>0.9709082091830805</v>
@@ -1787,7 +1787,7 @@
         <v>0.01907928677646331</v>
       </c>
       <c r="H41" t="n">
-        <v>0.02147229819848651</v>
+        <v>0.02147229819848662</v>
       </c>
       <c r="I41" t="n">
         <v>0.01852725680212819</v>
@@ -1801,10 +1801,10 @@
         <v>0.9805243881396879</v>
       </c>
       <c r="C42" t="n">
-        <v>0.9824242202613793</v>
+        <v>0.9824242202613794</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9802048998047704</v>
+        <v>0.9802048998047703</v>
       </c>
       <c r="E42" t="n">
         <v>0.9642857142857143</v>
@@ -1816,10 +1816,10 @@
         <v>0.004333911949211733</v>
       </c>
       <c r="H42" t="n">
-        <v>0.006233744070903158</v>
+        <v>0.006233744070903269</v>
       </c>
       <c r="I42" t="n">
-        <v>0.004014423614294271</v>
+        <v>0.00401442361429416</v>
       </c>
     </row>
     <row r="43">
@@ -2167,7 +2167,7 @@
         <v>83.13500000000001</v>
       </c>
       <c r="B15" t="n">
-        <v>0.2607824823460792</v>
+        <v>0.2607824823460791</v>
       </c>
       <c r="C15" t="n">
         <v>0.232128469330987</v>
@@ -2250,7 +2250,7 @@
         <v>0.3478922977144504</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3235742483507529</v>
+        <v>0.3235742483507528</v>
       </c>
       <c r="D19" t="n">
         <v>0.3429219516657602</v>
@@ -2550,7 +2550,7 @@
         <v>0.633494986614397</v>
       </c>
       <c r="C34" t="n">
-        <v>0.6350802116839613</v>
+        <v>0.6350802116839612</v>
       </c>
       <c r="D34" t="n">
         <v>0.6201453745995651</v>
@@ -2590,7 +2590,7 @@
         <v>0.6578888628940529</v>
       </c>
       <c r="C36" t="n">
-        <v>0.6617618152027531</v>
+        <v>0.661761815202753</v>
       </c>
       <c r="D36" t="n">
         <v>0.644817763588083</v>
@@ -2630,7 +2630,7 @@
         <v>0.674444341941868</v>
       </c>
       <c r="C38" t="n">
-        <v>0.6798200263440445</v>
+        <v>0.6798200263440446</v>
       </c>
       <c r="D38" t="n">
         <v>0.6616473121694335</v>
@@ -2667,7 +2667,7 @@
         <v>145.328</v>
       </c>
       <c r="B40" t="n">
-        <v>0.7515768552681845</v>
+        <v>0.7515768552681846</v>
       </c>
       <c r="C40" t="n">
         <v>0.7631433910939411</v>
@@ -2916,7 +2916,7 @@
         <v>0.04532667197068628</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0383640967958297</v>
+        <v>0.03836409679582967</v>
       </c>
       <c r="D2" t="n">
         <v>0.05180389068343308</v>
@@ -2931,7 +2931,7 @@
         <v>0.02151714816116247</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01455457298630589</v>
+        <v>0.01455457298630586</v>
       </c>
       <c r="I2" t="n">
         <v>0.02799436687390927</v>
@@ -2974,7 +2974,7 @@
         <v>0.1170442383146548</v>
       </c>
       <c r="C4" t="n">
-        <v>0.106037975513171</v>
+        <v>0.1060379755131709</v>
       </c>
       <c r="D4" t="n">
         <v>0.1216272783189475</v>
@@ -2989,7 +2989,7 @@
         <v>0.0456156668860834</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03460940408459953</v>
+        <v>0.03460940408459948</v>
       </c>
       <c r="I4" t="n">
         <v>0.05019870689037606</v>
@@ -3003,7 +3003,7 @@
         <v>0.1215376824557723</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1103972762585638</v>
+        <v>0.1103972762585637</v>
       </c>
       <c r="D5" t="n">
         <v>0.125971254649052</v>
@@ -3018,7 +3018,7 @@
         <v>0.02629958721767706</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01515918102046854</v>
+        <v>0.01515918102046843</v>
       </c>
       <c r="I5" t="n">
         <v>0.03073315941095681</v>
@@ -3032,7 +3032,7 @@
         <v>0.1392886890801395</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1277152932898554</v>
+        <v>0.1277152932898553</v>
       </c>
       <c r="D6" t="n">
         <v>0.1431339375973215</v>
@@ -3047,7 +3047,7 @@
         <v>0.02024107003252043</v>
       </c>
       <c r="H6" t="n">
-        <v>0.008667674242236328</v>
+        <v>0.008667674242236273</v>
       </c>
       <c r="I6" t="n">
         <v>0.02408631854970247</v>
@@ -3076,7 +3076,7 @@
         <v>0.0009819862210175279</v>
       </c>
       <c r="H7" t="n">
-        <v>0.012606448392045</v>
+        <v>0.01260644839204506</v>
       </c>
       <c r="I7" t="n">
         <v>0.002778381797912399</v>
@@ -3116,7 +3116,7 @@
         <v>79.901</v>
       </c>
       <c r="B9" t="n">
-        <v>0.189408838292707</v>
+        <v>0.1894088382927069</v>
       </c>
       <c r="C9" t="n">
         <v>0.1773034937306383</v>
@@ -3131,10 +3131,10 @@
         <v>0.1904761904761905</v>
       </c>
       <c r="G9" t="n">
-        <v>0.001067352183483472</v>
+        <v>0.001067352183483528</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01317269674555216</v>
+        <v>0.01317269674555221</v>
       </c>
       <c r="I9" t="n">
         <v>0.001214947031413227</v>
@@ -3148,7 +3148,7 @@
         <v>0.1976181584774409</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1855062400867627</v>
+        <v>0.1855062400867626</v>
       </c>
       <c r="D10" t="n">
         <v>0.1996652089397115</v>
@@ -3163,7 +3163,7 @@
         <v>0.01666755580827337</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02877947419895158</v>
+        <v>0.02877947419895169</v>
       </c>
       <c r="I10" t="n">
         <v>0.01462050534600276</v>
@@ -3192,7 +3192,7 @@
         <v>0.02834976465640349</v>
       </c>
       <c r="H11" t="n">
-        <v>0.04043610376781503</v>
+        <v>0.04043610376781509</v>
       </c>
       <c r="I11" t="n">
         <v>0.02663783892209817</v>
@@ -3203,10 +3203,10 @@
         <v>83.129</v>
       </c>
       <c r="B12" t="n">
-        <v>0.2201222857493692</v>
+        <v>0.2201222857493693</v>
       </c>
       <c r="C12" t="n">
-        <v>0.208089157777865</v>
+        <v>0.2080891577778649</v>
       </c>
       <c r="D12" t="n">
         <v>0.2215595351374219</v>
@@ -3218,10 +3218,10 @@
         <v>0.2619047619047619</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04178247615539271</v>
+        <v>0.04178247615539266</v>
       </c>
       <c r="H12" t="n">
-        <v>0.05381560412689695</v>
+        <v>0.05381560412689701</v>
       </c>
       <c r="I12" t="n">
         <v>0.04034522676734006</v>
@@ -3247,7 +3247,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="G13" t="n">
-        <v>0.06553354175863352</v>
+        <v>0.06553354175863346</v>
       </c>
       <c r="H13" t="n">
         <v>0.07756629188484343</v>
@@ -3279,7 +3279,7 @@
         <v>0.04332581933786928</v>
       </c>
       <c r="H14" t="n">
-        <v>0.05481823822593113</v>
+        <v>0.05481823822593118</v>
       </c>
       <c r="I14" t="n">
         <v>0.04297041635263432</v>
@@ -3409,7 +3409,7 @@
         <v>0.3901761674654039</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3819107160416728</v>
+        <v>0.3819107160416727</v>
       </c>
       <c r="D19" t="n">
         <v>0.3886705579740238</v>
@@ -3424,7 +3424,7 @@
         <v>0.03839526110602465</v>
       </c>
       <c r="H19" t="n">
-        <v>0.04666071252975579</v>
+        <v>0.04666071252975584</v>
       </c>
       <c r="I19" t="n">
         <v>0.03990087059740471</v>
@@ -3450,10 +3450,10 @@
         <v>0.4523809523809524</v>
       </c>
       <c r="G20" t="n">
-        <v>0.05209899087866438</v>
+        <v>0.05209899087866443</v>
       </c>
       <c r="H20" t="n">
-        <v>0.06002196725993547</v>
+        <v>0.06002196725993553</v>
       </c>
       <c r="I20" t="n">
         <v>0.05369735724075181</v>
@@ -3554,7 +3554,7 @@
         <v>0.5517670863942875</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5496795370978784</v>
+        <v>0.5496795370978785</v>
       </c>
       <c r="D24" t="n">
         <v>0.5495349651818162</v>
@@ -3569,7 +3569,7 @@
         <v>0.004148038775239837</v>
       </c>
       <c r="H24" t="n">
-        <v>0.002060489478830752</v>
+        <v>0.002060489478830863</v>
       </c>
       <c r="I24" t="n">
         <v>0.001915917562768543</v>
@@ -3612,7 +3612,7 @@
         <v>0.5937591835832153</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5933716865863163</v>
+        <v>0.5933716865863164</v>
       </c>
       <c r="D26" t="n">
         <v>0.5915294727193599</v>
@@ -3627,7 +3627,7 @@
         <v>0.0014789116548799</v>
       </c>
       <c r="H26" t="n">
-        <v>0.001866408651778895</v>
+        <v>0.001866408651778784</v>
       </c>
       <c r="I26" t="n">
         <v>0.003708622518735383</v>
@@ -3641,7 +3641,7 @@
         <v>0.5981722965883877</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5979618742790412</v>
+        <v>0.5979618742790413</v>
       </c>
       <c r="D27" t="n">
         <v>0.5959456244169383</v>
@@ -3656,7 +3656,7 @@
         <v>0.0208753224592314</v>
       </c>
       <c r="H27" t="n">
-        <v>0.02108574476857783</v>
+        <v>0.02108574476857772</v>
       </c>
       <c r="I27" t="n">
         <v>0.02310199463068074</v>
@@ -3928,7 +3928,7 @@
         <v>163.282</v>
       </c>
       <c r="B37" t="n">
-        <v>0.8586272343777036</v>
+        <v>0.8586272343777037</v>
       </c>
       <c r="C37" t="n">
         <v>0.8657650181216239</v>
@@ -3943,7 +3943,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="G37" t="n">
-        <v>0.001484377234846512</v>
+        <v>0.001484377234846623</v>
       </c>
       <c r="H37" t="n">
         <v>0.00862216097876678</v>
@@ -3989,7 +3989,7 @@
         <v>0.9093774133891683</v>
       </c>
       <c r="C39" t="n">
-        <v>0.9161826338719199</v>
+        <v>0.9161826338719198</v>
       </c>
       <c r="D39" t="n">
         <v>0.9078138498828584</v>
@@ -4004,7 +4004,7 @@
         <v>0.004615508627263565</v>
       </c>
       <c r="H39" t="n">
-        <v>0.01142072911001513</v>
+        <v>0.01142072911001502</v>
       </c>
       <c r="I39" t="n">
         <v>0.003051945120953636</v>
@@ -4018,7 +4018,7 @@
         <v>0.92143327505439</v>
       </c>
       <c r="C40" t="n">
-        <v>0.9279648136846881</v>
+        <v>0.9279648136846882</v>
       </c>
       <c r="D40" t="n">
         <v>0.9199374980051067</v>
@@ -4033,7 +4033,7 @@
         <v>0.007138153517038615</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0006066148867405197</v>
+        <v>0.0006066148867404086</v>
       </c>
       <c r="I40" t="n">
         <v>0.00863393056632189</v>
@@ -4047,7 +4047,7 @@
         <v>0.970894911046088</v>
       </c>
       <c r="C41" t="n">
-        <v>0.9749595962366499</v>
+        <v>0.97495959623665</v>
       </c>
       <c r="D41" t="n">
         <v>0.9699781676693158</v>
@@ -4062,7 +4062,7 @@
         <v>0.01851395866513572</v>
       </c>
       <c r="H41" t="n">
-        <v>0.02257864385569752</v>
+        <v>0.02257864385569763</v>
       </c>
       <c r="I41" t="n">
         <v>0.01759721528836344</v>
@@ -4105,7 +4105,7 @@
         <v>0.9847284729833029</v>
       </c>
       <c r="C43" t="n">
-        <v>0.9874179059924981</v>
+        <v>0.9874179059924982</v>
       </c>
       <c r="D43" t="n">
         <v>0.9841685038284421</v>
@@ -4120,7 +4120,7 @@
         <v>0.0152715270166971</v>
       </c>
       <c r="H43" t="n">
-        <v>0.01258209400750188</v>
+        <v>0.01258209400750177</v>
       </c>
       <c r="I43" t="n">
         <v>0.01583149617155788</v>
@@ -4175,7 +4175,7 @@
         <v>174.3558351446289</v>
       </c>
       <c r="C2" t="n">
-        <v>172.881358348329</v>
+        <v>172.8813583483289</v>
       </c>
       <c r="D2" t="n">
         <v>175.0626101605569</v>
@@ -4189,7 +4189,7 @@
         <v>258.5530303380551</v>
       </c>
       <c r="C3" t="n">
-        <v>254.0041188816808</v>
+        <v>254.0041188816806</v>
       </c>
       <c r="D3" t="n">
         <v>258.758871499615</v>
@@ -4203,7 +4203,7 @@
         <v>344.8704606412949</v>
       </c>
       <c r="C4" t="n">
-        <v>336.5174331025028</v>
+        <v>336.5174331025025</v>
       </c>
       <c r="D4" t="n">
         <v>340.9350656728547</v>
@@ -4217,7 +4217,7 @@
         <v>437.1556615783541</v>
       </c>
       <c r="C5" t="n">
-        <v>424.19740736531</v>
+        <v>424.1974073653096</v>
       </c>
       <c r="D5" t="n">
         <v>422.9662722001634</v>
@@ -4401,7 +4401,7 @@
         <v>176.147146317481</v>
       </c>
       <c r="C2" t="n">
-        <v>173.6438293779425</v>
+        <v>173.6438293779424</v>
       </c>
       <c r="D2" t="n">
         <v>176.7388488797245</v>
@@ -4415,7 +4415,7 @@
         <v>258.1170666685379</v>
       </c>
       <c r="C3" t="n">
-        <v>250.7429759414247</v>
+        <v>250.7429759414246</v>
       </c>
       <c r="D3" t="n">
         <v>259.4151098159642</v>
@@ -4443,7 +4443,7 @@
         <v>429.5454206408473</v>
       </c>
       <c r="C5" t="n">
-        <v>409.1927796756678</v>
+        <v>409.1927796756677</v>
       </c>
       <c r="D5" t="n">
         <v>421.6213265665889</v>
@@ -4538,7 +4538,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.1155217666958316</v>
+        <v>0.1155217666958308</v>
       </c>
       <c r="D3" t="n">
         <v>0.1882500869537521</v>
@@ -4764,7 +4764,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>4.46993198906311</v>
+        <v>4.469931989063104</v>
       </c>
       <c r="E3" t="n">
         <v>2</v>
@@ -4796,7 +4796,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>1.778731921344894</v>
+        <v>1.778731921344895</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -4828,7 +4828,7 @@
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>5.101257355697612</v>
+        <v>5.101257355697618</v>
       </c>
       <c r="E5" t="n">
         <v>2</v>
@@ -4956,7 +4956,7 @@
         <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>7.254192607344461</v>
+        <v>7.254192607344457</v>
       </c>
       <c r="E9" t="n">
         <v>2</v>
@@ -4988,7 +4988,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>2.033592561050211</v>
+        <v>2.033592561050213</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
